--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master Thesis Model\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052C53E6-85CB-4E0C-9541-30556BB6EC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39257A9-EB5B-428F-B6A3-4A2DB2396C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="11" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -4631,7 +4631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="345">
   <si>
     <t>Methanol=LHC in technology cathalogue</t>
   </si>
@@ -5321,57 +5321,6 @@
     <t>NO KM??</t>
   </si>
   <si>
-    <t>~FI_Comm</t>
-  </si>
-  <si>
-    <t>Csets</t>
-  </si>
-  <si>
-    <t>CommName</t>
-  </si>
-  <si>
-    <t>CommDesc</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>LimType</t>
-  </si>
-  <si>
-    <t>CTSLvl</t>
-  </si>
-  <si>
-    <t>PeakTS</t>
-  </si>
-  <si>
-    <t>Ctype</t>
-  </si>
-  <si>
-    <t>*Commodity Set Membership</t>
-  </si>
-  <si>
-    <t>Commodity Name</t>
-  </si>
-  <si>
-    <t>Commodity Description</t>
-  </si>
-  <si>
-    <t>Sense of the Balance EQN.</t>
-  </si>
-  <si>
-    <t>Timeslice Level</t>
-  </si>
-  <si>
-    <t>Peak Monitoring</t>
-  </si>
-  <si>
-    <t>Electricity Indicator</t>
-  </si>
-  <si>
-    <t>NRG</t>
-  </si>
-  <si>
     <t>DAYNITE</t>
   </si>
   <si>
@@ -5573,9 +5522,6 @@
     <t>FIXEDCOST (MEUR/kta/year)</t>
   </si>
   <si>
-    <t>electricity to export</t>
-  </si>
-  <si>
     <t>TRANS_LINE</t>
   </si>
   <si>
@@ -5594,9 +5540,6 @@
     <t>EXP_H2</t>
   </si>
   <si>
-    <t>Hydrogen to export</t>
-  </si>
-  <si>
     <t>h2_pipe</t>
   </si>
   <si>
@@ -5642,9 +5585,6 @@
     <t>EXP_AMM</t>
   </si>
   <si>
-    <t>Ammonia to export</t>
-  </si>
-  <si>
     <t>nh3_pipe</t>
   </si>
   <si>
@@ -5678,9 +5618,6 @@
     <t>IMP_CO2</t>
   </si>
   <si>
-    <t>Import of CO2</t>
-  </si>
-  <si>
     <t>kt</t>
   </si>
   <si>
@@ -5705,9 +5642,6 @@
     <t>HFO</t>
   </si>
   <si>
-    <t>Heavy fuel oil</t>
-  </si>
-  <si>
     <t>PJ/kt</t>
   </si>
   <si>
@@ -5732,9 +5666,6 @@
     <t>METH_ship</t>
   </si>
   <si>
-    <t>Export of CO2</t>
-  </si>
-  <si>
     <t>METH ship</t>
   </si>
   <si>
@@ -5751,9 +5682,6 @@
   </si>
   <si>
     <t>EXP_KRE</t>
-  </si>
-  <si>
-    <t>Export of KRE</t>
   </si>
   <si>
     <t>KRE_ship</t>
@@ -6138,7 +6066,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -6506,6 +6434,12 @@
     <xf numFmtId="1" fontId="34" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="34" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7233,7 +7167,7 @@
         <v>16.800999999999998</v>
       </c>
       <c r="H17" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="O17">
         <v>140</v>
@@ -7263,7 +7197,7 @@
         <v>80.816326568000008</v>
       </c>
       <c r="H18" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="O18">
         <v>150</v>
@@ -7293,7 +7227,7 @@
         <v>4.759656285768</v>
       </c>
       <c r="H19" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="O19">
         <v>160</v>
@@ -8749,7 +8683,7 @@
   <dimension ref="C3:AF18"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="X2" sqref="X2:AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8761,9 +8695,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:32">
-      <c r="Y3" s="128" t="s">
-        <v>220</v>
-      </c>
+      <c r="Y3" s="128"/>
       <c r="Z3" s="129"/>
       <c r="AA3" s="129"/>
       <c r="AB3" s="129"/>
@@ -8773,78 +8705,33 @@
       <c r="AF3" s="129"/>
     </row>
     <row r="4" spans="3:32">
-      <c r="Y4" s="130" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z4" s="130" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA4" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB4" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC4" s="130" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD4" s="130" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE4" s="130" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF4" s="130" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="3:32" ht="32.4" thickBot="1">
-      <c r="Y5" s="131" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z5" s="131" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA5" s="131" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB5" s="131" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC5" s="131" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD5" s="131" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE5" s="131" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF5" s="131" t="s">
-        <v>235</v>
-      </c>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
+    </row>
+    <row r="5" spans="3:32">
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="146"/>
     </row>
     <row r="6" spans="3:32">
-      <c r="Y6" s="129" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>357</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>239</v>
-      </c>
+      <c r="Y6" s="129"/>
       <c r="AC6" s="129"/>
-      <c r="AD6" s="129" t="s">
-        <v>237</v>
-      </c>
+      <c r="AD6" s="129"/>
     </row>
     <row r="7" spans="3:32">
       <c r="C7" s="132" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
@@ -8869,115 +8756,115 @@
     </row>
     <row r="8" spans="3:32">
       <c r="C8" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="130" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="130" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="130" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="130" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="130" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" s="130" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8" s="130" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="130" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="130" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="130" t="s">
+        <v>233</v>
+      </c>
+      <c r="N8" s="130" t="s">
+        <v>234</v>
+      </c>
+      <c r="O8" s="130" t="s">
+        <v>235</v>
+      </c>
+      <c r="P8" s="130" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q8" s="130" t="s">
+        <v>237</v>
+      </c>
+      <c r="R8" s="130" t="s">
+        <v>238</v>
+      </c>
+      <c r="S8" s="130" t="s">
+        <v>239</v>
+      </c>
+      <c r="T8" s="130" t="s">
         <v>240</v>
-      </c>
-      <c r="D8" s="130" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="130" t="s">
-        <v>242</v>
-      </c>
-      <c r="F8" s="130" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="130" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="130" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" s="130" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" s="130" t="s">
-        <v>247</v>
-      </c>
-      <c r="K8" s="130" t="s">
-        <v>248</v>
-      </c>
-      <c r="L8" s="130" t="s">
-        <v>249</v>
-      </c>
-      <c r="M8" s="130" t="s">
-        <v>250</v>
-      </c>
-      <c r="N8" s="130" t="s">
-        <v>251</v>
-      </c>
-      <c r="O8" s="130" t="s">
-        <v>252</v>
-      </c>
-      <c r="P8" s="130" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q8" s="130" t="s">
-        <v>254</v>
-      </c>
-      <c r="R8" s="130" t="s">
-        <v>255</v>
-      </c>
-      <c r="S8" s="130" t="s">
-        <v>256</v>
-      </c>
-      <c r="T8" s="130" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="D9" s="131" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E9" s="131" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F9" s="131" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G9" s="131" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H9" s="131" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="I9" s="131"/>
       <c r="J9" s="131"/>
       <c r="K9" s="131" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="L9" s="131" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M9" s="131" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="N9" s="131" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="O9" s="131" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="P9" s="131" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="131" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="R9" s="131" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="S9" s="131" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="T9" s="131" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="22.2" thickBot="1">
       <c r="C10" s="131" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -8987,48 +8874,48 @@
       <c r="I10" s="131"/>
       <c r="J10" s="131"/>
       <c r="K10" s="131" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="L10" s="131" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="M10" s="131" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="N10" s="131" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="O10" s="134" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="P10" s="131" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="134" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="R10" s="134" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="S10" s="131" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="T10" s="134" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="D11" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="F11" s="141" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="G11" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="I11" s="141">
         <v>2020</v>
@@ -9061,7 +8948,7 @@
       <c r="S11" s="143"/>
       <c r="T11" s="143"/>
       <c r="Y11" s="128" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="Z11" s="129"/>
       <c r="AA11" s="129"/>
@@ -9100,28 +8987,28 @@
       <c r="S12" s="137"/>
       <c r="T12" s="137"/>
       <c r="Y12" s="130" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="Z12" s="130" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AA12" s="130" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="AB12" s="130" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AC12" s="130" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="AD12" s="130" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AE12" s="130" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="AF12" s="130" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="3:32" ht="42.6" thickBot="1">
@@ -9152,33 +9039,33 @@
       <c r="S13" s="137"/>
       <c r="T13" s="137"/>
       <c r="Y13" s="131" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Z13" s="131" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="AA13" s="131" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AB13" s="131" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="AC13" s="131" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="AD13" s="131" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="AE13" s="131" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="AF13" s="131" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1">
       <c r="Y14" s="131" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="Z14" s="131"/>
       <c r="AA14" s="131"/>
@@ -9190,28 +9077,28 @@
     </row>
     <row r="15" spans="3:32">
       <c r="Y15" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="Z15" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="AA15" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="AB15" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="AC15" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="AD15" s="133" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="AE15" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="AF15" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="15:16">
@@ -9349,7 +9236,7 @@
     </row>
     <row r="17" spans="9:20">
       <c r="I17" s="27" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="J17">
         <f>J10/1000000</f>
@@ -9362,7 +9249,7 @@
     </row>
     <row r="18" spans="9:20">
       <c r="I18" s="62" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="J18" s="63">
         <f>J11/(1000000*$P$19*$P$9)</f>
@@ -9372,12 +9259,12 @@
         <v>161</v>
       </c>
       <c r="S18" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="9:20">
       <c r="I19" s="62" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="J19" s="63">
         <f>J12/(1000000*$P$19*$P$9)</f>
@@ -9390,12 +9277,12 @@
         <v>45000</v>
       </c>
       <c r="T19" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="9:20">
       <c r="I20" s="62" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="J20" s="63">
         <f>J13/(1000000*$P$19*$P$9)</f>
@@ -9413,10 +9300,10 @@
         <v>153</v>
       </c>
       <c r="L24" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="M24" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="9:20">
@@ -10728,16 +10615,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195BF64-9F46-4536-8385-3D462E705609}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="3:32">
-      <c r="Y3" s="128" t="s">
-        <v>220</v>
-      </c>
+      <c r="Y3" s="128"/>
       <c r="Z3" s="129"/>
       <c r="AA3" s="129"/>
       <c r="AB3" s="129"/>
@@ -10747,78 +10632,33 @@
       <c r="AF3" s="129"/>
     </row>
     <row r="4" spans="3:32">
-      <c r="Y4" s="130" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z4" s="130" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA4" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB4" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC4" s="130" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD4" s="130" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE4" s="130" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF4" s="130" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="3:32" ht="32.4" thickBot="1">
-      <c r="Y5" s="131" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z5" s="131" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA5" s="131" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB5" s="131" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC5" s="131" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD5" s="131" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE5" s="131" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF5" s="131" t="s">
-        <v>235</v>
-      </c>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
+    </row>
+    <row r="5" spans="3:32">
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="146"/>
     </row>
     <row r="6" spans="3:32">
-      <c r="Y6" s="129" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>364</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>239</v>
-      </c>
+      <c r="Y6" s="129"/>
       <c r="AC6" s="129"/>
-      <c r="AD6" s="129" t="s">
-        <v>237</v>
-      </c>
+      <c r="AD6" s="129"/>
     </row>
     <row r="7" spans="3:32">
       <c r="C7" s="132" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
@@ -10843,115 +10683,115 @@
     </row>
     <row r="8" spans="3:32">
       <c r="C8" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="130" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="130" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="130" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="130" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="130" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" s="130" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8" s="130" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="130" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="130" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="130" t="s">
+        <v>233</v>
+      </c>
+      <c r="N8" s="130" t="s">
+        <v>234</v>
+      </c>
+      <c r="O8" s="130" t="s">
+        <v>235</v>
+      </c>
+      <c r="P8" s="130" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q8" s="130" t="s">
+        <v>237</v>
+      </c>
+      <c r="R8" s="130" t="s">
+        <v>238</v>
+      </c>
+      <c r="S8" s="130" t="s">
+        <v>239</v>
+      </c>
+      <c r="T8" s="130" t="s">
         <v>240</v>
-      </c>
-      <c r="D8" s="130" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="130" t="s">
-        <v>242</v>
-      </c>
-      <c r="F8" s="130" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="130" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="130" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" s="130" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" s="130" t="s">
-        <v>247</v>
-      </c>
-      <c r="K8" s="130" t="s">
-        <v>248</v>
-      </c>
-      <c r="L8" s="130" t="s">
-        <v>249</v>
-      </c>
-      <c r="M8" s="130" t="s">
-        <v>250</v>
-      </c>
-      <c r="N8" s="130" t="s">
-        <v>251</v>
-      </c>
-      <c r="O8" s="130" t="s">
-        <v>252</v>
-      </c>
-      <c r="P8" s="130" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q8" s="130" t="s">
-        <v>254</v>
-      </c>
-      <c r="R8" s="130" t="s">
-        <v>255</v>
-      </c>
-      <c r="S8" s="130" t="s">
-        <v>256</v>
-      </c>
-      <c r="T8" s="130" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="D9" s="131" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E9" s="131" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F9" s="131" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G9" s="131" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H9" s="131" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="I9" s="131"/>
       <c r="J9" s="131"/>
       <c r="K9" s="131" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="L9" s="131" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M9" s="131" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="N9" s="131" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="O9" s="131" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="P9" s="131" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="131" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="R9" s="131" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="S9" s="131" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="T9" s="131" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="21.6">
       <c r="C10" s="134" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="D10" s="134"/>
       <c r="E10" s="134"/>
@@ -10961,49 +10801,49 @@
       <c r="I10" s="134"/>
       <c r="J10" s="134"/>
       <c r="K10" s="134" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="L10" s="134" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="M10" s="134" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="N10" s="134" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="O10" s="134" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="P10" s="134" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="134" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="R10" s="134" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="S10" s="134" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="T10" s="134" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" s="141" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="D11" s="141" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="E11" s="141"/>
       <c r="F11" s="141" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="G11" s="141" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="H11" s="141"/>
       <c r="I11" s="141">
@@ -11035,7 +10875,7 @@
       <c r="S11" s="141"/>
       <c r="T11" s="143"/>
       <c r="Y11" s="128" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="Z11" s="129"/>
       <c r="AA11" s="129"/>
@@ -11047,7 +10887,7 @@
     </row>
     <row r="12" spans="3:32">
       <c r="E12" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="J12" s="133"/>
       <c r="L12">
@@ -11055,36 +10895,36 @@
       </c>
       <c r="T12" s="137"/>
       <c r="Y12" s="130" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="Z12" s="130" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AA12" s="130" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="AB12" s="130" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AC12" s="130" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="AD12" s="130" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AE12" s="130" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="AF12" s="130" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="3:32" ht="42.6" thickBot="1">
       <c r="F13" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="G13" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="I13" s="133">
         <v>2030</v>
@@ -11108,39 +10948,39 @@
       </c>
       <c r="T13" s="137"/>
       <c r="Y13" s="131" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Z13" s="131" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="AA13" s="131" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AB13" s="131" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="AC13" s="131" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="AD13" s="131" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="AE13" s="131" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="AF13" s="131" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1">
       <c r="E14" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="L14">
         <v>0.1</v>
       </c>
       <c r="Y14" s="131" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="Z14" s="131"/>
       <c r="AA14" s="131"/>
@@ -11152,10 +10992,10 @@
     </row>
     <row r="15" spans="3:32">
       <c r="F15" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="G15" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="I15">
         <v>2050</v>
@@ -11178,33 +11018,33 @@
         <v>1.0835332077466361E-3</v>
       </c>
       <c r="Y15" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="Z15" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="AA15" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="AB15" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="AC15" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="AD15" s="133" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="AE15" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="AF15" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="3:32">
       <c r="E16" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="L16">
         <v>0.1</v>
@@ -11237,18 +11077,18 @@
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="145" t="s">
+      <c r="C1" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="14" t="s">
@@ -12736,17 +12576,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
@@ -13726,17 +13566,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
       <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12">
@@ -14416,17 +14256,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
       <c r="L1" s="58"/>
       <c r="M1" s="58"/>
       <c r="N1" s="58"/>
@@ -16160,17 +16000,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="145" t="s">
+      <c r="C1" s="147" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
       <c r="L1" s="66"/>
       <c r="M1" s="66"/>
       <c r="N1" s="66"/>
@@ -16921,8 +16761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58317BE-2B49-4D94-8D23-F69EEBB61B78}">
   <dimension ref="C3:AF26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="I1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16933,9 +16773,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:32">
-      <c r="Y3" s="128" t="s">
-        <v>220</v>
-      </c>
+      <c r="Y3" s="128"/>
       <c r="Z3" s="129"/>
       <c r="AA3" s="129"/>
       <c r="AB3" s="129"/>
@@ -16945,78 +16783,33 @@
       <c r="AF3" s="129"/>
     </row>
     <row r="4" spans="3:32">
-      <c r="Y4" s="130" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z4" s="130" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA4" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB4" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC4" s="130" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD4" s="130" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE4" s="130" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF4" s="130" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="3:32" ht="32.4" thickBot="1">
-      <c r="Y5" s="131" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z5" s="131" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA5" s="131" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB5" s="131" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC5" s="131" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD5" s="131" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE5" s="131" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF5" s="131" t="s">
-        <v>235</v>
-      </c>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
+    </row>
+    <row r="5" spans="3:32">
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="146"/>
     </row>
     <row r="6" spans="3:32">
-      <c r="Y6" s="129" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>239</v>
-      </c>
+      <c r="Y6" s="129"/>
       <c r="AC6" s="129"/>
-      <c r="AD6" s="129" t="s">
-        <v>237</v>
-      </c>
+      <c r="AD6" s="129"/>
     </row>
     <row r="7" spans="3:32">
       <c r="C7" s="132" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
@@ -17038,115 +16831,115 @@
     </row>
     <row r="8" spans="3:32">
       <c r="C8" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="130" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="130" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="130" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="130" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="130" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" s="130" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8" s="130" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="130" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="130" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="130" t="s">
+        <v>233</v>
+      </c>
+      <c r="N8" s="130" t="s">
+        <v>234</v>
+      </c>
+      <c r="O8" s="130" t="s">
+        <v>235</v>
+      </c>
+      <c r="P8" s="130" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q8" s="130" t="s">
+        <v>237</v>
+      </c>
+      <c r="R8" s="130" t="s">
+        <v>238</v>
+      </c>
+      <c r="S8" s="130" t="s">
+        <v>239</v>
+      </c>
+      <c r="T8" s="130" t="s">
         <v>240</v>
-      </c>
-      <c r="D8" s="130" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="130" t="s">
-        <v>242</v>
-      </c>
-      <c r="F8" s="130" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="130" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="130" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" s="130" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" s="130" t="s">
-        <v>247</v>
-      </c>
-      <c r="K8" s="130" t="s">
-        <v>248</v>
-      </c>
-      <c r="L8" s="130" t="s">
-        <v>249</v>
-      </c>
-      <c r="M8" s="130" t="s">
-        <v>250</v>
-      </c>
-      <c r="N8" s="130" t="s">
-        <v>251</v>
-      </c>
-      <c r="O8" s="130" t="s">
-        <v>252</v>
-      </c>
-      <c r="P8" s="130" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q8" s="130" t="s">
-        <v>254</v>
-      </c>
-      <c r="R8" s="130" t="s">
-        <v>255</v>
-      </c>
-      <c r="S8" s="130" t="s">
-        <v>256</v>
-      </c>
-      <c r="T8" s="130" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="D9" s="131" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E9" s="131" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F9" s="131" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G9" s="131" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H9" s="131" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="I9" s="131"/>
       <c r="J9" s="131"/>
       <c r="K9" s="131" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="L9" s="131" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M9" s="131" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="N9" s="131" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="O9" s="131" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="P9" s="131" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="131" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="R9" s="131" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="S9" s="131" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="T9" s="131" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="15" thickBot="1">
       <c r="C10" s="131" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -17156,48 +16949,48 @@
       <c r="I10" s="131"/>
       <c r="J10" s="131"/>
       <c r="K10" s="131" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="L10" s="131" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="M10" s="131" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="N10" s="131" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="O10" s="131" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="P10" s="131" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="134" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="R10" s="134" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="S10" s="131" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="T10" s="134" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="D11" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="F11" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="G11" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="I11">
         <v>2020</v>
@@ -17230,7 +17023,7 @@
         <v>1.5</v>
       </c>
       <c r="Y11" s="128" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="Z11" s="129"/>
       <c r="AA11" s="129"/>
@@ -17270,28 +17063,28 @@
         <v>1.5</v>
       </c>
       <c r="Y12" s="130" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="Z12" s="130" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AA12" s="130" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="AB12" s="130" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AC12" s="130" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="AD12" s="130" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AE12" s="130" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="AF12" s="130" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="3:32" ht="42.6" thickBot="1">
@@ -17323,28 +17116,28 @@
         <v>1.5</v>
       </c>
       <c r="Y13" s="131" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Z13" s="131" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="AA13" s="131" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AB13" s="131" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="AC13" s="131" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="AD13" s="131" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="AE13" s="131" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="AF13" s="131" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1">
@@ -17352,7 +17145,7 @@
       <c r="O14" s="138"/>
       <c r="T14" s="137"/>
       <c r="Y14" s="131" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="Z14" s="131"/>
       <c r="AA14" s="131"/>
@@ -17368,28 +17161,28 @@
       <c r="P15" s="140"/>
       <c r="T15" s="137"/>
       <c r="Y15" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="Z15" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="AA15" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="AB15" s="139" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="AC15" s="139" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="AD15" s="133" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="AE15" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="AF15" s="139" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="3:32">
@@ -17578,7 +17371,7 @@
         <v>3.5999999999999998E-6</v>
       </c>
       <c r="T11" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="3:21">
@@ -17603,7 +17396,7 @@
         <v>10000</v>
       </c>
       <c r="U12" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="3:21">
@@ -17619,7 +17412,7 @@
     </row>
     <row r="14" spans="3:21">
       <c r="L14" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="M14">
         <f>M13/1000000</f>
@@ -17634,7 +17427,7 @@
         <v>1.1998799999999998</v>
       </c>
       <c r="U14" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="3:21">
@@ -17710,7 +17503,7 @@
     </row>
     <row r="20" spans="3:16">
       <c r="L20" s="62" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="M20" s="63">
         <f>M16/(33.33*1000000*$P$11)</f>
@@ -17738,7 +17531,7 @@
         <v>213</v>
       </c>
       <c r="L21" s="62" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="M21" s="63">
         <f t="shared" ref="M21:N21" si="0">M17/(33.33*1000000*$P$11)</f>
@@ -17770,7 +17563,7 @@
         <v>1.9938238462500002E-3</v>
       </c>
       <c r="L22" s="62" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="M22" s="63">
         <f t="shared" ref="M22:N22" si="2">M18/(33.33*1000000*$P$11)</f>
@@ -17847,10 +17640,10 @@
         <v>153</v>
       </c>
       <c r="O25" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="P25" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="3:16">
@@ -21788,7 +21581,7 @@
   <dimension ref="C3:AF16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="X2" sqref="X2:AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21800,9 +21593,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:32">
-      <c r="Y3" s="128" t="s">
-        <v>220</v>
-      </c>
+      <c r="Y3" s="128"/>
       <c r="Z3" s="129"/>
       <c r="AA3" s="129"/>
       <c r="AB3" s="129"/>
@@ -21812,78 +21603,33 @@
       <c r="AF3" s="129"/>
     </row>
     <row r="4" spans="3:32">
-      <c r="Y4" s="130" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z4" s="130" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA4" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB4" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC4" s="130" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD4" s="130" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE4" s="130" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF4" s="130" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="3:32" ht="32.4" thickBot="1">
-      <c r="Y5" s="131" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z5" s="131" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA5" s="131" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB5" s="131" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC5" s="131" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD5" s="131" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE5" s="131" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF5" s="131" t="s">
-        <v>235</v>
-      </c>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
+    </row>
+    <row r="5" spans="3:32">
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="146"/>
     </row>
     <row r="6" spans="3:32">
-      <c r="Y6" s="129" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>311</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>239</v>
-      </c>
+      <c r="Y6" s="129"/>
       <c r="AC6" s="129"/>
-      <c r="AD6" s="129" t="s">
-        <v>237</v>
-      </c>
+      <c r="AD6" s="129"/>
     </row>
     <row r="7" spans="3:32">
       <c r="C7" s="132" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
@@ -21905,115 +21651,115 @@
     </row>
     <row r="8" spans="3:32">
       <c r="C8" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="130" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="130" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="130" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="130" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="130" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" s="130" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8" s="130" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="130" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="130" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="130" t="s">
+        <v>233</v>
+      </c>
+      <c r="N8" s="130" t="s">
+        <v>234</v>
+      </c>
+      <c r="O8" s="130" t="s">
+        <v>235</v>
+      </c>
+      <c r="P8" s="130" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q8" s="130" t="s">
+        <v>237</v>
+      </c>
+      <c r="R8" s="130" t="s">
+        <v>238</v>
+      </c>
+      <c r="S8" s="130" t="s">
+        <v>239</v>
+      </c>
+      <c r="T8" s="130" t="s">
         <v>240</v>
-      </c>
-      <c r="D8" s="130" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="130" t="s">
-        <v>242</v>
-      </c>
-      <c r="F8" s="130" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="130" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="130" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" s="130" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" s="130" t="s">
-        <v>247</v>
-      </c>
-      <c r="K8" s="130" t="s">
-        <v>248</v>
-      </c>
-      <c r="L8" s="130" t="s">
-        <v>249</v>
-      </c>
-      <c r="M8" s="130" t="s">
-        <v>250</v>
-      </c>
-      <c r="N8" s="130" t="s">
-        <v>251</v>
-      </c>
-      <c r="O8" s="130" t="s">
-        <v>252</v>
-      </c>
-      <c r="P8" s="130" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q8" s="130" t="s">
-        <v>254</v>
-      </c>
-      <c r="R8" s="130" t="s">
-        <v>255</v>
-      </c>
-      <c r="S8" s="130" t="s">
-        <v>256</v>
-      </c>
-      <c r="T8" s="130" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="D9" s="131" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E9" s="131" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F9" s="131" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G9" s="131" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H9" s="131" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="I9" s="131"/>
       <c r="J9" s="131"/>
       <c r="K9" s="131" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="L9" s="131" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M9" s="131" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="N9" s="131" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="O9" s="131" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="P9" s="131" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="131" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="R9" s="131" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="S9" s="131" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="T9" s="131" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="22.2" thickBot="1">
       <c r="C10" s="131" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -22023,48 +21769,48 @@
       <c r="I10" s="131"/>
       <c r="J10" s="131"/>
       <c r="K10" s="131" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="L10" s="131" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="M10" s="131" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="N10" s="131" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="O10" s="134" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="P10" s="131" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="134" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="R10" s="134" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="S10" s="131" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="T10" s="134" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="D11" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="F11" t="s">
         <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="I11">
         <v>2020</v>
@@ -22096,7 +21842,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="128" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="Z11" s="129"/>
       <c r="AA11" s="129"/>
@@ -22135,28 +21881,28 @@
         <v>1</v>
       </c>
       <c r="Y12" s="130" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="Z12" s="130" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AA12" s="130" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="AB12" s="130" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AC12" s="130" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="AD12" s="130" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AE12" s="130" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="AF12" s="130" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="3:32" ht="42.6" thickBot="1">
@@ -22187,43 +21933,43 @@
         <v>1</v>
       </c>
       <c r="Y13" s="131" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Z13" s="131" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="AA13" s="131" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AB13" s="131" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="AC13" s="131" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="AD13" s="131" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="AE13" s="131" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="AF13" s="131" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1">
       <c r="C14" s="141" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="D14" s="141" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="E14" s="141"/>
       <c r="F14" s="141" t="s">
         <v>156</v>
       </c>
       <c r="G14" s="141" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="H14" s="141"/>
       <c r="I14" s="141">
@@ -22258,7 +22004,7 @@
       <c r="S14" s="141"/>
       <c r="T14" s="143"/>
       <c r="Y14" s="131" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="Z14" s="131"/>
       <c r="AA14" s="131"/>
@@ -22296,28 +22042,28 @@
       </c>
       <c r="T15" s="137"/>
       <c r="Y15" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="Z15" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="AA15" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="AB15" s="139" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="AC15" s="139" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="AD15" s="133" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="AE15" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="AF15" s="139" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="3:32">
@@ -22347,28 +22093,28 @@
       </c>
       <c r="T16" s="137"/>
       <c r="Y16" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA16" t="s">
         <v>296</v>
       </c>
-      <c r="Z16" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>315</v>
-      </c>
       <c r="AB16" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="AC16" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="AD16" s="133" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="AE16" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="AF16" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -22457,7 +22203,7 @@
         <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="M6">
         <f>M5/1000000</f>
@@ -22566,7 +22312,7 @@
         <v>205</v>
       </c>
       <c r="L11" s="62" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="M11" s="63">
         <f>M7/($R$6*1000000*$S$13)</f>
@@ -22579,7 +22325,7 @@
     </row>
     <row r="12" spans="2:23">
       <c r="L12" s="62" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="M12" s="63">
         <f t="shared" ref="M12:N13" si="0">M8/($R$6*1000000*$S$13)</f>
@@ -22608,7 +22354,7 @@
         <v>201</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="M13" s="63">
         <f t="shared" si="0"/>
@@ -22624,7 +22370,7 @@
     </row>
     <row r="14" spans="2:23">
       <c r="V14" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="2:23">
@@ -22632,7 +22378,7 @@
         <v>45000</v>
       </c>
       <c r="W15" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="2:23">
@@ -22669,7 +22415,7 @@
         <v>0.84240000000000004</v>
       </c>
       <c r="W17" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="2:23">
@@ -22740,10 +22486,10 @@
         <v>153</v>
       </c>
       <c r="O22" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="P22" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="2:23">
@@ -25890,7 +25636,7 @@
   <dimension ref="C3:AF16"/>
   <sheetViews>
     <sheetView topLeftCell="J2" zoomScale="70" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="X2" sqref="X2:AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25905,9 +25651,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:32">
-      <c r="Y3" s="128" t="s">
-        <v>220</v>
-      </c>
+      <c r="Y3" s="128"/>
       <c r="Z3" s="129"/>
       <c r="AA3" s="129"/>
       <c r="AB3" s="129"/>
@@ -25917,78 +25661,33 @@
       <c r="AF3" s="129"/>
     </row>
     <row r="4" spans="3:32">
-      <c r="Y4" s="130" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z4" s="130" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA4" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB4" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC4" s="130" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD4" s="130" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE4" s="130" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF4" s="130" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="3:32" ht="32.4" thickBot="1">
-      <c r="Y5" s="131" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z5" s="131" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA5" s="131" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB5" s="131" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC5" s="131" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD5" s="131" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE5" s="131" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF5" s="131" t="s">
-        <v>235</v>
-      </c>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
+    </row>
+    <row r="5" spans="3:32">
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="146"/>
     </row>
     <row r="6" spans="3:32">
-      <c r="Y6" s="129" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>239</v>
-      </c>
+      <c r="Y6" s="129"/>
       <c r="AC6" s="129"/>
-      <c r="AD6" s="129" t="s">
-        <v>237</v>
-      </c>
+      <c r="AD6" s="129"/>
     </row>
     <row r="7" spans="3:32">
       <c r="C7" s="132" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
@@ -26010,115 +25709,115 @@
     </row>
     <row r="8" spans="3:32">
       <c r="C8" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="130" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="130" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="130" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="130" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="130" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" s="130" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8" s="130" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="130" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="130" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="130" t="s">
+        <v>233</v>
+      </c>
+      <c r="N8" s="130" t="s">
+        <v>234</v>
+      </c>
+      <c r="O8" s="130" t="s">
+        <v>235</v>
+      </c>
+      <c r="P8" s="130" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q8" s="130" t="s">
+        <v>237</v>
+      </c>
+      <c r="R8" s="130" t="s">
+        <v>238</v>
+      </c>
+      <c r="S8" s="130" t="s">
+        <v>239</v>
+      </c>
+      <c r="T8" s="130" t="s">
         <v>240</v>
-      </c>
-      <c r="D8" s="130" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="130" t="s">
-        <v>242</v>
-      </c>
-      <c r="F8" s="130" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="130" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="130" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" s="130" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" s="130" t="s">
-        <v>247</v>
-      </c>
-      <c r="K8" s="130" t="s">
-        <v>248</v>
-      </c>
-      <c r="L8" s="130" t="s">
-        <v>249</v>
-      </c>
-      <c r="M8" s="130" t="s">
-        <v>250</v>
-      </c>
-      <c r="N8" s="130" t="s">
-        <v>251</v>
-      </c>
-      <c r="O8" s="130" t="s">
-        <v>252</v>
-      </c>
-      <c r="P8" s="130" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q8" s="130" t="s">
-        <v>254</v>
-      </c>
-      <c r="R8" s="130" t="s">
-        <v>255</v>
-      </c>
-      <c r="S8" s="130" t="s">
-        <v>256</v>
-      </c>
-      <c r="T8" s="130" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="D9" s="131" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E9" s="131" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F9" s="131" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G9" s="131" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H9" s="131" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="I9" s="131"/>
       <c r="J9" s="131"/>
       <c r="K9" s="131" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="L9" s="131" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M9" s="131" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="N9" s="131" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="O9" s="131" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="P9" s="131" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="131" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="R9" s="131" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="S9" s="131" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="T9" s="131" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="22.2" thickBot="1">
       <c r="C10" s="131" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -26128,48 +25827,48 @@
       <c r="I10" s="131"/>
       <c r="J10" s="131"/>
       <c r="K10" s="131" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="L10" s="131" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="M10" s="131" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="N10" s="131" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="O10" s="134" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="P10" s="131" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="134" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="R10" s="134" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="S10" s="131" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="T10" s="134" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D11" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="F11" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="G11" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="I11">
         <v>2020</v>
@@ -26201,7 +25900,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="128" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="Z11" s="129"/>
       <c r="AA11" s="129"/>
@@ -26240,28 +25939,28 @@
         <v>1</v>
       </c>
       <c r="Y12" s="130" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="Z12" s="130" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AA12" s="130" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="AB12" s="130" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AC12" s="130" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="AD12" s="130" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AE12" s="130" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="AF12" s="130" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="3:32" ht="42.6" thickBot="1">
@@ -26292,43 +25991,43 @@
         <v>1</v>
       </c>
       <c r="Y13" s="131" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Z13" s="131" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="AA13" s="131" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AB13" s="131" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="AC13" s="131" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="AD13" s="131" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="AE13" s="131" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="AF13" s="131" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1">
       <c r="C14" s="141" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D14" s="141" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="E14" s="141"/>
       <c r="F14" s="141" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="G14" s="141" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="H14" s="141"/>
       <c r="I14" s="141">
@@ -26363,7 +26062,7 @@
       <c r="S14" s="141"/>
       <c r="T14" s="143"/>
       <c r="Y14" s="131" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="Z14" s="131"/>
       <c r="AA14" s="131"/>
@@ -26400,28 +26099,28 @@
       </c>
       <c r="T15" s="137"/>
       <c r="Y15" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="Z15" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="AA15" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AB15" s="139" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="AC15" s="139" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="AD15" s="133" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="AE15" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="AF15" s="139" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="3:32">
@@ -26450,28 +26149,28 @@
       </c>
       <c r="T16" s="137"/>
       <c r="Y16" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="Z16" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="AA16" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="AB16" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="AC16" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="AD16" s="133" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="AE16" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="AF16" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -26550,7 +26249,7 @@
     </row>
     <row r="8" spans="3:20">
       <c r="Q8" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="3:20">
@@ -26565,7 +26264,7 @@
         <v>3.7671232876712327E-6</v>
       </c>
       <c r="G9" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="M9">
         <v>2030</v>
@@ -26593,7 +26292,7 @@
         <v>0.11428571428571428</v>
       </c>
       <c r="S10" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="3:20">
@@ -26608,7 +26307,7 @@
         <v>2.2831050228310503E-6</v>
       </c>
       <c r="G11" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>185</v>
@@ -26650,7 +26349,7 @@
         <v>4780</v>
       </c>
       <c r="P14" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="Q14">
         <f>P10*100</f>
@@ -26661,7 +26360,7 @@
         <v>11.428571428571429</v>
       </c>
       <c r="T14" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="3:20">
@@ -26712,10 +26411,10 @@
         <v>153</v>
       </c>
       <c r="C19" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D19" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="Q19">
         <v>3.5999999999999998E-6</v>
@@ -28040,7 +27739,7 @@
   <dimension ref="C3:AF19"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="X2" sqref="X2:AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28056,9 +27755,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:32">
-      <c r="Y3" s="128" t="s">
-        <v>220</v>
-      </c>
+      <c r="Y3" s="128"/>
       <c r="Z3" s="129"/>
       <c r="AA3" s="129"/>
       <c r="AB3" s="129"/>
@@ -28068,78 +27765,33 @@
       <c r="AF3" s="129"/>
     </row>
     <row r="4" spans="3:32">
-      <c r="Y4" s="130" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z4" s="130" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA4" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB4" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC4" s="130" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD4" s="130" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE4" s="130" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF4" s="130" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="3:32" ht="32.4" thickBot="1">
-      <c r="Y5" s="131" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z5" s="131" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA5" s="131" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB5" s="131" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC5" s="131" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD5" s="131" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE5" s="131" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF5" s="131" t="s">
-        <v>235</v>
-      </c>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
+    </row>
+    <row r="5" spans="3:32">
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="146"/>
     </row>
     <row r="6" spans="3:32">
-      <c r="Y6" s="129" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>339</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>340</v>
-      </c>
+      <c r="Y6" s="129"/>
       <c r="AC6" s="129"/>
-      <c r="AD6" s="129" t="s">
-        <v>237</v>
-      </c>
+      <c r="AD6" s="129"/>
     </row>
     <row r="7" spans="3:32">
       <c r="C7" s="132" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
@@ -28158,134 +27810,121 @@
       <c r="R7" s="133"/>
       <c r="S7" s="133"/>
       <c r="T7" s="133"/>
-      <c r="Y7" s="129" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>239</v>
-      </c>
+      <c r="Y7" s="129"/>
       <c r="AC7" s="129"/>
-      <c r="AD7" s="129" t="s">
-        <v>237</v>
-      </c>
+      <c r="AD7" s="129"/>
     </row>
     <row r="8" spans="3:32">
       <c r="C8" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="130" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="130" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="130" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="130" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="130" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" s="130" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8" s="130" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="130" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="130" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="130" t="s">
+        <v>233</v>
+      </c>
+      <c r="N8" s="130" t="s">
+        <v>234</v>
+      </c>
+      <c r="O8" s="130" t="s">
+        <v>235</v>
+      </c>
+      <c r="P8" s="130" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q8" s="130" t="s">
+        <v>237</v>
+      </c>
+      <c r="R8" s="130" t="s">
+        <v>238</v>
+      </c>
+      <c r="S8" s="130" t="s">
+        <v>239</v>
+      </c>
+      <c r="T8" s="130" t="s">
         <v>240</v>
-      </c>
-      <c r="D8" s="130" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="130" t="s">
-        <v>242</v>
-      </c>
-      <c r="F8" s="130" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="130" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="130" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" s="130" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" s="130" t="s">
-        <v>247</v>
-      </c>
-      <c r="K8" s="130" t="s">
-        <v>248</v>
-      </c>
-      <c r="L8" s="130" t="s">
-        <v>249</v>
-      </c>
-      <c r="M8" s="130" t="s">
-        <v>250</v>
-      </c>
-      <c r="N8" s="130" t="s">
-        <v>251</v>
-      </c>
-      <c r="O8" s="130" t="s">
-        <v>252</v>
-      </c>
-      <c r="P8" s="130" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q8" s="130" t="s">
-        <v>254</v>
-      </c>
-      <c r="R8" s="130" t="s">
-        <v>255</v>
-      </c>
-      <c r="S8" s="130" t="s">
-        <v>256</v>
-      </c>
-      <c r="T8" s="130" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="D9" s="131" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E9" s="131" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F9" s="131" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G9" s="131" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H9" s="131" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="I9" s="131"/>
       <c r="J9" s="131"/>
       <c r="K9" s="131" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="L9" s="131" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="M9" s="131" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="N9" s="131" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="O9" s="131" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="P9" s="131" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="131" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="R9" s="131" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="S9" s="131" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="T9" s="131" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="15" thickBot="1">
       <c r="C10" s="131" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -28295,48 +27934,48 @@
       <c r="I10" s="131"/>
       <c r="J10" s="131"/>
       <c r="K10" s="131" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="L10" s="131" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="M10" s="131" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="N10" s="131" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="O10" s="134" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="P10" s="131" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="134" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="R10" s="134" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="S10" s="131" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="T10" s="134" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="D11" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="F11" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="G11" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="I11">
         <v>2020</v>
@@ -28368,7 +28007,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="128" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="Z11" s="129"/>
       <c r="AA11" s="129"/>
@@ -28407,28 +28046,28 @@
         <v>1</v>
       </c>
       <c r="Y12" s="130" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="Z12" s="130" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AA12" s="130" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="AB12" s="130" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AC12" s="130" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="AD12" s="130" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AE12" s="130" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="AF12" s="130" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="3:32" ht="42.6" thickBot="1">
@@ -28459,43 +28098,43 @@
         <v>1</v>
       </c>
       <c r="Y13" s="131" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Z13" s="131" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="AA13" s="131" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AB13" s="131" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="AC13" s="131" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="AD13" s="131" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="AE13" s="131" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="AF13" s="131" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1">
       <c r="C14" s="141" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="D14" s="141" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="E14" s="141"/>
       <c r="F14" s="141" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="G14" s="141" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="H14" s="141"/>
       <c r="I14" s="141">
@@ -28529,7 +28168,7 @@
       <c r="S14" s="141"/>
       <c r="T14" s="143"/>
       <c r="Y14" s="131" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="Z14" s="131"/>
       <c r="AA14" s="131"/>
@@ -28541,7 +28180,7 @@
     </row>
     <row r="15" spans="3:32">
       <c r="E15" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="J15" s="133"/>
       <c r="L15">
@@ -28550,36 +28189,36 @@
       </c>
       <c r="T15" s="137"/>
       <c r="Y15" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="Z15" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="AA15" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="AB15" s="139" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="AC15" s="139" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="AD15" s="133" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="AE15" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="AF15" s="139" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="3:32">
       <c r="F16" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="G16" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="I16" s="133">
         <v>2030</v>
@@ -28606,33 +28245,33 @@
       </c>
       <c r="T16" s="137"/>
       <c r="Y16" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="Z16" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="AA16" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="AB16" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="AC16" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="AD16" s="133" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="AE16" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="AF16" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="5:18">
       <c r="E17" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="L17">
         <f>'CO2'!S19/10</f>
@@ -28641,10 +28280,10 @@
     </row>
     <row r="18" spans="5:18">
       <c r="F18" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="G18" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="I18">
         <v>2050</v>
@@ -28672,7 +28311,7 @@
     </row>
     <row r="19" spans="5:18">
       <c r="E19" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="L19">
         <f>'CO2'!T19/10</f>
@@ -28790,7 +28429,7 @@
     </row>
     <row r="11" spans="2:19">
       <c r="H11" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="I11">
         <f>I10/1000000</f>
@@ -28828,7 +28467,7 @@
         <v>161</v>
       </c>
       <c r="R14" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="2:19">
@@ -28839,7 +28478,7 @@
         <v>45000</v>
       </c>
       <c r="S15" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="8:19">
@@ -28847,7 +28486,7 @@
     </row>
     <row r="18" spans="8:19">
       <c r="H18" s="62" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="I18" s="63">
         <f>I12/(O8*O15*1000000)</f>
@@ -28858,12 +28497,12 @@
         <v>0.98981999999999992</v>
       </c>
       <c r="S18" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="8:19">
       <c r="H19" s="62" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="I19" s="63">
         <f>I13/($O$8*1000000*O15)</f>
@@ -28872,7 +28511,7 @@
     </row>
     <row r="20" spans="8:19">
       <c r="H20" s="62" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="I20" s="63">
         <f>I14/($O$8*1000000*O15)</f>
@@ -28884,10 +28523,10 @@
         <v>153</v>
       </c>
       <c r="K25" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="L25" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="8:19">

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39257A9-EB5B-428F-B6A3-4A2DB2396C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E67344-3A80-4834-99D6-155F9353027C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="11" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -10616,7 +10616,7 @@
   <dimension ref="C3:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10852,7 +10852,9 @@
       <c r="J11" s="141">
         <v>2030</v>
       </c>
-      <c r="K11" s="141"/>
+      <c r="K11" s="141">
+        <v>1</v>
+      </c>
       <c r="L11" s="141"/>
       <c r="M11" s="141"/>
       <c r="N11" s="141">
@@ -10929,6 +10931,9 @@
       <c r="I13" s="133">
         <v>2030</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
       <c r="N13">
         <v>0.95</v>
       </c>
@@ -10999,6 +11004,9 @@
       </c>
       <c r="I15">
         <v>2050</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0.95</v>
@@ -27738,7 +27746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4227C15-BFFE-4A93-BEC3-DE29C5B3EFBF}">
   <dimension ref="C3:AF19"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="64" workbookViewId="0">
+    <sheetView zoomScale="64" workbookViewId="0">
       <selection activeCell="X2" sqref="X2:AH8"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E67344-3A80-4834-99D6-155F9353027C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3173BF8A-B558-4840-9C7C-0D5D60FE58A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -10615,7 +10615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195BF64-9F46-4536-8385-3D462E705609}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -16769,7 +16769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58317BE-2B49-4D94-8D23-F69EEBB61B78}">
   <dimension ref="C3:AF26"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="78" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="78" workbookViewId="0">
       <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
@@ -27746,8 +27746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4227C15-BFFE-4A93-BEC3-DE29C5B3EFBF}">
   <dimension ref="C3:AF19"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:AH8"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3173BF8A-B558-4840-9C7C-0D5D60FE58A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B289E26-EBFB-411B-A9BE-1B3DABBA9E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -4631,7 +4631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="356">
   <si>
     <t>Methanol=LHC in technology cathalogue</t>
   </si>
@@ -5694,6 +5694,39 @@
   </si>
   <si>
     <t>METH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I need arounf 300 kv </t>
+  </si>
+  <si>
+    <t>baggrundsrapport_for_forudsaetninger_og_anvendte_data_i_cost_benefit_analyse_fra_2020.pdf</t>
+  </si>
+  <si>
+    <t>mill kr/km</t>
+  </si>
+  <si>
+    <t>mill eur/km</t>
+  </si>
+  <si>
+    <t>1 gw aprox</t>
+  </si>
+  <si>
+    <t>1GW CABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSTS ARE PER GW ACCORDING TO </t>
+  </si>
+  <si>
+    <t>cost_benefit_analyse_endelig_version.pdf</t>
+  </si>
+  <si>
+    <t>DKK/EUR</t>
+  </si>
+  <si>
+    <t>milldkk</t>
+  </si>
+  <si>
+    <t>millEUR</t>
   </si>
 </sst>
 </file>
@@ -6002,7 +6035,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -6054,6 +6087,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6066,7 +6170,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -6440,6 +6544,16 @@
     <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6473,6 +6587,183 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>40105</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>404062</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>165435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A0DE1DA-90A7-A0C9-4FCF-ECF9B46D9E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="37755" t="30101" r="28131" b="25919"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649705" y="7236661"/>
+          <a:ext cx="6244057" cy="4333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>348186</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>41017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>296231</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>134900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2010A37B-390F-BC4E-50BB-56A1607D2BAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="34677" t="24683" r="29979" b="36057"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571397" y="11972333"/>
+          <a:ext cx="6455123" cy="3883830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>300181</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E64993-DA87-01EA-69F7-DAE1B2AD7D9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="38263" t="32776" r="27263" b="27039"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16694727" y="1801091"/>
+          <a:ext cx="6303818" cy="4133273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E389A5-D95B-3AFD-E28E-FD400F2AA73D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="38736" t="31845" r="26695" b="23840"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17127681" y="6754092"/>
+          <a:ext cx="6321137" cy="4554682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6521,9 +6812,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6561,7 +6852,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6667,7 +6958,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6809,7 +7100,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6820,10 +7111,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="E2:R103"/>
+  <dimension ref="D2:R103"/>
   <sheetViews>
-    <sheetView zoomScale="57" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6873,8 +7164,8 @@
         <v>10</v>
       </c>
       <c r="P4">
-        <f>$G$3*O4</f>
-        <v>32.964554258000007</v>
+        <f>$E$27*O4+$J$57</f>
+        <v>525.33512064343165</v>
       </c>
       <c r="Q4">
         <f>$H$8*O4</f>
@@ -6890,8 +7181,8 @@
         <v>20</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P68" si="0">$G$3*O5</f>
-        <v>65.929108516000014</v>
+        <f t="shared" ref="P5:P68" si="0">$E$27*O5+$J$57</f>
+        <v>540.48257372654155</v>
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q15" si="1">$H$8*O5</f>
@@ -6917,7 +7208,7 @@
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>98.89366277400002</v>
+        <v>555.63002680965144</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
@@ -6952,7 +7243,7 @@
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>131.85821703200003</v>
+        <v>570.77747989276133</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
@@ -6984,7 +7275,7 @@
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>164.82277129000002</v>
+        <v>585.92493297587134</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
@@ -7001,7 +7292,7 @@
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>197.78732554800004</v>
+        <v>601.07238605898124</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
@@ -7018,7 +7309,7 @@
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>230.75187980600003</v>
+        <v>616.21983914209113</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
@@ -7041,7 +7332,7 @@
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>263.71643406400005</v>
+        <v>631.36729222520103</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
@@ -7058,7 +7349,7 @@
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>296.68098832200002</v>
+        <v>646.51474530831092</v>
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
@@ -7081,7 +7372,7 @@
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>329.64554258000004</v>
+        <v>661.66219839142093</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
@@ -7104,7 +7395,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>362.61009683800006</v>
+        <v>676.80965147453082</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
@@ -7127,7 +7418,7 @@
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>395.57465109600008</v>
+        <v>691.95710455764072</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
@@ -7144,7 +7435,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>428.53920535400005</v>
+        <v>707.10455764075073</v>
       </c>
       <c r="Q16">
         <f t="shared" ref="Q16:Q79" si="4">$H$8*O16</f>
@@ -7155,7 +7446,7 @@
         <v>3.7445009051294029</v>
       </c>
     </row>
-    <row r="17" spans="5:18">
+    <row r="17" spans="4:18">
       <c r="E17" s="27" t="s">
         <v>43</v>
       </c>
@@ -7174,7 +7465,7 @@
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>461.50375961200007</v>
+        <v>722.25201072386062</v>
       </c>
       <c r="Q17">
         <f t="shared" si="4"/>
@@ -7185,7 +7476,7 @@
         <v>4.0325394362932032</v>
       </c>
     </row>
-    <row r="18" spans="5:18">
+    <row r="18" spans="4:18">
       <c r="E18" s="27" t="s">
         <v>45</v>
       </c>
@@ -7204,7 +7495,7 @@
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>494.46831387000009</v>
+        <v>737.39946380697052</v>
       </c>
       <c r="Q18">
         <f t="shared" si="4"/>
@@ -7215,7 +7506,7 @@
         <v>4.3205779674570035</v>
       </c>
     </row>
-    <row r="19" spans="5:18">
+    <row r="19" spans="4:18">
       <c r="E19" s="27" t="s">
         <v>47</v>
       </c>
@@ -7234,7 +7525,7 @@
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>527.43286812800011</v>
+        <v>752.54691689008041</v>
       </c>
       <c r="Q19">
         <f t="shared" si="4"/>
@@ -7245,13 +7536,13 @@
         <v>4.6086164986208029</v>
       </c>
     </row>
-    <row r="20" spans="5:18">
+    <row r="20" spans="4:18">
       <c r="O20">
         <v>170</v>
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>560.39742238600013</v>
+        <v>767.69436997319031</v>
       </c>
       <c r="Q20">
         <f t="shared" si="4"/>
@@ -7262,13 +7553,13 @@
         <v>4.8966550297846032</v>
       </c>
     </row>
-    <row r="21" spans="5:18">
+    <row r="21" spans="4:18" ht="15" thickBot="1">
       <c r="O21">
         <v>180</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>593.36197664400004</v>
+        <v>782.8418230563002</v>
       </c>
       <c r="Q21">
         <f t="shared" si="4"/>
@@ -7279,13 +7570,22 @@
         <v>5.1846935609484035</v>
       </c>
     </row>
-    <row r="22" spans="5:18">
+    <row r="22" spans="4:18">
+      <c r="D22" s="148"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="149"/>
+      <c r="L22" s="150"/>
       <c r="O22">
         <v>190</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>626.32653090200006</v>
+        <v>797.98927613941021</v>
       </c>
       <c r="Q22">
         <f t="shared" si="4"/>
@@ -7296,13 +7596,18 @@
         <v>5.4727320921122038</v>
       </c>
     </row>
-    <row r="23" spans="5:18">
+    <row r="23" spans="4:18">
+      <c r="D23" s="151"/>
+      <c r="E23" s="152" t="s">
+        <v>346</v>
+      </c>
+      <c r="L23" s="153"/>
       <c r="O23">
         <v>200</v>
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>659.29108516000008</v>
+        <v>813.1367292225201</v>
       </c>
       <c r="Q23">
         <f t="shared" si="4"/>
@@ -7313,13 +7618,15 @@
         <v>5.7607706232760041</v>
       </c>
     </row>
-    <row r="24" spans="5:18">
+    <row r="24" spans="4:18">
+      <c r="D24" s="151"/>
+      <c r="L24" s="153"/>
       <c r="O24">
         <v>210</v>
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>692.2556394180001</v>
+        <v>828.28418230563011</v>
       </c>
       <c r="Q24">
         <f t="shared" si="4"/>
@@ -7330,13 +7637,27 @@
         <v>6.0488091544398044</v>
       </c>
     </row>
-    <row r="25" spans="5:18">
+    <row r="25" spans="4:18">
+      <c r="D25" s="151"/>
+      <c r="E25">
+        <v>11.3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>347</v>
+      </c>
+      <c r="H25">
+        <v>7.46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>353</v>
+      </c>
+      <c r="L25" s="153"/>
       <c r="O25">
         <v>220</v>
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>725.22019367600012</v>
+        <v>843.43163538874001</v>
       </c>
       <c r="Q25">
         <f t="shared" si="4"/>
@@ -7347,13 +7668,18 @@
         <v>6.3368476856036047</v>
       </c>
     </row>
-    <row r="26" spans="5:18">
+    <row r="26" spans="4:18">
+      <c r="D26" s="151"/>
+      <c r="J26" t="s">
+        <v>350</v>
+      </c>
+      <c r="L26" s="153"/>
       <c r="O26">
         <v>230</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>758.18474793400014</v>
+        <v>858.5790884718499</v>
       </c>
       <c r="Q26">
         <f t="shared" si="4"/>
@@ -7364,13 +7690,22 @@
         <v>6.624886216767405</v>
       </c>
     </row>
-    <row r="27" spans="5:18">
+    <row r="27" spans="4:18">
+      <c r="D27" s="151"/>
+      <c r="E27">
+        <f>E25/H25</f>
+        <v>1.5147453083109921</v>
+      </c>
+      <c r="F27" t="s">
+        <v>348</v>
+      </c>
+      <c r="L27" s="153"/>
       <c r="O27">
         <v>240</v>
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>791.14930219200016</v>
+        <v>873.72654155495979</v>
       </c>
       <c r="Q27">
         <f t="shared" si="4"/>
@@ -7381,13 +7716,15 @@
         <v>6.9129247479312053</v>
       </c>
     </row>
-    <row r="28" spans="5:18">
+    <row r="28" spans="4:18">
+      <c r="D28" s="151"/>
+      <c r="L28" s="153"/>
       <c r="O28">
         <v>250</v>
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>824.11385645000007</v>
+        <v>888.87399463806969</v>
       </c>
       <c r="Q28">
         <f t="shared" si="4"/>
@@ -7398,13 +7735,18 @@
         <v>7.2009632790950056</v>
       </c>
     </row>
-    <row r="29" spans="5:18">
+    <row r="29" spans="4:18">
+      <c r="D29" s="151"/>
+      <c r="E29" t="s">
+        <v>349</v>
+      </c>
+      <c r="L29" s="153"/>
       <c r="O29">
         <v>260</v>
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
-        <v>857.07841070800009</v>
+        <v>904.02144772117958</v>
       </c>
       <c r="Q29">
         <f t="shared" si="4"/>
@@ -7415,13 +7757,22 @@
         <v>7.4890018102588058</v>
       </c>
     </row>
-    <row r="30" spans="5:18">
+    <row r="30" spans="4:18" ht="15" thickBot="1">
+      <c r="D30" s="154"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="156"/>
       <c r="O30">
         <v>270</v>
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
-        <v>890.04296496600011</v>
+        <v>919.16890080428948</v>
       </c>
       <c r="Q30">
         <f t="shared" si="4"/>
@@ -7432,13 +7783,13 @@
         <v>7.7770403414226053</v>
       </c>
     </row>
-    <row r="31" spans="5:18">
+    <row r="31" spans="4:18">
       <c r="O31">
         <v>280</v>
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
-        <v>923.00751922400013</v>
+        <v>934.31635388739949</v>
       </c>
       <c r="Q31">
         <f t="shared" si="4"/>
@@ -7449,13 +7800,13 @@
         <v>8.0650788725864064</v>
       </c>
     </row>
-    <row r="32" spans="5:18">
+    <row r="32" spans="4:18">
       <c r="O32">
         <v>290</v>
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
-        <v>955.97207348200016</v>
+        <v>949.46380697050938</v>
       </c>
       <c r="Q32">
         <f t="shared" si="4"/>
@@ -7466,13 +7817,13 @@
         <v>8.3531174037502058</v>
       </c>
     </row>
-    <row r="33" spans="15:18">
+    <row r="33" spans="5:18">
       <c r="O33">
         <v>300</v>
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
-        <v>988.93662774000018</v>
+        <v>964.61126005361939</v>
       </c>
       <c r="Q33">
         <f t="shared" si="4"/>
@@ -7483,13 +7834,19 @@
         <v>8.641155934914007</v>
       </c>
     </row>
-    <row r="34" spans="15:18">
+    <row r="34" spans="5:18">
+      <c r="E34" t="s">
+        <v>351</v>
+      </c>
+      <c r="F34" s="147" t="s">
+        <v>352</v>
+      </c>
       <c r="O34">
         <v>310</v>
       </c>
       <c r="P34">
         <f t="shared" si="0"/>
-        <v>1021.9011819980002</v>
+        <v>979.75871313672928</v>
       </c>
       <c r="Q34">
         <f t="shared" si="4"/>
@@ -7500,13 +7857,13 @@
         <v>8.9291944660778064</v>
       </c>
     </row>
-    <row r="35" spans="15:18">
+    <row r="35" spans="5:18">
       <c r="O35">
         <v>320</v>
       </c>
       <c r="P35">
         <f t="shared" si="0"/>
-        <v>1054.8657362560002</v>
+        <v>994.90616621983918</v>
       </c>
       <c r="Q35">
         <f t="shared" si="4"/>
@@ -7517,13 +7874,13 @@
         <v>9.2172329972416058</v>
       </c>
     </row>
-    <row r="36" spans="15:18">
+    <row r="36" spans="5:18">
       <c r="O36">
         <v>330</v>
       </c>
       <c r="P36">
         <f t="shared" si="0"/>
-        <v>1087.8302905140001</v>
+        <v>1010.0536193029491</v>
       </c>
       <c r="Q36">
         <f t="shared" si="4"/>
@@ -7534,13 +7891,13 @@
         <v>9.505271528405407</v>
       </c>
     </row>
-    <row r="37" spans="15:18">
+    <row r="37" spans="5:18">
       <c r="O37">
         <v>340</v>
       </c>
       <c r="P37">
         <f t="shared" si="0"/>
-        <v>1120.7948447720003</v>
+        <v>1025.201072386059</v>
       </c>
       <c r="Q37">
         <f t="shared" si="4"/>
@@ -7551,13 +7908,13 @@
         <v>9.7933100595692064</v>
       </c>
     </row>
-    <row r="38" spans="15:18">
+    <row r="38" spans="5:18">
       <c r="O38">
         <v>350</v>
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
-        <v>1153.7593990300002</v>
+        <v>1040.3485254691689</v>
       </c>
       <c r="Q38">
         <f t="shared" si="4"/>
@@ -7568,13 +7925,13 @@
         <v>10.081348590733008</v>
       </c>
     </row>
-    <row r="39" spans="15:18">
+    <row r="39" spans="5:18">
       <c r="O39">
         <v>360</v>
       </c>
       <c r="P39">
         <f t="shared" si="0"/>
-        <v>1186.7239532880001</v>
+        <v>1055.4959785522788</v>
       </c>
       <c r="Q39">
         <f t="shared" si="4"/>
@@ -7585,13 +7942,13 @@
         <v>10.369387121896807</v>
       </c>
     </row>
-    <row r="40" spans="15:18">
+    <row r="40" spans="5:18">
       <c r="O40">
         <v>370</v>
       </c>
       <c r="P40">
         <f t="shared" si="0"/>
-        <v>1219.6885075460002</v>
+        <v>1070.6434316353889</v>
       </c>
       <c r="Q40">
         <f t="shared" si="4"/>
@@ -7602,13 +7959,13 @@
         <v>10.657425653060608</v>
       </c>
     </row>
-    <row r="41" spans="15:18">
+    <row r="41" spans="5:18">
       <c r="O41">
         <v>380</v>
       </c>
       <c r="P41">
         <f t="shared" si="0"/>
-        <v>1252.6530618040001</v>
+        <v>1085.7908847184988</v>
       </c>
       <c r="Q41">
         <f t="shared" si="4"/>
@@ -7619,13 +7976,13 @@
         <v>10.945464184224408</v>
       </c>
     </row>
-    <row r="42" spans="15:18">
+    <row r="42" spans="5:18">
       <c r="O42">
         <v>390</v>
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
-        <v>1285.6176160620003</v>
+        <v>1100.9383378016087</v>
       </c>
       <c r="Q42">
         <f t="shared" si="4"/>
@@ -7636,13 +7993,13 @@
         <v>11.233502715388209</v>
       </c>
     </row>
-    <row r="43" spans="15:18">
+    <row r="43" spans="5:18">
       <c r="O43">
         <v>400</v>
       </c>
       <c r="P43">
         <f t="shared" si="0"/>
-        <v>1318.5821703200002</v>
+        <v>1116.0857908847186</v>
       </c>
       <c r="Q43">
         <f t="shared" si="4"/>
@@ -7653,13 +8010,13 @@
         <v>11.521541246552008</v>
       </c>
     </row>
-    <row r="44" spans="15:18">
+    <row r="44" spans="5:18">
       <c r="O44">
         <v>410</v>
       </c>
       <c r="P44">
         <f t="shared" si="0"/>
-        <v>1351.5467245780003</v>
+        <v>1131.2332439678285</v>
       </c>
       <c r="Q44">
         <f t="shared" si="4"/>
@@ -7670,13 +8027,13 @@
         <v>11.809579777715809</v>
       </c>
     </row>
-    <row r="45" spans="15:18">
+    <row r="45" spans="5:18">
       <c r="O45">
         <v>420</v>
       </c>
       <c r="P45">
         <f t="shared" si="0"/>
-        <v>1384.5112788360002</v>
+        <v>1146.3806970509384</v>
       </c>
       <c r="Q45">
         <f t="shared" si="4"/>
@@ -7687,13 +8044,13 @@
         <v>12.097618308879609</v>
       </c>
     </row>
-    <row r="46" spans="15:18">
+    <row r="46" spans="5:18">
       <c r="O46">
         <v>430</v>
       </c>
       <c r="P46">
         <f t="shared" si="0"/>
-        <v>1417.4758330940001</v>
+        <v>1161.5281501340482</v>
       </c>
       <c r="Q46">
         <f t="shared" si="4"/>
@@ -7704,13 +8061,13 @@
         <v>12.385656840043408</v>
       </c>
     </row>
-    <row r="47" spans="15:18">
+    <row r="47" spans="5:18">
       <c r="O47">
         <v>440</v>
       </c>
       <c r="P47">
         <f t="shared" si="0"/>
-        <v>1450.4403873520002</v>
+        <v>1176.6756032171581</v>
       </c>
       <c r="Q47">
         <f t="shared" si="4"/>
@@ -7721,13 +8078,13 @@
         <v>12.673695371207209</v>
       </c>
     </row>
-    <row r="48" spans="15:18">
+    <row r="48" spans="5:18">
       <c r="O48">
         <v>450</v>
       </c>
       <c r="P48">
         <f t="shared" si="0"/>
-        <v>1483.4049416100002</v>
+        <v>1191.823056300268</v>
       </c>
       <c r="Q48">
         <f t="shared" si="4"/>
@@ -7738,13 +8095,13 @@
         <v>12.961733902371009</v>
       </c>
     </row>
-    <row r="49" spans="15:18">
+    <row r="49" spans="10:18">
       <c r="O49">
         <v>460</v>
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
-        <v>1516.3694958680003</v>
+        <v>1206.9705093833782</v>
       </c>
       <c r="Q49">
         <f t="shared" si="4"/>
@@ -7755,13 +8112,13 @@
         <v>13.24977243353481</v>
       </c>
     </row>
-    <row r="50" spans="15:18">
+    <row r="50" spans="10:18">
       <c r="O50">
         <v>470</v>
       </c>
       <c r="P50">
         <f t="shared" si="0"/>
-        <v>1549.3340501260002</v>
+        <v>1222.1179624664881</v>
       </c>
       <c r="Q50">
         <f t="shared" si="4"/>
@@ -7772,13 +8129,13 @@
         <v>13.537810964698609</v>
       </c>
     </row>
-    <row r="51" spans="15:18">
+    <row r="51" spans="10:18">
       <c r="O51">
         <v>480</v>
       </c>
       <c r="P51">
         <f t="shared" si="0"/>
-        <v>1582.2986043840003</v>
+        <v>1237.2654155495979</v>
       </c>
       <c r="Q51">
         <f t="shared" si="4"/>
@@ -7789,13 +8146,13 @@
         <v>13.825849495862411</v>
       </c>
     </row>
-    <row r="52" spans="15:18">
+    <row r="52" spans="10:18">
       <c r="O52">
         <v>490</v>
       </c>
       <c r="P52">
         <f t="shared" si="0"/>
-        <v>1615.2631586420002</v>
+        <v>1252.4128686327078</v>
       </c>
       <c r="Q52">
         <f t="shared" si="4"/>
@@ -7806,13 +8163,13 @@
         <v>14.11388802702621</v>
       </c>
     </row>
-    <row r="53" spans="15:18">
+    <row r="53" spans="10:18">
       <c r="O53">
         <v>500</v>
       </c>
       <c r="P53">
         <f t="shared" si="0"/>
-        <v>1648.2277129000001</v>
+        <v>1267.5603217158177</v>
       </c>
       <c r="Q53">
         <f t="shared" si="4"/>
@@ -7823,13 +8180,13 @@
         <v>14.401926558190011</v>
       </c>
     </row>
-    <row r="54" spans="15:18">
+    <row r="54" spans="10:18">
       <c r="O54">
         <v>510</v>
       </c>
       <c r="P54">
         <f t="shared" si="0"/>
-        <v>1681.1922671580003</v>
+        <v>1282.7077747989276</v>
       </c>
       <c r="Q54">
         <f t="shared" si="4"/>
@@ -7840,13 +8197,19 @@
         <v>14.689965089353811</v>
       </c>
     </row>
-    <row r="55" spans="15:18">
+    <row r="55" spans="10:18">
+      <c r="J55">
+        <v>3806</v>
+      </c>
+      <c r="K55" t="s">
+        <v>354</v>
+      </c>
       <c r="O55">
         <v>520</v>
       </c>
       <c r="P55">
         <f t="shared" si="0"/>
-        <v>1714.1568214160002</v>
+        <v>1297.8552278820375</v>
       </c>
       <c r="Q55">
         <f t="shared" si="4"/>
@@ -7857,13 +8220,13 @@
         <v>14.978003620517612</v>
       </c>
     </row>
-    <row r="56" spans="15:18">
+    <row r="56" spans="10:18">
       <c r="O56">
         <v>530</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>1747.1213756740003</v>
+        <v>1313.0026809651474</v>
       </c>
       <c r="Q56">
         <f t="shared" si="4"/>
@@ -7874,13 +8237,20 @@
         <v>15.266042151681411</v>
       </c>
     </row>
-    <row r="57" spans="15:18">
+    <row r="57" spans="10:18">
+      <c r="J57">
+        <f>J55/H25</f>
+        <v>510.1876675603217</v>
+      </c>
+      <c r="K57" t="s">
+        <v>355</v>
+      </c>
       <c r="O57">
         <v>540</v>
       </c>
       <c r="P57">
         <f t="shared" si="0"/>
-        <v>1780.0859299320002</v>
+        <v>1328.1501340482573</v>
       </c>
       <c r="Q57">
         <f t="shared" si="4"/>
@@ -7891,13 +8261,13 @@
         <v>15.554080682845211</v>
       </c>
     </row>
-    <row r="58" spans="15:18">
+    <row r="58" spans="10:18">
       <c r="O58">
         <v>550</v>
       </c>
       <c r="P58">
         <f t="shared" si="0"/>
-        <v>1813.0504841900004</v>
+        <v>1343.2975871313674</v>
       </c>
       <c r="Q58">
         <f t="shared" si="4"/>
@@ -7908,13 +8278,13 @@
         <v>15.842119214009012</v>
       </c>
     </row>
-    <row r="59" spans="15:18">
+    <row r="59" spans="10:18">
       <c r="O59">
         <v>560</v>
       </c>
       <c r="P59">
         <f t="shared" si="0"/>
-        <v>1846.0150384480003</v>
+        <v>1358.4450402144773</v>
       </c>
       <c r="Q59">
         <f t="shared" si="4"/>
@@ -7925,13 +8295,13 @@
         <v>16.130157745172813</v>
       </c>
     </row>
-    <row r="60" spans="15:18">
+    <row r="60" spans="10:18">
       <c r="O60">
         <v>570</v>
       </c>
       <c r="P60">
         <f t="shared" si="0"/>
-        <v>1878.9795927060002</v>
+        <v>1373.5924932975872</v>
       </c>
       <c r="Q60">
         <f t="shared" si="4"/>
@@ -7942,13 +8312,13 @@
         <v>16.418196276336612</v>
       </c>
     </row>
-    <row r="61" spans="15:18">
+    <row r="61" spans="10:18">
       <c r="O61">
         <v>580</v>
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
-        <v>1911.9441469640003</v>
+        <v>1388.7399463806971</v>
       </c>
       <c r="Q61">
         <f t="shared" si="4"/>
@@ -7959,13 +8329,13 @@
         <v>16.706234807500412</v>
       </c>
     </row>
-    <row r="62" spans="15:18">
+    <row r="62" spans="10:18">
       <c r="O62">
         <v>590</v>
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
-        <v>1944.9087012220002</v>
+        <v>1403.887399463807</v>
       </c>
       <c r="Q62">
         <f t="shared" si="4"/>
@@ -7976,13 +8346,13 @@
         <v>16.994273338664211</v>
       </c>
     </row>
-    <row r="63" spans="15:18">
+    <row r="63" spans="10:18">
       <c r="O63">
         <v>600</v>
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
-        <v>1977.8732554800004</v>
+        <v>1419.0348525469169</v>
       </c>
       <c r="Q63">
         <f t="shared" si="4"/>
@@ -7993,13 +8363,13 @@
         <v>17.282311869828014</v>
       </c>
     </row>
-    <row r="64" spans="15:18">
+    <row r="64" spans="10:18">
       <c r="O64">
         <v>610</v>
       </c>
       <c r="P64">
         <f t="shared" si="0"/>
-        <v>2010.8378097380003</v>
+        <v>1434.1823056300268</v>
       </c>
       <c r="Q64">
         <f t="shared" si="4"/>
@@ -8016,7 +8386,7 @@
       </c>
       <c r="P65">
         <f t="shared" si="0"/>
-        <v>2043.8023639960004</v>
+        <v>1449.3297587131367</v>
       </c>
       <c r="Q65">
         <f t="shared" si="4"/>
@@ -8033,7 +8403,7 @@
       </c>
       <c r="P66">
         <f t="shared" si="0"/>
-        <v>2076.7669182540003</v>
+        <v>1464.4772117962468</v>
       </c>
       <c r="Q66">
         <f t="shared" si="4"/>
@@ -8050,7 +8420,7 @@
       </c>
       <c r="P67">
         <f t="shared" si="0"/>
-        <v>2109.7314725120004</v>
+        <v>1479.6246648793567</v>
       </c>
       <c r="Q67">
         <f t="shared" si="4"/>
@@ -8067,7 +8437,7 @@
       </c>
       <c r="P68">
         <f t="shared" si="0"/>
-        <v>2142.6960267700001</v>
+        <v>1494.7721179624666</v>
       </c>
       <c r="Q68">
         <f t="shared" si="4"/>
@@ -8083,8 +8453,8 @@
         <v>660</v>
       </c>
       <c r="P69">
-        <f t="shared" ref="P69:P103" si="7">$G$3*O69</f>
-        <v>2175.6605810280003</v>
+        <f t="shared" ref="P69:P103" si="7">$E$27*O69+$J$57</f>
+        <v>1509.9195710455765</v>
       </c>
       <c r="Q69">
         <f t="shared" si="4"/>
@@ -8101,7 +8471,7 @@
       </c>
       <c r="P70">
         <f t="shared" si="7"/>
-        <v>2208.6251352860004</v>
+        <v>1525.0670241286864</v>
       </c>
       <c r="Q70">
         <f t="shared" si="4"/>
@@ -8118,7 +8488,7 @@
       </c>
       <c r="P71">
         <f t="shared" si="7"/>
-        <v>2241.5896895440005</v>
+        <v>1540.2144772117963</v>
       </c>
       <c r="Q71">
         <f t="shared" si="4"/>
@@ -8135,7 +8505,7 @@
       </c>
       <c r="P72">
         <f t="shared" si="7"/>
-        <v>2274.5542438020002</v>
+        <v>1555.3619302949062</v>
       </c>
       <c r="Q72">
         <f t="shared" si="4"/>
@@ -8152,7 +8522,7 @@
       </c>
       <c r="P73">
         <f t="shared" si="7"/>
-        <v>2307.5187980600003</v>
+        <v>1570.5093833780161</v>
       </c>
       <c r="Q73">
         <f t="shared" si="4"/>
@@ -8169,7 +8539,7 @@
       </c>
       <c r="P74">
         <f t="shared" si="7"/>
-        <v>2340.4833523180005</v>
+        <v>1585.656836461126</v>
       </c>
       <c r="Q74">
         <f t="shared" si="4"/>
@@ -8186,7 +8556,7 @@
       </c>
       <c r="P75">
         <f t="shared" si="7"/>
-        <v>2373.4479065760002</v>
+        <v>1600.8042895442359</v>
       </c>
       <c r="Q75">
         <f t="shared" si="4"/>
@@ -8203,7 +8573,7 @@
       </c>
       <c r="P76">
         <f t="shared" si="7"/>
-        <v>2406.4124608340003</v>
+        <v>1615.9517426273458</v>
       </c>
       <c r="Q76">
         <f t="shared" si="4"/>
@@ -8220,7 +8590,7 @@
       </c>
       <c r="P77">
         <f t="shared" si="7"/>
-        <v>2439.3770150920004</v>
+        <v>1631.0991957104559</v>
       </c>
       <c r="Q77">
         <f t="shared" si="4"/>
@@ -8237,7 +8607,7 @@
       </c>
       <c r="P78">
         <f t="shared" si="7"/>
-        <v>2472.3415693500006</v>
+        <v>1646.2466487935658</v>
       </c>
       <c r="Q78">
         <f t="shared" si="4"/>
@@ -8254,7 +8624,7 @@
       </c>
       <c r="P79">
         <f t="shared" si="7"/>
-        <v>2505.3061236080002</v>
+        <v>1661.3941018766757</v>
       </c>
       <c r="Q79">
         <f t="shared" si="4"/>
@@ -8271,7 +8641,7 @@
       </c>
       <c r="P80">
         <f t="shared" si="7"/>
-        <v>2538.2706778660004</v>
+        <v>1676.5415549597856</v>
       </c>
       <c r="Q80">
         <f t="shared" ref="Q80:Q103" si="8">$H$8*O80</f>
@@ -8288,7 +8658,7 @@
       </c>
       <c r="P81">
         <f t="shared" si="7"/>
-        <v>2571.2352321240005</v>
+        <v>1691.6890080428955</v>
       </c>
       <c r="Q81">
         <f t="shared" si="8"/>
@@ -8305,7 +8675,7 @@
       </c>
       <c r="P82">
         <f t="shared" si="7"/>
-        <v>2604.1997863820002</v>
+        <v>1706.8364611260054</v>
       </c>
       <c r="Q82">
         <f t="shared" si="8"/>
@@ -8322,7 +8692,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="7"/>
-        <v>2637.1643406400003</v>
+        <v>1721.9839142091153</v>
       </c>
       <c r="Q83">
         <f t="shared" si="8"/>
@@ -8339,7 +8709,7 @@
       </c>
       <c r="P84">
         <f t="shared" si="7"/>
-        <v>2670.1288948980005</v>
+        <v>1737.1313672922251</v>
       </c>
       <c r="Q84">
         <f t="shared" si="8"/>
@@ -8356,7 +8726,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="7"/>
-        <v>2703.0934491560006</v>
+        <v>1752.278820375335</v>
       </c>
       <c r="Q85">
         <f t="shared" si="8"/>
@@ -8373,7 +8743,7 @@
       </c>
       <c r="P86">
         <f t="shared" si="7"/>
-        <v>2736.0580034140003</v>
+        <v>1767.4262734584452</v>
       </c>
       <c r="Q86">
         <f t="shared" si="8"/>
@@ -8390,7 +8760,7 @@
       </c>
       <c r="P87">
         <f t="shared" si="7"/>
-        <v>2769.0225576720004</v>
+        <v>1782.5737265415551</v>
       </c>
       <c r="Q87">
         <f t="shared" si="8"/>
@@ -8407,7 +8777,7 @@
       </c>
       <c r="P88">
         <f t="shared" si="7"/>
-        <v>2801.9871119300005</v>
+        <v>1797.721179624665</v>
       </c>
       <c r="Q88">
         <f t="shared" si="8"/>
@@ -8424,7 +8794,7 @@
       </c>
       <c r="P89">
         <f t="shared" si="7"/>
-        <v>2834.9516661880002</v>
+        <v>1812.8686327077749</v>
       </c>
       <c r="Q89">
         <f t="shared" si="8"/>
@@ -8441,7 +8811,7 @@
       </c>
       <c r="P90">
         <f t="shared" si="7"/>
-        <v>2867.9162204460004</v>
+        <v>1828.0160857908847</v>
       </c>
       <c r="Q90">
         <f t="shared" si="8"/>
@@ -8458,7 +8828,7 @@
       </c>
       <c r="P91">
         <f t="shared" si="7"/>
-        <v>2900.8807747040005</v>
+        <v>1843.1635388739946</v>
       </c>
       <c r="Q91">
         <f t="shared" si="8"/>
@@ -8475,7 +8845,7 @@
       </c>
       <c r="P92">
         <f t="shared" si="7"/>
-        <v>2933.8453289620006</v>
+        <v>1858.3109919571045</v>
       </c>
       <c r="Q92">
         <f t="shared" si="8"/>
@@ -8492,7 +8862,7 @@
       </c>
       <c r="P93">
         <f t="shared" si="7"/>
-        <v>2966.8098832200003</v>
+        <v>1873.4584450402144</v>
       </c>
       <c r="Q93">
         <f t="shared" si="8"/>
@@ -8509,7 +8879,7 @@
       </c>
       <c r="P94">
         <f t="shared" si="7"/>
-        <v>2999.7744374780004</v>
+        <v>1888.6058981233243</v>
       </c>
       <c r="Q94">
         <f t="shared" si="8"/>
@@ -8526,7 +8896,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="7"/>
-        <v>3032.7389917360006</v>
+        <v>1903.7533512064344</v>
       </c>
       <c r="Q95">
         <f t="shared" si="8"/>
@@ -8543,7 +8913,7 @@
       </c>
       <c r="P96">
         <f t="shared" si="7"/>
-        <v>3065.7035459940003</v>
+        <v>1918.9008042895443</v>
       </c>
       <c r="Q96">
         <f t="shared" si="8"/>
@@ -8560,7 +8930,7 @@
       </c>
       <c r="P97">
         <f t="shared" si="7"/>
-        <v>3098.6681002520004</v>
+        <v>1934.0482573726542</v>
       </c>
       <c r="Q97">
         <f t="shared" si="8"/>
@@ -8577,7 +8947,7 @@
       </c>
       <c r="P98">
         <f t="shared" si="7"/>
-        <v>3131.6326545100005</v>
+        <v>1949.1957104557641</v>
       </c>
       <c r="Q98">
         <f t="shared" si="8"/>
@@ -8594,7 +8964,7 @@
       </c>
       <c r="P99">
         <f t="shared" si="7"/>
-        <v>3164.5972087680007</v>
+        <v>1964.343163538874</v>
       </c>
       <c r="Q99">
         <f t="shared" si="8"/>
@@ -8611,7 +8981,7 @@
       </c>
       <c r="P100">
         <f t="shared" si="7"/>
-        <v>3197.5617630260003</v>
+        <v>1979.4906166219839</v>
       </c>
       <c r="Q100">
         <f t="shared" si="8"/>
@@ -8628,7 +8998,7 @@
       </c>
       <c r="P101">
         <f t="shared" si="7"/>
-        <v>3230.5263172840005</v>
+        <v>1994.6380697050938</v>
       </c>
       <c r="Q101">
         <f t="shared" si="8"/>
@@ -8645,7 +9015,7 @@
       </c>
       <c r="P102">
         <f t="shared" si="7"/>
-        <v>3263.4908715420006</v>
+        <v>2009.7855227882037</v>
       </c>
       <c r="Q102">
         <f t="shared" si="8"/>
@@ -8662,7 +9032,7 @@
       </c>
       <c r="P103">
         <f t="shared" si="7"/>
-        <v>3296.4554258000003</v>
+        <v>2024.9329758713138</v>
       </c>
       <c r="Q103">
         <f t="shared" si="8"/>
@@ -8674,7 +9044,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E23" r:id="rId1" display="..\..\..\..\Users\panch\OneDrive\Escritorio\Master thesis\Info for master thesis\baggrundsrapport_for_forudsaetninger_og_anvendte_data_i_cost_benefit_analyse_fra_2020.pdf" xr:uid="{FE8B1868-5720-4957-8E10-56FE9114E52E}"/>
+    <hyperlink ref="F34" r:id="rId2" display="../../../../Users/panch/OneDrive/Escritorio/Master thesis/Info for master thesis/cost_benefit_analyse_endelig_version.pdf" xr:uid="{9F8BABD4-6A98-4C32-B04D-997C53F82CB3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8683,7 +9058,7 @@
   <dimension ref="C3:AF18"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:AG9"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8924,8 +9299,8 @@
         <v>2030</v>
       </c>
       <c r="K11" s="141">
-        <f>METHANOL!K35</f>
-        <v>0.77723222404073466</v>
+        <f>METHANOL!K45</f>
+        <v>0.55446444808146933</v>
       </c>
       <c r="L11" s="141"/>
       <c r="N11" s="141">
@@ -8964,8 +9339,8 @@
       </c>
       <c r="J12" s="133"/>
       <c r="K12" s="141">
-        <f>METHANOL!K35</f>
-        <v>0.77723222404073466</v>
+        <f>METHANOL!K45</f>
+        <v>0.55446444808146933</v>
       </c>
       <c r="N12">
         <v>0.95</v>
@@ -9016,8 +9391,8 @@
         <v>2050</v>
       </c>
       <c r="K13">
-        <f>METHANOL!L35</f>
-        <v>0.82673617425390478</v>
+        <f>METHANOL!L45</f>
+        <v>0.65347234850780955</v>
       </c>
       <c r="N13">
         <v>0.95</v>
@@ -10616,7 +10991,7 @@
   <dimension ref="C3:AF16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11069,10 +11444,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11080,25 +11455,25 @@
     <col min="2" max="2" width="44.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -11133,8 +11508,11 @@
       <c r="L2" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="O2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
@@ -11170,7 +11548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:15">
       <c r="A4" s="21" t="s">
         <v>12</v>
       </c>
@@ -11188,7 +11566,7 @@
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:15">
       <c r="A5" s="25" t="s">
         <v>14</v>
       </c>
@@ -11204,7 +11582,7 @@
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:15">
       <c r="A6" s="25"/>
       <c r="B6" s="27" t="s">
         <v>15</v>
@@ -11247,7 +11625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:15">
       <c r="A7" s="25"/>
       <c r="B7" s="27" t="s">
         <v>18</v>
@@ -11290,7 +11668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:15">
       <c r="A8" s="25"/>
       <c r="B8" s="27" t="s">
         <v>19</v>
@@ -11332,7 +11710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:15">
       <c r="A9" s="25"/>
       <c r="B9" s="27" t="s">
         <v>20</v>
@@ -11374,7 +11752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:15">
       <c r="A10" s="25"/>
       <c r="B10" s="27" t="s">
         <v>21</v>
@@ -11408,7 +11786,7 @@
       </c>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:15">
       <c r="A11" s="25"/>
       <c r="B11" s="27" t="s">
         <v>24</v>
@@ -11444,7 +11822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:15">
       <c r="A12" s="25"/>
       <c r="B12" s="27" t="s">
         <v>25</v>
@@ -11480,7 +11858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:15">
       <c r="A13" s="25"/>
       <c r="B13" s="27" t="s">
         <v>27</v>
@@ -11516,7 +11894,7 @@
       </c>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:15">
       <c r="A14" s="25"/>
       <c r="B14" s="27" t="s">
         <v>29</v>
@@ -11550,7 +11928,7 @@
       </c>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:15">
       <c r="A15" s="25" t="s">
         <v>31</v>
       </c>
@@ -11566,7 +11944,7 @@
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:15">
       <c r="A16" s="25"/>
       <c r="B16" s="27" t="s">
         <v>32</v>
@@ -12584,17 +12962,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
@@ -13574,17 +13952,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="158" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
       <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12">
@@ -14264,17 +14642,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
       <c r="L1" s="58"/>
       <c r="M1" s="58"/>
       <c r="N1" s="58"/>
@@ -16008,17 +16386,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="157" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
       <c r="L1" s="66"/>
       <c r="M1" s="66"/>
       <c r="N1" s="66"/>
@@ -16769,8 +17147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58317BE-2B49-4D94-8D23-F69EEBB61B78}">
   <dimension ref="C3:AF26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView topLeftCell="B1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17020,8 +17398,8 @@
         <v>31.536000000000001</v>
       </c>
       <c r="Q11">
-        <f>'Transmission lines'!P13</f>
-        <v>329.64554258000004</v>
+        <f>'Transmission lines'!P23</f>
+        <v>813.1367292225201</v>
       </c>
       <c r="R11">
         <f>'Transmission lines'!G8*'Transmission lines'!O13</f>
@@ -17060,8 +17438,8 @@
         <v>31.536000000000001</v>
       </c>
       <c r="Q12">
-        <f>'Transmission lines'!P13</f>
-        <v>329.64554258000004</v>
+        <f>'Transmission lines'!P23</f>
+        <v>813.1367292225201</v>
       </c>
       <c r="R12">
         <f>'Transmission lines'!Q13</f>
@@ -17113,8 +17491,8 @@
         <v>31.536000000000001</v>
       </c>
       <c r="Q13">
-        <f>'Transmission lines'!P13</f>
-        <v>329.64554258000004</v>
+        <f>'Transmission lines'!P23</f>
+        <v>813.1367292225201</v>
       </c>
       <c r="R13">
         <f>'Transmission lines'!R13</f>
@@ -17233,8 +17611,8 @@
   </sheetPr>
   <dimension ref="C1:U125"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21588,8 +21966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FAA1D-3717-457D-9B77-4AA5B285502A}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:AH8"/>
+    <sheetView topLeftCell="C1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21839,12 +22217,12 @@
         <v>31.536000000000001</v>
       </c>
       <c r="Q11">
-        <f>'H2'!$E$31</f>
-        <v>24.457572514000002</v>
+        <f>'H2'!$E$41</f>
+        <v>48.915145028000005</v>
       </c>
       <c r="R11">
-        <f>'H2'!$F$31</f>
-        <v>2.6584317950000002E-2</v>
+        <f>'H2'!$F$41</f>
+        <v>5.3168635900000004E-2</v>
       </c>
       <c r="T11" s="137">
         <v>1</v>
@@ -21878,12 +22256,12 @@
         <v>31.536000000000001</v>
       </c>
       <c r="Q12">
-        <f>'H2'!$E$31</f>
-        <v>24.457572514000002</v>
+        <f>'H2'!$E$41</f>
+        <v>48.915145028000005</v>
       </c>
       <c r="R12">
-        <f>'H2'!$F$31</f>
-        <v>2.6584317950000002E-2</v>
+        <f>'H2'!$F$41</f>
+        <v>5.3168635900000004E-2</v>
       </c>
       <c r="T12" s="137">
         <v>1</v>
@@ -21930,12 +22308,12 @@
         <v>31.536000000000001</v>
       </c>
       <c r="Q13">
-        <f>'H2'!$E$31</f>
-        <v>24.457572514000002</v>
+        <f>'H2'!$E$41</f>
+        <v>48.915145028000005</v>
       </c>
       <c r="R13">
-        <f>'H2'!G31</f>
-        <v>1.9938238462500001E-2</v>
+        <f>'H2'!G41</f>
+        <v>3.9876476925000001E-2</v>
       </c>
       <c r="T13" s="137">
         <v>1</v>
@@ -21987,8 +22365,8 @@
         <v>2030</v>
       </c>
       <c r="K14" s="141">
-        <f>'H2'!O35</f>
-        <v>0.83123312331233123</v>
+        <f>'H2'!O45</f>
+        <v>0.66246624662466247</v>
       </c>
       <c r="L14" s="141"/>
       <c r="M14" s="141"/>
@@ -22028,8 +22406,8 @@
       </c>
       <c r="J15" s="133"/>
       <c r="K15">
-        <f>'H2'!O35</f>
-        <v>0.83123312331233123</v>
+        <f>'H2'!O46</f>
+        <v>0.64558955895589554</v>
       </c>
       <c r="N15">
         <v>0.95</v>
@@ -22079,8 +22457,8 @@
         <v>2050</v>
       </c>
       <c r="K16">
-        <f>'H2'!P35</f>
-        <v>0.86873687368736874</v>
+        <f>'H2'!P46</f>
+        <v>0.72434743474347429</v>
       </c>
       <c r="N16">
         <v>0.95</v>
@@ -22138,7 +22516,7 @@
   </sheetPr>
   <dimension ref="B2:W122"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="91" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="66" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -25643,8 +26021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB904E-BBCD-45B2-9EDC-CF511B90CE44}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView topLeftCell="J2" zoomScale="70" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:AH8"/>
+    <sheetView topLeftCell="B2" zoomScale="70" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25897,12 +26275,12 @@
         <v>31.536000000000001</v>
       </c>
       <c r="Q11">
-        <f>'NH3'!$C$26</f>
-        <v>21.267454360000006</v>
+        <f>'NH3'!$C$36</f>
+        <v>42.534908720000011</v>
       </c>
       <c r="R11">
-        <f>'NH3'!$D$26</f>
-        <v>1.063372718E-2</v>
+        <f>'NH3'!$D$36</f>
+        <v>2.126745436E-2</v>
       </c>
       <c r="T11" s="137">
         <v>1</v>
@@ -25936,12 +26314,12 @@
         <v>31.536000000000001</v>
       </c>
       <c r="Q12">
-        <f>'NH3'!$C$26</f>
-        <v>21.267454360000006</v>
+        <f>'NH3'!$C$36</f>
+        <v>42.534908720000011</v>
       </c>
       <c r="R12">
-        <f>'NH3'!$D$26</f>
-        <v>1.063372718E-2</v>
+        <f>'NH3'!$D$36</f>
+        <v>2.126745436E-2</v>
       </c>
       <c r="T12" s="137">
         <v>1</v>
@@ -25988,12 +26366,12 @@
         <v>31.536000000000001</v>
       </c>
       <c r="Q13">
-        <f>'NH3'!$C$26</f>
-        <v>21.267454360000006</v>
+        <f>'NH3'!$C$36</f>
+        <v>42.534908720000011</v>
       </c>
       <c r="R13">
-        <f>'NH3'!$D$26</f>
-        <v>1.063372718E-2</v>
+        <f>'NH3'!$D$36</f>
+        <v>2.126745436E-2</v>
       </c>
       <c r="T13" s="137">
         <v>1</v>
@@ -26045,8 +26423,7 @@
         <v>2030</v>
       </c>
       <c r="K14" s="141">
-        <f>0.74</f>
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="L14" s="141"/>
       <c r="M14" s="141"/>
@@ -26086,7 +26463,7 @@
       </c>
       <c r="J15" s="133"/>
       <c r="K15">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="N15">
         <v>0.95</v>
@@ -26136,7 +26513,7 @@
         <v>2050</v>
       </c>
       <c r="K16">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="N16">
         <v>0.95</v>
@@ -26194,8 +26571,8 @@
   </sheetPr>
   <dimension ref="B2:T119"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView zoomScale="58" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27746,8 +28123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4227C15-BFFE-4A93-BEC3-DE29C5B3EFBF}">
   <dimension ref="C3:AF19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28004,12 +28381,12 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <f>'CO2'!$C$29</f>
-        <v>0.37671232876712324</v>
+        <f>'CO2'!$C$39</f>
+        <v>0.75342465753424648</v>
       </c>
       <c r="R11">
-        <f>'CO2'!D29</f>
-        <v>2.2831050228310504E-4</v>
+        <f>'CO2'!D39</f>
+        <v>4.5662100456621009E-4</v>
       </c>
       <c r="T11" s="137">
         <v>1</v>
@@ -28043,12 +28420,12 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <f>'CO2'!$C$29</f>
-        <v>0.37671232876712324</v>
+        <f>'CO2'!$C$39</f>
+        <v>0.75342465753424648</v>
       </c>
       <c r="R12">
-        <f>'CO2'!D30</f>
-        <v>2.5114155251141555E-4</v>
+        <f>'CO2'!D39</f>
+        <v>4.5662100456621009E-4</v>
       </c>
       <c r="T12" s="137">
         <v>1</v>
@@ -28095,12 +28472,12 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <f>'CO2'!$C$29</f>
-        <v>0.37671232876712324</v>
+        <f>'CO2'!$C$39</f>
+        <v>0.75342465753424648</v>
       </c>
       <c r="R13">
-        <f>'CO2'!D31</f>
-        <v>2.7397260273972601E-4</v>
+        <f>'CO2'!D39</f>
+        <v>4.5662100456621009E-4</v>
       </c>
       <c r="T13" s="137">
         <v>1</v>
@@ -28340,7 +28717,7 @@
   </sheetPr>
   <dimension ref="B2:S125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="64" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -28348,7 +28725,10 @@
   <cols>
     <col min="8" max="8" width="26.88671875" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="11" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="18">

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B289E26-EBFB-411B-A9BE-1B3DABBA9E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91E9A89-892C-45A5-97E6-E6CE5D636685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
@@ -7114,7 +7114,7 @@
   <dimension ref="D2:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91E9A89-892C-45A5-97E6-E6CE5D636685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266EB60B-FF2B-47CF-BF86-B445F647FFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
@@ -4631,7 +4631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="362">
   <si>
     <t>Methanol=LHC in technology cathalogue</t>
   </si>
@@ -5288,9 +5288,6 @@
     <t>GW/T</t>
   </si>
   <si>
-    <t>Fixed O&amp;M [EUR/km/year/GW]</t>
-  </si>
-  <si>
     <t>INVCOST (MEUR/GW) 1000-4000</t>
   </si>
   <si>
@@ -5714,9 +5711,6 @@
     <t>1GW CABLE</t>
   </si>
   <si>
-    <t xml:space="preserve">COSTS ARE PER GW ACCORDING TO </t>
-  </si>
-  <si>
     <t>cost_benefit_analyse_endelig_version.pdf</t>
   </si>
   <si>
@@ -5727,6 +5721,30 @@
   </si>
   <si>
     <t>millEUR</t>
+  </si>
+  <si>
+    <t>AC/DC  in the island</t>
+  </si>
+  <si>
+    <t>Not platforms!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSTS OF CABLES  ARE NOT  PER GW ACCORDING TO </t>
+  </si>
+  <si>
+    <t>AC/DC  in land</t>
+  </si>
+  <si>
+    <t>hvdc sea</t>
+  </si>
+  <si>
+    <t>hvdc land</t>
+  </si>
+  <si>
+    <t>DENMARK CONNECTION</t>
+  </si>
+  <si>
+    <t>meur/gw</t>
   </si>
 </sst>
 </file>
@@ -6170,7 +6188,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -6563,6 +6581,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -6590,16 +6609,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>40105</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>99261</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495523</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>31424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>404062</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>165435</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4198845</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>97598</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6621,8 +6640,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="649705" y="7236661"/>
-          <a:ext cx="6244057" cy="4333374"/>
+          <a:off x="495523" y="12367198"/>
+          <a:ext cx="6207645" cy="4551910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6633,16 +6652,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>348186</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>41017</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276300</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>80303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>296231</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>134900</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4175456</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>2795</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6664,8 +6683,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1571397" y="11972333"/>
-          <a:ext cx="6455123" cy="3883830"/>
+          <a:off x="276300" y="17462529"/>
+          <a:ext cx="6403479" cy="4023357"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6677,15 +6696,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:colOff>315951</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>300181</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>23091</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>2815</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>158240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6707,8 +6726,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16694727" y="1801091"/>
-          <a:ext cx="6303818" cy="4133273"/>
+          <a:off x="17191463" y="6308887"/>
+          <a:ext cx="6433352" cy="4159179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6720,15 +6739,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>346363</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>86592</xdr:rowOff>
+      <xdr:colOff>383533</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>69274</xdr:rowOff>
+      <xdr:colOff>37170</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>125031</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6750,8 +6769,137 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17127681" y="6754092"/>
-          <a:ext cx="6321137" cy="4554682"/>
+          <a:off x="17259045" y="1443324"/>
+          <a:ext cx="6400125" cy="4443170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>147484</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>137679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76D891CB-06BE-E74D-BD72-821C93CA890C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="35893" t="39288" r="42350" b="10327"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25712379" y="10377129"/>
+          <a:ext cx="6070395" cy="6205002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>14018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85649</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>86265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9D864C-419E-7A7F-DE41-5D92F8997DEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect l="36341" t="41165" r="27004" b="22994"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7864056"/>
+          <a:ext cx="7034972" cy="3997265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>270386</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>73743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>368709</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>166364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B062D5-0443-C347-C4BA-3C55AE47A115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="30561" t="16603" r="34033" b="10141"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17157289" y="10323872"/>
+          <a:ext cx="7472517" cy="8523782"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7114,12 +7262,13 @@
   <dimension ref="D2:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="64.88671875" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.44140625" bestFit="1" customWidth="1"/>
@@ -7150,13 +7299,13 @@
         <v>153</v>
       </c>
       <c r="P3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q3" t="s">
+        <v>211</v>
+      </c>
+      <c r="R3" t="s">
         <v>212</v>
-      </c>
-      <c r="R3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="4" spans="5:18">
@@ -7164,8 +7313,8 @@
         <v>10</v>
       </c>
       <c r="P4">
-        <f>$E$27*O4+$J$57</f>
-        <v>525.33512064343165</v>
+        <f>$E$27*O4+$J$57+$J$63</f>
+        <v>423.99463806970505</v>
       </c>
       <c r="Q4">
         <f>$H$8*O4</f>
@@ -7181,8 +7330,8 @@
         <v>20</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P68" si="0">$E$27*O5+$J$57</f>
-        <v>540.48257372654155</v>
+        <f t="shared" ref="P5:P68" si="0">$E$27*O5+$J$57+$J$63</f>
+        <v>439.14209115281506</v>
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q15" si="1">$H$8*O5</f>
@@ -7208,7 +7357,7 @@
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>555.63002680965144</v>
+        <v>454.28954423592495</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
@@ -7243,7 +7392,7 @@
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>570.77747989276133</v>
+        <v>469.43699731903484</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
@@ -7275,7 +7424,7 @@
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>585.92493297587134</v>
+        <v>484.58445040214474</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
@@ -7292,7 +7441,7 @@
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>601.07238605898124</v>
+        <v>499.73190348525475</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
@@ -7309,7 +7458,7 @@
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>616.21983914209113</v>
+        <v>514.87935656836464</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
@@ -7332,7 +7481,7 @@
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>631.36729222520103</v>
+        <v>530.02680965147454</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
@@ -7349,7 +7498,7 @@
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>646.51474530831092</v>
+        <v>545.17426273458443</v>
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
@@ -7372,7 +7521,7 @@
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>661.66219839142093</v>
+        <v>560.32171581769433</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
@@ -7395,7 +7544,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>676.80965147453082</v>
+        <v>575.46916890080433</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
@@ -7418,7 +7567,7 @@
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>691.95710455764072</v>
+        <v>590.61662198391423</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
@@ -7435,7 +7584,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>707.10455764075073</v>
+        <v>605.76407506702412</v>
       </c>
       <c r="Q16">
         <f t="shared" ref="Q16:Q79" si="4">$H$8*O16</f>
@@ -7458,14 +7607,14 @@
         <v>16.800999999999998</v>
       </c>
       <c r="H17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O17">
         <v>140</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>722.25201072386062</v>
+        <v>620.91152815013402</v>
       </c>
       <c r="Q17">
         <f t="shared" si="4"/>
@@ -7488,14 +7637,14 @@
         <v>80.816326568000008</v>
       </c>
       <c r="H18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O18">
         <v>150</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>737.39946380697052</v>
+        <v>636.05898123324403</v>
       </c>
       <c r="Q18">
         <f t="shared" si="4"/>
@@ -7518,14 +7667,14 @@
         <v>4.759656285768</v>
       </c>
       <c r="H19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O19">
         <v>160</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>752.54691689008041</v>
+        <v>651.20643431635392</v>
       </c>
       <c r="Q19">
         <f t="shared" si="4"/>
@@ -7542,7 +7691,7 @@
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>767.69436997319031</v>
+        <v>666.35388739946382</v>
       </c>
       <c r="Q20">
         <f t="shared" si="4"/>
@@ -7559,7 +7708,7 @@
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>782.8418230563002</v>
+        <v>681.50134048257371</v>
       </c>
       <c r="Q21">
         <f t="shared" si="4"/>
@@ -7585,7 +7734,7 @@
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>797.98927613941021</v>
+        <v>696.6487935656836</v>
       </c>
       <c r="Q22">
         <f t="shared" si="4"/>
@@ -7599,7 +7748,7 @@
     <row r="23" spans="4:18">
       <c r="D23" s="151"/>
       <c r="E23" s="152" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L23" s="153"/>
       <c r="O23">
@@ -7607,7 +7756,7 @@
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>813.1367292225201</v>
+        <v>711.7962466487935</v>
       </c>
       <c r="Q23">
         <f t="shared" si="4"/>
@@ -7626,7 +7775,7 @@
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>828.28418230563011</v>
+        <v>726.94369973190351</v>
       </c>
       <c r="Q24">
         <f t="shared" si="4"/>
@@ -7638,18 +7787,20 @@
       </c>
     </row>
     <row r="25" spans="4:18">
-      <c r="D25" s="151"/>
+      <c r="D25" s="151" t="s">
+        <v>358</v>
+      </c>
       <c r="E25">
         <v>11.3</v>
       </c>
       <c r="F25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H25">
         <v>7.46</v>
       </c>
       <c r="I25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L25" s="153"/>
       <c r="O25">
@@ -7657,7 +7808,7 @@
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>843.43163538874001</v>
+        <v>742.0911528150134</v>
       </c>
       <c r="Q25">
         <f t="shared" si="4"/>
@@ -7669,9 +7820,17 @@
       </c>
     </row>
     <row r="26" spans="4:18">
-      <c r="D26" s="151"/>
+      <c r="D26" s="151" t="s">
+        <v>359</v>
+      </c>
+      <c r="E26">
+        <v>10.8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>346</v>
+      </c>
       <c r="J26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L26" s="153"/>
       <c r="O26">
@@ -7679,7 +7838,7 @@
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>858.5790884718499</v>
+        <v>757.23860589812341</v>
       </c>
       <c r="Q26">
         <f t="shared" si="4"/>
@@ -7691,13 +7850,15 @@
       </c>
     </row>
     <row r="27" spans="4:18">
-      <c r="D27" s="151"/>
-      <c r="E27">
+      <c r="D27" s="160" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="63">
         <f>E25/H25</f>
         <v>1.5147453083109921</v>
       </c>
-      <c r="F27" t="s">
-        <v>348</v>
+      <c r="F27" s="63" t="s">
+        <v>347</v>
       </c>
       <c r="L27" s="153"/>
       <c r="O27">
@@ -7705,7 +7866,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>873.72654155495979</v>
+        <v>772.3860589812333</v>
       </c>
       <c r="Q27">
         <f t="shared" si="4"/>
@@ -7717,14 +7878,23 @@
       </c>
     </row>
     <row r="28" spans="4:18">
-      <c r="D28" s="151"/>
+      <c r="D28" s="160" t="s">
+        <v>359</v>
+      </c>
+      <c r="E28" s="63">
+        <f>E26/H25</f>
+        <v>1.447721179624665</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>347</v>
+      </c>
       <c r="L28" s="153"/>
       <c r="O28">
         <v>250</v>
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>888.87399463806969</v>
+        <v>787.5335120643432</v>
       </c>
       <c r="Q28">
         <f t="shared" si="4"/>
@@ -7738,7 +7908,7 @@
     <row r="29" spans="4:18">
       <c r="D29" s="151"/>
       <c r="E29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L29" s="153"/>
       <c r="O29">
@@ -7746,7 +7916,7 @@
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
-        <v>904.02144772117958</v>
+        <v>802.68096514745309</v>
       </c>
       <c r="Q29">
         <f t="shared" si="4"/>
@@ -7772,7 +7942,7 @@
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
-        <v>919.16890080428948</v>
+        <v>817.82841823056299</v>
       </c>
       <c r="Q30">
         <f t="shared" si="4"/>
@@ -7789,7 +7959,7 @@
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
-        <v>934.31635388739949</v>
+        <v>832.97587131367288</v>
       </c>
       <c r="Q31">
         <f t="shared" si="4"/>
@@ -7806,7 +7976,7 @@
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
-        <v>949.46380697050938</v>
+        <v>848.12332439678278</v>
       </c>
       <c r="Q32">
         <f t="shared" si="4"/>
@@ -7823,7 +7993,7 @@
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
-        <v>964.61126005361939</v>
+        <v>863.27077747989279</v>
       </c>
       <c r="Q33">
         <f t="shared" si="4"/>
@@ -7834,19 +8004,19 @@
         <v>8.641155934914007</v>
       </c>
     </row>
-    <row r="34" spans="5:18">
-      <c r="E34" t="s">
-        <v>351</v>
+    <row r="34" spans="5:18" ht="18">
+      <c r="E34" s="65" t="s">
+        <v>356</v>
       </c>
       <c r="F34" s="147" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O34">
         <v>310</v>
       </c>
       <c r="P34">
         <f t="shared" si="0"/>
-        <v>979.75871313672928</v>
+        <v>878.41823056300268</v>
       </c>
       <c r="Q34">
         <f t="shared" si="4"/>
@@ -7863,7 +8033,7 @@
       </c>
       <c r="P35">
         <f t="shared" si="0"/>
-        <v>994.90616621983918</v>
+        <v>893.56568364611269</v>
       </c>
       <c r="Q35">
         <f t="shared" si="4"/>
@@ -7880,7 +8050,7 @@
       </c>
       <c r="P36">
         <f t="shared" si="0"/>
-        <v>1010.0536193029491</v>
+        <v>908.71313672922258</v>
       </c>
       <c r="Q36">
         <f t="shared" si="4"/>
@@ -7892,12 +8062,22 @@
       </c>
     </row>
     <row r="37" spans="5:18">
+      <c r="E37" t="s">
+        <v>360</v>
+      </c>
+      <c r="G37">
+        <f>E27*120+E28*80+J57+J63</f>
+        <v>706.43431635388743</v>
+      </c>
+      <c r="H37" t="s">
+        <v>361</v>
+      </c>
       <c r="O37">
         <v>340</v>
       </c>
       <c r="P37">
         <f t="shared" si="0"/>
-        <v>1025.201072386059</v>
+        <v>923.86058981233248</v>
       </c>
       <c r="Q37">
         <f t="shared" si="4"/>
@@ -7914,7 +8094,7 @@
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
-        <v>1040.3485254691689</v>
+        <v>939.00804289544237</v>
       </c>
       <c r="Q38">
         <f t="shared" si="4"/>
@@ -7925,13 +8105,16 @@
         <v>10.081348590733008</v>
       </c>
     </row>
-    <row r="39" spans="5:18">
+    <row r="39" spans="5:18" ht="18">
+      <c r="E39" s="65" t="s">
+        <v>355</v>
+      </c>
       <c r="O39">
         <v>360</v>
       </c>
       <c r="P39">
         <f t="shared" si="0"/>
-        <v>1055.4959785522788</v>
+        <v>954.15549597855227</v>
       </c>
       <c r="Q39">
         <f t="shared" si="4"/>
@@ -7948,7 +8131,7 @@
       </c>
       <c r="P40">
         <f t="shared" si="0"/>
-        <v>1070.6434316353889</v>
+        <v>969.30294906166228</v>
       </c>
       <c r="Q40">
         <f t="shared" si="4"/>
@@ -7965,7 +8148,7 @@
       </c>
       <c r="P41">
         <f t="shared" si="0"/>
-        <v>1085.7908847184988</v>
+        <v>984.45040214477217</v>
       </c>
       <c r="Q41">
         <f t="shared" si="4"/>
@@ -7982,7 +8165,7 @@
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
-        <v>1100.9383378016087</v>
+        <v>999.59785522788206</v>
       </c>
       <c r="Q42">
         <f t="shared" si="4"/>
@@ -7999,7 +8182,7 @@
       </c>
       <c r="P43">
         <f t="shared" si="0"/>
-        <v>1116.0857908847186</v>
+        <v>1014.745308310992</v>
       </c>
       <c r="Q43">
         <f t="shared" si="4"/>
@@ -8016,7 +8199,7 @@
       </c>
       <c r="P44">
         <f t="shared" si="0"/>
-        <v>1131.2332439678285</v>
+        <v>1029.8927613941019</v>
       </c>
       <c r="Q44">
         <f t="shared" si="4"/>
@@ -8033,7 +8216,7 @@
       </c>
       <c r="P45">
         <f t="shared" si="0"/>
-        <v>1146.3806970509384</v>
+        <v>1045.040214477212</v>
       </c>
       <c r="Q45">
         <f t="shared" si="4"/>
@@ -8050,7 +8233,7 @@
       </c>
       <c r="P46">
         <f t="shared" si="0"/>
-        <v>1161.5281501340482</v>
+        <v>1060.1876675603219</v>
       </c>
       <c r="Q46">
         <f t="shared" si="4"/>
@@ -8067,7 +8250,7 @@
       </c>
       <c r="P47">
         <f t="shared" si="0"/>
-        <v>1176.6756032171581</v>
+        <v>1075.3351206434318</v>
       </c>
       <c r="Q47">
         <f t="shared" si="4"/>
@@ -8084,7 +8267,7 @@
       </c>
       <c r="P48">
         <f t="shared" si="0"/>
-        <v>1191.823056300268</v>
+        <v>1090.4825737265417</v>
       </c>
       <c r="Q48">
         <f t="shared" si="4"/>
@@ -8101,7 +8284,7 @@
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
-        <v>1206.9705093833782</v>
+        <v>1105.6300268096516</v>
       </c>
       <c r="Q49">
         <f t="shared" si="4"/>
@@ -8118,7 +8301,7 @@
       </c>
       <c r="P50">
         <f t="shared" si="0"/>
-        <v>1222.1179624664881</v>
+        <v>1120.7774798927614</v>
       </c>
       <c r="Q50">
         <f t="shared" si="4"/>
@@ -8135,7 +8318,7 @@
       </c>
       <c r="P51">
         <f t="shared" si="0"/>
-        <v>1237.2654155495979</v>
+        <v>1135.9249329758713</v>
       </c>
       <c r="Q51">
         <f t="shared" si="4"/>
@@ -8152,7 +8335,7 @@
       </c>
       <c r="P52">
         <f t="shared" si="0"/>
-        <v>1252.4128686327078</v>
+        <v>1151.0723860589812</v>
       </c>
       <c r="Q52">
         <f t="shared" si="4"/>
@@ -8164,12 +8347,15 @@
       </c>
     </row>
     <row r="53" spans="10:18">
+      <c r="J53" t="s">
+        <v>354</v>
+      </c>
       <c r="O53">
         <v>500</v>
       </c>
       <c r="P53">
         <f t="shared" si="0"/>
-        <v>1267.5603217158177</v>
+        <v>1166.2198391420914</v>
       </c>
       <c r="Q53">
         <f t="shared" si="4"/>
@@ -8186,7 +8372,7 @@
       </c>
       <c r="P54">
         <f t="shared" si="0"/>
-        <v>1282.7077747989276</v>
+        <v>1181.3672922252013</v>
       </c>
       <c r="Q54">
         <f t="shared" si="4"/>
@@ -8199,17 +8385,17 @@
     </row>
     <row r="55" spans="10:18">
       <c r="J55">
-        <v>3806</v>
+        <v>1830</v>
       </c>
       <c r="K55" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O55">
         <v>520</v>
       </c>
       <c r="P55">
         <f t="shared" si="0"/>
-        <v>1297.8552278820375</v>
+        <v>1196.5147453083111</v>
       </c>
       <c r="Q55">
         <f t="shared" si="4"/>
@@ -8226,7 +8412,7 @@
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>1313.0026809651474</v>
+        <v>1211.662198391421</v>
       </c>
       <c r="Q56">
         <f t="shared" si="4"/>
@@ -8240,17 +8426,17 @@
     <row r="57" spans="10:18">
       <c r="J57">
         <f>J55/H25</f>
-        <v>510.1876675603217</v>
+        <v>245.30831099195711</v>
       </c>
       <c r="K57" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O57">
         <v>540</v>
       </c>
       <c r="P57">
         <f t="shared" si="0"/>
-        <v>1328.1501340482573</v>
+        <v>1226.8096514745309</v>
       </c>
       <c r="Q57">
         <f t="shared" si="4"/>
@@ -8267,7 +8453,7 @@
       </c>
       <c r="P58">
         <f t="shared" si="0"/>
-        <v>1343.2975871313674</v>
+        <v>1241.9571045576411</v>
       </c>
       <c r="Q58">
         <f t="shared" si="4"/>
@@ -8284,7 +8470,7 @@
       </c>
       <c r="P59">
         <f t="shared" si="0"/>
-        <v>1358.4450402144773</v>
+        <v>1257.1045576407507</v>
       </c>
       <c r="Q59">
         <f t="shared" si="4"/>
@@ -8296,12 +8482,15 @@
       </c>
     </row>
     <row r="60" spans="10:18">
+      <c r="J60" t="s">
+        <v>357</v>
+      </c>
       <c r="O60">
         <v>570</v>
       </c>
       <c r="P60">
         <f t="shared" si="0"/>
-        <v>1373.5924932975872</v>
+        <v>1272.2520107238608</v>
       </c>
       <c r="Q60">
         <f t="shared" si="4"/>
@@ -8313,12 +8502,19 @@
       </c>
     </row>
     <row r="61" spans="10:18">
+      <c r="J61">
+        <f>1220</f>
+        <v>1220</v>
+      </c>
+      <c r="K61" t="s">
+        <v>352</v>
+      </c>
       <c r="O61">
         <v>580</v>
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
-        <v>1388.7399463806971</v>
+        <v>1287.3994638069705</v>
       </c>
       <c r="Q61">
         <f t="shared" si="4"/>
@@ -8335,7 +8531,7 @@
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
-        <v>1403.887399463807</v>
+        <v>1302.5469168900806</v>
       </c>
       <c r="Q62">
         <f t="shared" si="4"/>
@@ -8347,12 +8543,16 @@
       </c>
     </row>
     <row r="63" spans="10:18">
+      <c r="J63">
+        <f>J61/H25</f>
+        <v>163.53887399463807</v>
+      </c>
       <c r="O63">
         <v>600</v>
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
-        <v>1419.0348525469169</v>
+        <v>1317.6943699731905</v>
       </c>
       <c r="Q63">
         <f t="shared" si="4"/>
@@ -8369,7 +8569,7 @@
       </c>
       <c r="P64">
         <f t="shared" si="0"/>
-        <v>1434.1823056300268</v>
+        <v>1332.8418230563004</v>
       </c>
       <c r="Q64">
         <f t="shared" si="4"/>
@@ -8386,7 +8586,7 @@
       </c>
       <c r="P65">
         <f t="shared" si="0"/>
-        <v>1449.3297587131367</v>
+        <v>1347.9892761394103</v>
       </c>
       <c r="Q65">
         <f t="shared" si="4"/>
@@ -8403,7 +8603,7 @@
       </c>
       <c r="P66">
         <f t="shared" si="0"/>
-        <v>1464.4772117962468</v>
+        <v>1363.1367292225202</v>
       </c>
       <c r="Q66">
         <f t="shared" si="4"/>
@@ -8420,7 +8620,7 @@
       </c>
       <c r="P67">
         <f t="shared" si="0"/>
-        <v>1479.6246648793567</v>
+        <v>1378.2841823056303</v>
       </c>
       <c r="Q67">
         <f t="shared" si="4"/>
@@ -8437,7 +8637,7 @@
       </c>
       <c r="P68">
         <f t="shared" si="0"/>
-        <v>1494.7721179624666</v>
+        <v>1393.43163538874</v>
       </c>
       <c r="Q68">
         <f t="shared" si="4"/>
@@ -8453,8 +8653,8 @@
         <v>660</v>
       </c>
       <c r="P69">
-        <f t="shared" ref="P69:P103" si="7">$E$27*O69+$J$57</f>
-        <v>1509.9195710455765</v>
+        <f t="shared" ref="P69:P103" si="7">$E$27*O69+$J$57+$J$63</f>
+        <v>1408.5790884718501</v>
       </c>
       <c r="Q69">
         <f t="shared" si="4"/>
@@ -8471,7 +8671,7 @@
       </c>
       <c r="P70">
         <f t="shared" si="7"/>
-        <v>1525.0670241286864</v>
+        <v>1423.7265415549598</v>
       </c>
       <c r="Q70">
         <f t="shared" si="4"/>
@@ -8488,7 +8688,7 @@
       </c>
       <c r="P71">
         <f t="shared" si="7"/>
-        <v>1540.2144772117963</v>
+        <v>1438.8739946380699</v>
       </c>
       <c r="Q71">
         <f t="shared" si="4"/>
@@ -8505,7 +8705,7 @@
       </c>
       <c r="P72">
         <f t="shared" si="7"/>
-        <v>1555.3619302949062</v>
+        <v>1454.0214477211798</v>
       </c>
       <c r="Q72">
         <f t="shared" si="4"/>
@@ -8522,7 +8722,7 @@
       </c>
       <c r="P73">
         <f t="shared" si="7"/>
-        <v>1570.5093833780161</v>
+        <v>1469.1689008042897</v>
       </c>
       <c r="Q73">
         <f t="shared" si="4"/>
@@ -8539,7 +8739,7 @@
       </c>
       <c r="P74">
         <f t="shared" si="7"/>
-        <v>1585.656836461126</v>
+        <v>1484.3163538873996</v>
       </c>
       <c r="Q74">
         <f t="shared" si="4"/>
@@ -8556,7 +8756,7 @@
       </c>
       <c r="P75">
         <f t="shared" si="7"/>
-        <v>1600.8042895442359</v>
+        <v>1499.4638069705095</v>
       </c>
       <c r="Q75">
         <f t="shared" si="4"/>
@@ -8573,7 +8773,7 @@
       </c>
       <c r="P76">
         <f t="shared" si="7"/>
-        <v>1615.9517426273458</v>
+        <v>1514.6112600536194</v>
       </c>
       <c r="Q76">
         <f t="shared" si="4"/>
@@ -8590,7 +8790,7 @@
       </c>
       <c r="P77">
         <f t="shared" si="7"/>
-        <v>1631.0991957104559</v>
+        <v>1529.7587131367295</v>
       </c>
       <c r="Q77">
         <f t="shared" si="4"/>
@@ -8607,7 +8807,7 @@
       </c>
       <c r="P78">
         <f t="shared" si="7"/>
-        <v>1646.2466487935658</v>
+        <v>1544.9061662198394</v>
       </c>
       <c r="Q78">
         <f t="shared" si="4"/>
@@ -8624,7 +8824,7 @@
       </c>
       <c r="P79">
         <f t="shared" si="7"/>
-        <v>1661.3941018766757</v>
+        <v>1560.0536193029493</v>
       </c>
       <c r="Q79">
         <f t="shared" si="4"/>
@@ -8641,7 +8841,7 @@
       </c>
       <c r="P80">
         <f t="shared" si="7"/>
-        <v>1676.5415549597856</v>
+        <v>1575.2010723860592</v>
       </c>
       <c r="Q80">
         <f t="shared" ref="Q80:Q103" si="8">$H$8*O80</f>
@@ -8658,7 +8858,7 @@
       </c>
       <c r="P81">
         <f t="shared" si="7"/>
-        <v>1691.6890080428955</v>
+        <v>1590.3485254691691</v>
       </c>
       <c r="Q81">
         <f t="shared" si="8"/>
@@ -8675,7 +8875,7 @@
       </c>
       <c r="P82">
         <f t="shared" si="7"/>
-        <v>1706.8364611260054</v>
+        <v>1605.495978552279</v>
       </c>
       <c r="Q82">
         <f t="shared" si="8"/>
@@ -8692,7 +8892,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="7"/>
-        <v>1721.9839142091153</v>
+        <v>1620.6434316353889</v>
       </c>
       <c r="Q83">
         <f t="shared" si="8"/>
@@ -8709,7 +8909,7 @@
       </c>
       <c r="P84">
         <f t="shared" si="7"/>
-        <v>1737.1313672922251</v>
+        <v>1635.7908847184988</v>
       </c>
       <c r="Q84">
         <f t="shared" si="8"/>
@@ -8726,7 +8926,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="7"/>
-        <v>1752.278820375335</v>
+        <v>1650.9383378016087</v>
       </c>
       <c r="Q85">
         <f t="shared" si="8"/>
@@ -8743,7 +8943,7 @@
       </c>
       <c r="P86">
         <f t="shared" si="7"/>
-        <v>1767.4262734584452</v>
+        <v>1666.0857908847188</v>
       </c>
       <c r="Q86">
         <f t="shared" si="8"/>
@@ -8760,7 +8960,7 @@
       </c>
       <c r="P87">
         <f t="shared" si="7"/>
-        <v>1782.5737265415551</v>
+        <v>1681.2332439678287</v>
       </c>
       <c r="Q87">
         <f t="shared" si="8"/>
@@ -8777,7 +8977,7 @@
       </c>
       <c r="P88">
         <f t="shared" si="7"/>
-        <v>1797.721179624665</v>
+        <v>1696.3806970509386</v>
       </c>
       <c r="Q88">
         <f t="shared" si="8"/>
@@ -8794,7 +8994,7 @@
       </c>
       <c r="P89">
         <f t="shared" si="7"/>
-        <v>1812.8686327077749</v>
+        <v>1711.5281501340485</v>
       </c>
       <c r="Q89">
         <f t="shared" si="8"/>
@@ -8811,7 +9011,7 @@
       </c>
       <c r="P90">
         <f t="shared" si="7"/>
-        <v>1828.0160857908847</v>
+        <v>1726.6756032171584</v>
       </c>
       <c r="Q90">
         <f t="shared" si="8"/>
@@ -8828,7 +9028,7 @@
       </c>
       <c r="P91">
         <f t="shared" si="7"/>
-        <v>1843.1635388739946</v>
+        <v>1741.8230563002683</v>
       </c>
       <c r="Q91">
         <f t="shared" si="8"/>
@@ -8845,7 +9045,7 @@
       </c>
       <c r="P92">
         <f t="shared" si="7"/>
-        <v>1858.3109919571045</v>
+        <v>1756.9705093833782</v>
       </c>
       <c r="Q92">
         <f t="shared" si="8"/>
@@ -8862,7 +9062,7 @@
       </c>
       <c r="P93">
         <f t="shared" si="7"/>
-        <v>1873.4584450402144</v>
+        <v>1772.1179624664881</v>
       </c>
       <c r="Q93">
         <f t="shared" si="8"/>
@@ -8879,7 +9079,7 @@
       </c>
       <c r="P94">
         <f t="shared" si="7"/>
-        <v>1888.6058981233243</v>
+        <v>1787.2654155495979</v>
       </c>
       <c r="Q94">
         <f t="shared" si="8"/>
@@ -8896,7 +9096,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="7"/>
-        <v>1903.7533512064344</v>
+        <v>1802.4128686327081</v>
       </c>
       <c r="Q95">
         <f t="shared" si="8"/>
@@ -8913,7 +9113,7 @@
       </c>
       <c r="P96">
         <f t="shared" si="7"/>
-        <v>1918.9008042895443</v>
+        <v>1817.560321715818</v>
       </c>
       <c r="Q96">
         <f t="shared" si="8"/>
@@ -8930,7 +9130,7 @@
       </c>
       <c r="P97">
         <f t="shared" si="7"/>
-        <v>1934.0482573726542</v>
+        <v>1832.7077747989279</v>
       </c>
       <c r="Q97">
         <f t="shared" si="8"/>
@@ -8947,7 +9147,7 @@
       </c>
       <c r="P98">
         <f t="shared" si="7"/>
-        <v>1949.1957104557641</v>
+        <v>1847.8552278820378</v>
       </c>
       <c r="Q98">
         <f t="shared" si="8"/>
@@ -8964,7 +9164,7 @@
       </c>
       <c r="P99">
         <f t="shared" si="7"/>
-        <v>1964.343163538874</v>
+        <v>1863.0026809651476</v>
       </c>
       <c r="Q99">
         <f t="shared" si="8"/>
@@ -8981,7 +9181,7 @@
       </c>
       <c r="P100">
         <f t="shared" si="7"/>
-        <v>1979.4906166219839</v>
+        <v>1878.1501340482575</v>
       </c>
       <c r="Q100">
         <f t="shared" si="8"/>
@@ -8998,7 +9198,7 @@
       </c>
       <c r="P101">
         <f t="shared" si="7"/>
-        <v>1994.6380697050938</v>
+        <v>1893.2975871313674</v>
       </c>
       <c r="Q101">
         <f t="shared" si="8"/>
@@ -9015,7 +9215,7 @@
       </c>
       <c r="P102">
         <f t="shared" si="7"/>
-        <v>2009.7855227882037</v>
+        <v>1908.4450402144773</v>
       </c>
       <c r="Q102">
         <f t="shared" si="8"/>
@@ -9032,7 +9232,7 @@
       </c>
       <c r="P103">
         <f t="shared" si="7"/>
-        <v>2024.9329758713138</v>
+        <v>1923.5924932975875</v>
       </c>
       <c r="Q103">
         <f t="shared" si="8"/>
@@ -9106,7 +9306,7 @@
     </row>
     <row r="7" spans="3:32">
       <c r="C7" s="132" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
@@ -9131,115 +9331,115 @@
     </row>
     <row r="8" spans="3:32">
       <c r="C8" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="E8" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="F8" s="130" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="130" t="s">
+      <c r="G8" s="130" t="s">
         <v>226</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="H8" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="130" t="s">
+      <c r="I8" s="130" t="s">
         <v>228</v>
       </c>
-      <c r="I8" s="130" t="s">
+      <c r="J8" s="130" t="s">
         <v>229</v>
       </c>
-      <c r="J8" s="130" t="s">
+      <c r="K8" s="130" t="s">
         <v>230</v>
       </c>
-      <c r="K8" s="130" t="s">
+      <c r="L8" s="130" t="s">
         <v>231</v>
       </c>
-      <c r="L8" s="130" t="s">
+      <c r="M8" s="130" t="s">
         <v>232</v>
       </c>
-      <c r="M8" s="130" t="s">
+      <c r="N8" s="130" t="s">
         <v>233</v>
       </c>
-      <c r="N8" s="130" t="s">
+      <c r="O8" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="O8" s="130" t="s">
+      <c r="P8" s="130" t="s">
         <v>235</v>
       </c>
-      <c r="P8" s="130" t="s">
+      <c r="Q8" s="130" t="s">
         <v>236</v>
       </c>
-      <c r="Q8" s="130" t="s">
+      <c r="R8" s="130" t="s">
         <v>237</v>
       </c>
-      <c r="R8" s="130" t="s">
+      <c r="S8" s="130" t="s">
         <v>238</v>
       </c>
-      <c r="S8" s="130" t="s">
+      <c r="T8" s="130" t="s">
         <v>239</v>
-      </c>
-      <c r="T8" s="130" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="131" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="E9" s="131" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="131" t="s">
+      <c r="F9" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="131" t="s">
+      <c r="G9" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="G9" s="131" t="s">
+      <c r="H9" s="131" t="s">
         <v>245</v>
-      </c>
-      <c r="H9" s="131" t="s">
-        <v>246</v>
       </c>
       <c r="I9" s="131"/>
       <c r="J9" s="131"/>
       <c r="K9" s="131" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" s="131" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="131" t="s">
+      <c r="M9" s="131" t="s">
         <v>248</v>
       </c>
-      <c r="M9" s="131" t="s">
+      <c r="N9" s="131" t="s">
         <v>249</v>
       </c>
-      <c r="N9" s="131" t="s">
+      <c r="O9" s="131" t="s">
         <v>250</v>
       </c>
-      <c r="O9" s="131" t="s">
+      <c r="P9" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="P9" s="131" t="s">
+      <c r="Q9" s="131" t="s">
         <v>252</v>
       </c>
-      <c r="Q9" s="131" t="s">
+      <c r="R9" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="R9" s="131" t="s">
+      <c r="S9" s="131" t="s">
         <v>254</v>
       </c>
-      <c r="S9" s="131" t="s">
+      <c r="T9" s="131" t="s">
         <v>255</v>
-      </c>
-      <c r="T9" s="131" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="22.2" thickBot="1">
       <c r="C10" s="131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -9249,48 +9449,48 @@
       <c r="I10" s="131"/>
       <c r="J10" s="131"/>
       <c r="K10" s="131" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" s="131" t="s">
         <v>258</v>
       </c>
-      <c r="L10" s="131" t="s">
+      <c r="M10" s="131" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10" s="131" t="s">
         <v>259</v>
       </c>
-      <c r="M10" s="131" t="s">
-        <v>259</v>
-      </c>
-      <c r="N10" s="131" t="s">
+      <c r="O10" s="134" t="s">
         <v>260</v>
       </c>
-      <c r="O10" s="134" t="s">
+      <c r="P10" s="131" t="s">
         <v>261</v>
       </c>
-      <c r="P10" s="131" t="s">
+      <c r="Q10" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="R10" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="S10" s="131" t="s">
         <v>262</v>
       </c>
-      <c r="Q10" s="134" t="s">
-        <v>303</v>
-      </c>
-      <c r="R10" s="134" t="s">
-        <v>303</v>
-      </c>
-      <c r="S10" s="131" t="s">
-        <v>263</v>
-      </c>
       <c r="T10" s="134" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" t="s">
         <v>334</v>
       </c>
-      <c r="D11" t="s">
-        <v>335</v>
-      </c>
       <c r="F11" s="141" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I11" s="141">
         <v>2020</v>
@@ -9323,7 +9523,7 @@
       <c r="S11" s="143"/>
       <c r="T11" s="143"/>
       <c r="Y11" s="128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z11" s="129"/>
       <c r="AA11" s="129"/>
@@ -9362,28 +9562,28 @@
       <c r="S12" s="137"/>
       <c r="T12" s="137"/>
       <c r="Y12" s="130" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z12" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA12" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB12" s="130" t="s">
         <v>265</v>
       </c>
-      <c r="Z12" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA12" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB12" s="130" t="s">
+      <c r="AC12" s="130" t="s">
         <v>266</v>
       </c>
-      <c r="AC12" s="130" t="s">
+      <c r="AD12" s="130" t="s">
         <v>267</v>
       </c>
-      <c r="AD12" s="130" t="s">
+      <c r="AE12" s="130" t="s">
         <v>268</v>
       </c>
-      <c r="AE12" s="130" t="s">
+      <c r="AF12" s="130" t="s">
         <v>269</v>
-      </c>
-      <c r="AF12" s="130" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="13" spans="3:32" ht="42.6" thickBot="1">
@@ -9414,33 +9614,33 @@
       <c r="S13" s="137"/>
       <c r="T13" s="137"/>
       <c r="Y13" s="131" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z13" s="131" t="s">
         <v>271</v>
       </c>
-      <c r="Z13" s="131" t="s">
+      <c r="AA13" s="131" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB13" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="AA13" s="131" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB13" s="131" t="s">
+      <c r="AC13" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="AC13" s="131" t="s">
+      <c r="AD13" s="131" t="s">
         <v>274</v>
       </c>
-      <c r="AD13" s="131" t="s">
+      <c r="AE13" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="AE13" s="131" t="s">
+      <c r="AF13" s="131" t="s">
         <v>276</v>
-      </c>
-      <c r="AF13" s="131" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1">
       <c r="Y14" s="131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z14" s="131"/>
       <c r="AA14" s="131"/>
@@ -9452,28 +9652,28 @@
     </row>
     <row r="15" spans="3:32">
       <c r="Y15" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD15" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF15" t="s">
         <v>279</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>335</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD15" s="133" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>333</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="18" spans="15:16">
@@ -9505,7 +9705,7 @@
   <sheetData>
     <row r="2" spans="2:19" ht="18">
       <c r="B2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I2" s="65" t="s">
         <v>155</v>
@@ -9513,7 +9713,7 @@
     </row>
     <row r="3" spans="2:19">
       <c r="I3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P3" t="s">
         <v>1</v>
@@ -9529,7 +9729,7 @@
     </row>
     <row r="7" spans="2:19">
       <c r="P7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="2:19">
@@ -9611,7 +9811,7 @@
     </row>
     <row r="17" spans="9:20">
       <c r="I17" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J17">
         <f>J10/1000000</f>
@@ -9624,7 +9824,7 @@
     </row>
     <row r="18" spans="9:20">
       <c r="I18" s="62" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J18" s="63">
         <f>J11/(1000000*$P$19*$P$9)</f>
@@ -9634,12 +9834,12 @@
         <v>161</v>
       </c>
       <c r="S18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="9:20">
       <c r="I19" s="62" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J19" s="63">
         <f>J12/(1000000*$P$19*$P$9)</f>
@@ -9652,12 +9852,12 @@
         <v>45000</v>
       </c>
       <c r="T19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="9:20">
       <c r="I20" s="62" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J20" s="63">
         <f>J13/(1000000*$P$19*$P$9)</f>
@@ -9675,10 +9875,10 @@
         <v>153</v>
       </c>
       <c r="L24" t="s">
+        <v>300</v>
+      </c>
+      <c r="M24" t="s">
         <v>301</v>
-      </c>
-      <c r="M24" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="25" spans="9:20">
@@ -11033,7 +11233,7 @@
     </row>
     <row r="7" spans="3:32">
       <c r="C7" s="132" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
@@ -11058,115 +11258,115 @@
     </row>
     <row r="8" spans="3:32">
       <c r="C8" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="E8" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="F8" s="130" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="130" t="s">
+      <c r="G8" s="130" t="s">
         <v>226</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="H8" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="130" t="s">
+      <c r="I8" s="130" t="s">
         <v>228</v>
       </c>
-      <c r="I8" s="130" t="s">
+      <c r="J8" s="130" t="s">
         <v>229</v>
       </c>
-      <c r="J8" s="130" t="s">
+      <c r="K8" s="130" t="s">
         <v>230</v>
       </c>
-      <c r="K8" s="130" t="s">
+      <c r="L8" s="130" t="s">
         <v>231</v>
       </c>
-      <c r="L8" s="130" t="s">
+      <c r="M8" s="130" t="s">
         <v>232</v>
       </c>
-      <c r="M8" s="130" t="s">
+      <c r="N8" s="130" t="s">
         <v>233</v>
       </c>
-      <c r="N8" s="130" t="s">
+      <c r="O8" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="O8" s="130" t="s">
+      <c r="P8" s="130" t="s">
         <v>235</v>
       </c>
-      <c r="P8" s="130" t="s">
+      <c r="Q8" s="130" t="s">
         <v>236</v>
       </c>
-      <c r="Q8" s="130" t="s">
+      <c r="R8" s="130" t="s">
         <v>237</v>
       </c>
-      <c r="R8" s="130" t="s">
+      <c r="S8" s="130" t="s">
         <v>238</v>
       </c>
-      <c r="S8" s="130" t="s">
+      <c r="T8" s="130" t="s">
         <v>239</v>
-      </c>
-      <c r="T8" s="130" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="131" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="E9" s="131" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="131" t="s">
+      <c r="F9" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="131" t="s">
+      <c r="G9" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="G9" s="131" t="s">
+      <c r="H9" s="131" t="s">
         <v>245</v>
-      </c>
-      <c r="H9" s="131" t="s">
-        <v>246</v>
       </c>
       <c r="I9" s="131"/>
       <c r="J9" s="131"/>
       <c r="K9" s="131" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" s="131" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="131" t="s">
+      <c r="M9" s="131" t="s">
         <v>248</v>
       </c>
-      <c r="M9" s="131" t="s">
+      <c r="N9" s="131" t="s">
         <v>249</v>
       </c>
-      <c r="N9" s="131" t="s">
+      <c r="O9" s="131" t="s">
         <v>250</v>
       </c>
-      <c r="O9" s="131" t="s">
+      <c r="P9" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="P9" s="131" t="s">
+      <c r="Q9" s="131" t="s">
         <v>252</v>
       </c>
-      <c r="Q9" s="131" t="s">
+      <c r="R9" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="R9" s="131" t="s">
+      <c r="S9" s="131" t="s">
         <v>254</v>
       </c>
-      <c r="S9" s="131" t="s">
+      <c r="T9" s="131" t="s">
         <v>255</v>
-      </c>
-      <c r="T9" s="131" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="21.6">
       <c r="C10" s="134" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" s="134"/>
       <c r="E10" s="134"/>
@@ -11176,49 +11376,49 @@
       <c r="I10" s="134"/>
       <c r="J10" s="134"/>
       <c r="K10" s="134" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" s="134" t="s">
         <v>258</v>
       </c>
-      <c r="L10" s="134" t="s">
+      <c r="M10" s="134" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10" s="134" t="s">
         <v>259</v>
       </c>
-      <c r="M10" s="134" t="s">
-        <v>259</v>
-      </c>
-      <c r="N10" s="134" t="s">
+      <c r="O10" s="134" t="s">
         <v>260</v>
       </c>
-      <c r="O10" s="134" t="s">
+      <c r="P10" s="134" t="s">
         <v>261</v>
       </c>
-      <c r="P10" s="134" t="s">
+      <c r="Q10" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="R10" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="S10" s="134" t="s">
         <v>262</v>
       </c>
-      <c r="Q10" s="134" t="s">
-        <v>303</v>
-      </c>
-      <c r="R10" s="134" t="s">
-        <v>303</v>
-      </c>
-      <c r="S10" s="134" t="s">
-        <v>263</v>
-      </c>
       <c r="T10" s="134" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" s="141" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" s="141" t="s">
         <v>341</v>
-      </c>
-      <c r="D11" s="141" t="s">
-        <v>342</v>
       </c>
       <c r="E11" s="141"/>
       <c r="F11" s="141" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G11" s="141" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H11" s="141"/>
       <c r="I11" s="141">
@@ -11252,7 +11452,7 @@
       <c r="S11" s="141"/>
       <c r="T11" s="143"/>
       <c r="Y11" s="128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z11" s="129"/>
       <c r="AA11" s="129"/>
@@ -11264,7 +11464,7 @@
     </row>
     <row r="12" spans="3:32">
       <c r="E12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J12" s="133"/>
       <c r="L12">
@@ -11272,36 +11472,36 @@
       </c>
       <c r="T12" s="137"/>
       <c r="Y12" s="130" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z12" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA12" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB12" s="130" t="s">
         <v>265</v>
       </c>
-      <c r="Z12" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA12" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB12" s="130" t="s">
+      <c r="AC12" s="130" t="s">
         <v>266</v>
       </c>
-      <c r="AC12" s="130" t="s">
+      <c r="AD12" s="130" t="s">
         <v>267</v>
       </c>
-      <c r="AD12" s="130" t="s">
+      <c r="AE12" s="130" t="s">
         <v>268</v>
       </c>
-      <c r="AE12" s="130" t="s">
+      <c r="AF12" s="130" t="s">
         <v>269</v>
-      </c>
-      <c r="AF12" s="130" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="13" spans="3:32" ht="42.6" thickBot="1">
       <c r="F13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I13" s="133">
         <v>2030</v>
@@ -11328,39 +11528,39 @@
       </c>
       <c r="T13" s="137"/>
       <c r="Y13" s="131" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z13" s="131" t="s">
         <v>271</v>
       </c>
-      <c r="Z13" s="131" t="s">
+      <c r="AA13" s="131" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB13" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="AA13" s="131" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB13" s="131" t="s">
+      <c r="AC13" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="AC13" s="131" t="s">
+      <c r="AD13" s="131" t="s">
         <v>274</v>
       </c>
-      <c r="AD13" s="131" t="s">
+      <c r="AE13" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="AE13" s="131" t="s">
+      <c r="AF13" s="131" t="s">
         <v>276</v>
-      </c>
-      <c r="AF13" s="131" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1">
       <c r="E14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L14">
         <v>0.1</v>
       </c>
       <c r="Y14" s="131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z14" s="131"/>
       <c r="AA14" s="131"/>
@@ -11372,10 +11572,10 @@
     </row>
     <row r="15" spans="3:32">
       <c r="F15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I15">
         <v>2050</v>
@@ -11401,33 +11601,33 @@
         <v>1.0835332077466361E-3</v>
       </c>
       <c r="Y15" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD15" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF15" t="s">
         <v>279</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD15" s="133" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="16" spans="3:32">
       <c r="E16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L16">
         <v>0.1</v>
@@ -11509,7 +11709,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -12948,7 +13148,7 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
@@ -17148,7 +17348,7 @@
   <dimension ref="C3:AF26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17195,7 +17395,7 @@
     </row>
     <row r="7" spans="3:32">
       <c r="C7" s="132" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
@@ -17217,115 +17417,115 @@
     </row>
     <row r="8" spans="3:32">
       <c r="C8" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="E8" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="F8" s="130" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="130" t="s">
+      <c r="G8" s="130" t="s">
         <v>226</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="H8" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="130" t="s">
+      <c r="I8" s="130" t="s">
         <v>228</v>
       </c>
-      <c r="I8" s="130" t="s">
+      <c r="J8" s="130" t="s">
         <v>229</v>
       </c>
-      <c r="J8" s="130" t="s">
+      <c r="K8" s="130" t="s">
         <v>230</v>
       </c>
-      <c r="K8" s="130" t="s">
+      <c r="L8" s="130" t="s">
         <v>231</v>
       </c>
-      <c r="L8" s="130" t="s">
+      <c r="M8" s="130" t="s">
         <v>232</v>
       </c>
-      <c r="M8" s="130" t="s">
+      <c r="N8" s="130" t="s">
         <v>233</v>
       </c>
-      <c r="N8" s="130" t="s">
+      <c r="O8" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="O8" s="130" t="s">
+      <c r="P8" s="130" t="s">
         <v>235</v>
       </c>
-      <c r="P8" s="130" t="s">
+      <c r="Q8" s="130" t="s">
         <v>236</v>
       </c>
-      <c r="Q8" s="130" t="s">
+      <c r="R8" s="130" t="s">
         <v>237</v>
       </c>
-      <c r="R8" s="130" t="s">
+      <c r="S8" s="130" t="s">
         <v>238</v>
       </c>
-      <c r="S8" s="130" t="s">
+      <c r="T8" s="130" t="s">
         <v>239</v>
-      </c>
-      <c r="T8" s="130" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="131" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="E9" s="131" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="131" t="s">
+      <c r="F9" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="131" t="s">
+      <c r="G9" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="G9" s="131" t="s">
+      <c r="H9" s="131" t="s">
         <v>245</v>
-      </c>
-      <c r="H9" s="131" t="s">
-        <v>246</v>
       </c>
       <c r="I9" s="131"/>
       <c r="J9" s="131"/>
       <c r="K9" s="131" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" s="131" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="131" t="s">
+      <c r="M9" s="131" t="s">
         <v>248</v>
       </c>
-      <c r="M9" s="131" t="s">
+      <c r="N9" s="131" t="s">
         <v>249</v>
       </c>
-      <c r="N9" s="131" t="s">
+      <c r="O9" s="131" t="s">
         <v>250</v>
       </c>
-      <c r="O9" s="131" t="s">
+      <c r="P9" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="P9" s="131" t="s">
+      <c r="Q9" s="131" t="s">
         <v>252</v>
       </c>
-      <c r="Q9" s="131" t="s">
+      <c r="R9" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="R9" s="131" t="s">
+      <c r="S9" s="131" t="s">
         <v>254</v>
       </c>
-      <c r="S9" s="131" t="s">
+      <c r="T9" s="131" t="s">
         <v>255</v>
-      </c>
-      <c r="T9" s="131" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="15" thickBot="1">
       <c r="C10" s="131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -17335,48 +17535,48 @@
       <c r="I10" s="131"/>
       <c r="J10" s="131"/>
       <c r="K10" s="131" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" s="131" t="s">
         <v>258</v>
       </c>
-      <c r="L10" s="131" t="s">
+      <c r="M10" s="131" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10" s="131" t="s">
         <v>259</v>
       </c>
-      <c r="M10" s="131" t="s">
-        <v>259</v>
-      </c>
-      <c r="N10" s="131" t="s">
+      <c r="O10" s="131" t="s">
         <v>260</v>
       </c>
-      <c r="O10" s="131" t="s">
+      <c r="P10" s="131" t="s">
         <v>261</v>
       </c>
-      <c r="P10" s="131" t="s">
+      <c r="Q10" s="134" t="s">
+        <v>280</v>
+      </c>
+      <c r="R10" s="134" t="s">
+        <v>280</v>
+      </c>
+      <c r="S10" s="131" t="s">
         <v>262</v>
       </c>
-      <c r="Q10" s="134" t="s">
-        <v>281</v>
-      </c>
-      <c r="R10" s="134" t="s">
-        <v>281</v>
-      </c>
-      <c r="S10" s="131" t="s">
-        <v>263</v>
-      </c>
       <c r="T10" s="134" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" t="s">
         <v>287</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>288</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>289</v>
-      </c>
-      <c r="G11" t="s">
-        <v>290</v>
       </c>
       <c r="I11">
         <v>2020</v>
@@ -17398,8 +17598,8 @@
         <v>31.536000000000001</v>
       </c>
       <c r="Q11">
-        <f>'Transmission lines'!P23</f>
-        <v>813.1367292225201</v>
+        <f>'Transmission lines'!$G$37</f>
+        <v>706.43431635388743</v>
       </c>
       <c r="R11">
         <f>'Transmission lines'!G8*'Transmission lines'!O13</f>
@@ -17409,7 +17609,7 @@
         <v>1.5</v>
       </c>
       <c r="Y11" s="128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z11" s="129"/>
       <c r="AA11" s="129"/>
@@ -17438,39 +17638,39 @@
         <v>31.536000000000001</v>
       </c>
       <c r="Q12">
-        <f>'Transmission lines'!P23</f>
-        <v>813.1367292225201</v>
+        <f>'Transmission lines'!$G$37</f>
+        <v>706.43431635388743</v>
       </c>
       <c r="R12">
-        <f>'Transmission lines'!Q13</f>
-        <v>2.7471865960767752</v>
+        <f>'Transmission lines'!Q23</f>
+        <v>5.4943731921535504</v>
       </c>
       <c r="T12" s="137">
         <v>1.5</v>
       </c>
       <c r="Y12" s="130" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z12" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA12" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB12" s="130" t="s">
         <v>265</v>
       </c>
-      <c r="Z12" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA12" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB12" s="130" t="s">
+      <c r="AC12" s="130" t="s">
         <v>266</v>
       </c>
-      <c r="AC12" s="130" t="s">
+      <c r="AD12" s="130" t="s">
         <v>267</v>
       </c>
-      <c r="AD12" s="130" t="s">
+      <c r="AE12" s="130" t="s">
         <v>268</v>
       </c>
-      <c r="AE12" s="130" t="s">
+      <c r="AF12" s="130" t="s">
         <v>269</v>
-      </c>
-      <c r="AF12" s="130" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="13" spans="3:32" ht="42.6" thickBot="1">
@@ -17491,39 +17691,39 @@
         <v>31.536000000000001</v>
       </c>
       <c r="Q13">
-        <f>'Transmission lines'!P23</f>
-        <v>813.1367292225201</v>
+        <f>'Transmission lines'!$G$37</f>
+        <v>706.43431635388743</v>
       </c>
       <c r="R13">
-        <f>'Transmission lines'!R13</f>
-        <v>2.880385311638002</v>
+        <f>'Transmission lines'!R23</f>
+        <v>5.7607706232760041</v>
       </c>
       <c r="T13">
         <v>1.5</v>
       </c>
       <c r="Y13" s="131" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z13" s="131" t="s">
         <v>271</v>
       </c>
-      <c r="Z13" s="131" t="s">
+      <c r="AA13" s="131" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB13" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="AA13" s="131" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB13" s="131" t="s">
+      <c r="AC13" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="AC13" s="131" t="s">
+      <c r="AD13" s="131" t="s">
         <v>274</v>
       </c>
-      <c r="AD13" s="131" t="s">
+      <c r="AE13" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="AE13" s="131" t="s">
+      <c r="AF13" s="131" t="s">
         <v>276</v>
-      </c>
-      <c r="AF13" s="131" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1">
@@ -17531,7 +17731,7 @@
       <c r="O14" s="138"/>
       <c r="T14" s="137"/>
       <c r="Y14" s="131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z14" s="131"/>
       <c r="AA14" s="131"/>
@@ -17547,28 +17747,28 @@
       <c r="P15" s="140"/>
       <c r="T15" s="137"/>
       <c r="Y15" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB15" s="139" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC15" s="139" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD15" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF15" s="139" t="s">
         <v>279</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB15" s="139" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC15" s="139" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD15" s="133" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF15" s="139" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="16" spans="3:32">
@@ -17612,7 +17812,7 @@
   <dimension ref="C1:U125"/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17745,7 +17945,7 @@
     </row>
     <row r="11" spans="3:21">
       <c r="C11" s="27" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="D11" s="54">
         <v>0.26584317950000003</v>
@@ -17757,7 +17957,7 @@
         <v>3.5999999999999998E-6</v>
       </c>
       <c r="T11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="3:21">
@@ -17782,7 +17982,7 @@
         <v>10000</v>
       </c>
       <c r="U12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="3:21">
@@ -17798,7 +17998,7 @@
     </row>
     <row r="14" spans="3:21">
       <c r="L14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M14">
         <f>M13/1000000</f>
@@ -17813,7 +18013,7 @@
         <v>1.1998799999999998</v>
       </c>
       <c r="U14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="3:21">
@@ -17889,7 +18089,7 @@
     </row>
     <row r="20" spans="3:16">
       <c r="L20" s="62" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M20" s="63">
         <f>M16/(33.33*1000000*$P$11)</f>
@@ -17905,19 +18105,19 @@
         <v>153</v>
       </c>
       <c r="D21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" t="s">
         <v>210</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>211</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>212</v>
       </c>
-      <c r="G21" t="s">
-        <v>213</v>
-      </c>
       <c r="L21" s="62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M21" s="63">
         <f t="shared" ref="M21:N21" si="0">M17/(33.33*1000000*$P$11)</f>
@@ -17949,7 +18149,7 @@
         <v>1.9938238462500002E-3</v>
       </c>
       <c r="L22" s="62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M22" s="63">
         <f t="shared" ref="M22:N22" si="2">M18/(33.33*1000000*$P$11)</f>
@@ -18026,10 +18226,10 @@
         <v>153</v>
       </c>
       <c r="O25" t="s">
+        <v>300</v>
+      </c>
+      <c r="P25" t="s">
         <v>301</v>
-      </c>
-      <c r="P25" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="26" spans="3:16">
@@ -21966,8 +22166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FAA1D-3717-457D-9B77-4AA5B285502A}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView zoomScale="62" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22015,7 +22215,7 @@
     </row>
     <row r="7" spans="3:32">
       <c r="C7" s="132" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
@@ -22037,115 +22237,115 @@
     </row>
     <row r="8" spans="3:32">
       <c r="C8" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="E8" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="F8" s="130" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="130" t="s">
+      <c r="G8" s="130" t="s">
         <v>226</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="H8" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="130" t="s">
+      <c r="I8" s="130" t="s">
         <v>228</v>
       </c>
-      <c r="I8" s="130" t="s">
+      <c r="J8" s="130" t="s">
         <v>229</v>
       </c>
-      <c r="J8" s="130" t="s">
+      <c r="K8" s="130" t="s">
         <v>230</v>
       </c>
-      <c r="K8" s="130" t="s">
+      <c r="L8" s="130" t="s">
         <v>231</v>
       </c>
-      <c r="L8" s="130" t="s">
+      <c r="M8" s="130" t="s">
         <v>232</v>
       </c>
-      <c r="M8" s="130" t="s">
+      <c r="N8" s="130" t="s">
         <v>233</v>
       </c>
-      <c r="N8" s="130" t="s">
+      <c r="O8" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="O8" s="130" t="s">
+      <c r="P8" s="130" t="s">
         <v>235</v>
       </c>
-      <c r="P8" s="130" t="s">
+      <c r="Q8" s="130" t="s">
         <v>236</v>
       </c>
-      <c r="Q8" s="130" t="s">
+      <c r="R8" s="130" t="s">
         <v>237</v>
       </c>
-      <c r="R8" s="130" t="s">
+      <c r="S8" s="130" t="s">
         <v>238</v>
       </c>
-      <c r="S8" s="130" t="s">
+      <c r="T8" s="130" t="s">
         <v>239</v>
-      </c>
-      <c r="T8" s="130" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="131" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="E9" s="131" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="131" t="s">
+      <c r="F9" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="131" t="s">
+      <c r="G9" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="G9" s="131" t="s">
+      <c r="H9" s="131" t="s">
         <v>245</v>
-      </c>
-      <c r="H9" s="131" t="s">
-        <v>246</v>
       </c>
       <c r="I9" s="131"/>
       <c r="J9" s="131"/>
       <c r="K9" s="131" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" s="131" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="131" t="s">
+      <c r="M9" s="131" t="s">
         <v>248</v>
       </c>
-      <c r="M9" s="131" t="s">
+      <c r="N9" s="131" t="s">
         <v>249</v>
       </c>
-      <c r="N9" s="131" t="s">
+      <c r="O9" s="131" t="s">
         <v>250</v>
       </c>
-      <c r="O9" s="131" t="s">
+      <c r="P9" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="P9" s="131" t="s">
+      <c r="Q9" s="131" t="s">
         <v>252</v>
       </c>
-      <c r="Q9" s="131" t="s">
+      <c r="R9" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="R9" s="131" t="s">
+      <c r="S9" s="131" t="s">
         <v>254</v>
       </c>
-      <c r="S9" s="131" t="s">
+      <c r="T9" s="131" t="s">
         <v>255</v>
-      </c>
-      <c r="T9" s="131" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="22.2" thickBot="1">
       <c r="C10" s="131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -22155,48 +22355,48 @@
       <c r="I10" s="131"/>
       <c r="J10" s="131"/>
       <c r="K10" s="131" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" s="131" t="s">
         <v>258</v>
       </c>
-      <c r="L10" s="131" t="s">
+      <c r="M10" s="131" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10" s="131" t="s">
         <v>259</v>
       </c>
-      <c r="M10" s="131" t="s">
-        <v>259</v>
-      </c>
-      <c r="N10" s="131" t="s">
+      <c r="O10" s="134" t="s">
         <v>260</v>
       </c>
-      <c r="O10" s="134" t="s">
+      <c r="P10" s="131" t="s">
         <v>261</v>
       </c>
-      <c r="P10" s="131" t="s">
+      <c r="Q10" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="R10" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="S10" s="131" t="s">
         <v>262</v>
       </c>
-      <c r="Q10" s="134" t="s">
-        <v>303</v>
-      </c>
-      <c r="R10" s="134" t="s">
-        <v>303</v>
-      </c>
-      <c r="S10" s="131" t="s">
-        <v>263</v>
-      </c>
       <c r="T10" s="134" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F11" t="s">
         <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I11">
         <v>2020</v>
@@ -22205,7 +22405,7 @@
         <v>2030</v>
       </c>
       <c r="K11">
-        <v>0.98499999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="N11">
         <v>0.95</v>
@@ -22228,7 +22428,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z11" s="129"/>
       <c r="AA11" s="129"/>
@@ -22244,7 +22444,7 @@
       </c>
       <c r="J12" s="133"/>
       <c r="K12">
-        <v>0.98499999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="N12">
         <v>0.95</v>
@@ -22267,28 +22467,28 @@
         <v>1</v>
       </c>
       <c r="Y12" s="130" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z12" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA12" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB12" s="130" t="s">
         <v>265</v>
       </c>
-      <c r="Z12" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA12" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB12" s="130" t="s">
+      <c r="AC12" s="130" t="s">
         <v>266</v>
       </c>
-      <c r="AC12" s="130" t="s">
+      <c r="AD12" s="130" t="s">
         <v>267</v>
       </c>
-      <c r="AD12" s="130" t="s">
+      <c r="AE12" s="130" t="s">
         <v>268</v>
       </c>
-      <c r="AE12" s="130" t="s">
+      <c r="AF12" s="130" t="s">
         <v>269</v>
-      </c>
-      <c r="AF12" s="130" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="13" spans="3:32" ht="42.6" thickBot="1">
@@ -22296,7 +22496,7 @@
         <v>2050</v>
       </c>
       <c r="K13">
-        <v>0.98499999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="N13">
         <v>0.95</v>
@@ -22319,43 +22519,43 @@
         <v>1</v>
       </c>
       <c r="Y13" s="131" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z13" s="131" t="s">
         <v>271</v>
       </c>
-      <c r="Z13" s="131" t="s">
+      <c r="AA13" s="131" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB13" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="AA13" s="131" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB13" s="131" t="s">
+      <c r="AC13" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="AC13" s="131" t="s">
+      <c r="AD13" s="131" t="s">
         <v>274</v>
       </c>
-      <c r="AD13" s="131" t="s">
+      <c r="AE13" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="AE13" s="131" t="s">
+      <c r="AF13" s="131" t="s">
         <v>276</v>
-      </c>
-      <c r="AF13" s="131" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1">
       <c r="C14" s="141" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D14" s="141" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E14" s="141"/>
       <c r="F14" s="141" t="s">
         <v>156</v>
       </c>
       <c r="G14" s="141" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H14" s="141"/>
       <c r="I14" s="141">
@@ -22390,7 +22590,7 @@
       <c r="S14" s="141"/>
       <c r="T14" s="143"/>
       <c r="Y14" s="131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z14" s="131"/>
       <c r="AA14" s="131"/>
@@ -22428,28 +22628,28 @@
       </c>
       <c r="T15" s="137"/>
       <c r="Y15" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB15" s="139" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC15" s="139" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD15" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF15" s="139" t="s">
         <v>279</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB15" s="139" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC15" s="139" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD15" s="133" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>292</v>
-      </c>
-      <c r="AF15" s="139" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="16" spans="3:32">
@@ -22479,28 +22679,28 @@
       </c>
       <c r="T16" s="137"/>
       <c r="Y16" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD16" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF16" t="s">
         <v>279</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>296</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD16" s="133" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -22516,8 +22716,8 @@
   </sheetPr>
   <dimension ref="B2:W122"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="66" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="B1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22589,7 +22789,7 @@
         <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M6">
         <f>M5/1000000</f>
@@ -22698,7 +22898,7 @@
         <v>205</v>
       </c>
       <c r="L11" s="62" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M11" s="63">
         <f>M7/($R$6*1000000*$S$13)</f>
@@ -22711,7 +22911,7 @@
     </row>
     <row r="12" spans="2:23">
       <c r="L12" s="62" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M12" s="63">
         <f t="shared" ref="M12:N13" si="0">M8/($R$6*1000000*$S$13)</f>
@@ -22740,7 +22940,7 @@
         <v>201</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M13" s="63">
         <f t="shared" si="0"/>
@@ -22756,7 +22956,7 @@
     </row>
     <row r="14" spans="2:23">
       <c r="V14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="2:23">
@@ -22764,7 +22964,7 @@
         <v>45000</v>
       </c>
       <c r="W15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="2:23">
@@ -22772,7 +22972,7 @@
         <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" t="s">
         <v>202</v>
@@ -22801,7 +23001,7 @@
         <v>0.84240000000000004</v>
       </c>
       <c r="W17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="2:23">
@@ -22872,10 +23072,10 @@
         <v>153</v>
       </c>
       <c r="O22" t="s">
+        <v>300</v>
+      </c>
+      <c r="P22" t="s">
         <v>301</v>
-      </c>
-      <c r="P22" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="23" spans="2:23">
@@ -26073,7 +26273,7 @@
     </row>
     <row r="7" spans="3:32">
       <c r="C7" s="132" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
@@ -26095,115 +26295,115 @@
     </row>
     <row r="8" spans="3:32">
       <c r="C8" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="E8" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="F8" s="130" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="130" t="s">
+      <c r="G8" s="130" t="s">
         <v>226</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="H8" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="130" t="s">
+      <c r="I8" s="130" t="s">
         <v>228</v>
       </c>
-      <c r="I8" s="130" t="s">
+      <c r="J8" s="130" t="s">
         <v>229</v>
       </c>
-      <c r="J8" s="130" t="s">
+      <c r="K8" s="130" t="s">
         <v>230</v>
       </c>
-      <c r="K8" s="130" t="s">
+      <c r="L8" s="130" t="s">
         <v>231</v>
       </c>
-      <c r="L8" s="130" t="s">
+      <c r="M8" s="130" t="s">
         <v>232</v>
       </c>
-      <c r="M8" s="130" t="s">
+      <c r="N8" s="130" t="s">
         <v>233</v>
       </c>
-      <c r="N8" s="130" t="s">
+      <c r="O8" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="O8" s="130" t="s">
+      <c r="P8" s="130" t="s">
         <v>235</v>
       </c>
-      <c r="P8" s="130" t="s">
+      <c r="Q8" s="130" t="s">
         <v>236</v>
       </c>
-      <c r="Q8" s="130" t="s">
+      <c r="R8" s="130" t="s">
         <v>237</v>
       </c>
-      <c r="R8" s="130" t="s">
+      <c r="S8" s="130" t="s">
         <v>238</v>
       </c>
-      <c r="S8" s="130" t="s">
+      <c r="T8" s="130" t="s">
         <v>239</v>
-      </c>
-      <c r="T8" s="130" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="131" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="E9" s="131" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="131" t="s">
+      <c r="F9" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="131" t="s">
+      <c r="G9" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="G9" s="131" t="s">
+      <c r="H9" s="131" t="s">
         <v>245</v>
-      </c>
-      <c r="H9" s="131" t="s">
-        <v>246</v>
       </c>
       <c r="I9" s="131"/>
       <c r="J9" s="131"/>
       <c r="K9" s="131" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" s="131" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="131" t="s">
+      <c r="M9" s="131" t="s">
         <v>248</v>
       </c>
-      <c r="M9" s="131" t="s">
+      <c r="N9" s="131" t="s">
         <v>249</v>
       </c>
-      <c r="N9" s="131" t="s">
+      <c r="O9" s="131" t="s">
         <v>250</v>
       </c>
-      <c r="O9" s="131" t="s">
+      <c r="P9" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="P9" s="131" t="s">
+      <c r="Q9" s="131" t="s">
         <v>252</v>
       </c>
-      <c r="Q9" s="131" t="s">
+      <c r="R9" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="R9" s="131" t="s">
+      <c r="S9" s="131" t="s">
         <v>254</v>
       </c>
-      <c r="S9" s="131" t="s">
+      <c r="T9" s="131" t="s">
         <v>255</v>
-      </c>
-      <c r="T9" s="131" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="22.2" thickBot="1">
       <c r="C10" s="131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -26213,48 +26413,48 @@
       <c r="I10" s="131"/>
       <c r="J10" s="131"/>
       <c r="K10" s="131" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" s="131" t="s">
         <v>258</v>
       </c>
-      <c r="L10" s="131" t="s">
+      <c r="M10" s="131" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10" s="131" t="s">
         <v>259</v>
       </c>
-      <c r="M10" s="131" t="s">
-        <v>259</v>
-      </c>
-      <c r="N10" s="131" t="s">
+      <c r="O10" s="134" t="s">
         <v>260</v>
       </c>
-      <c r="O10" s="134" t="s">
+      <c r="P10" s="131" t="s">
         <v>261</v>
       </c>
-      <c r="P10" s="131" t="s">
+      <c r="Q10" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="R10" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="S10" s="131" t="s">
         <v>262</v>
       </c>
-      <c r="Q10" s="134" t="s">
-        <v>303</v>
-      </c>
-      <c r="R10" s="134" t="s">
-        <v>303</v>
-      </c>
-      <c r="S10" s="131" t="s">
-        <v>263</v>
-      </c>
       <c r="T10" s="134" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I11">
         <v>2020</v>
@@ -26286,7 +26486,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z11" s="129"/>
       <c r="AA11" s="129"/>
@@ -26325,28 +26525,28 @@
         <v>1</v>
       </c>
       <c r="Y12" s="130" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z12" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA12" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB12" s="130" t="s">
         <v>265</v>
       </c>
-      <c r="Z12" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA12" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB12" s="130" t="s">
+      <c r="AC12" s="130" t="s">
         <v>266</v>
       </c>
-      <c r="AC12" s="130" t="s">
+      <c r="AD12" s="130" t="s">
         <v>267</v>
       </c>
-      <c r="AD12" s="130" t="s">
+      <c r="AE12" s="130" t="s">
         <v>268</v>
       </c>
-      <c r="AE12" s="130" t="s">
+      <c r="AF12" s="130" t="s">
         <v>269</v>
-      </c>
-      <c r="AF12" s="130" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="13" spans="3:32" ht="42.6" thickBot="1">
@@ -26377,43 +26577,43 @@
         <v>1</v>
       </c>
       <c r="Y13" s="131" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z13" s="131" t="s">
         <v>271</v>
       </c>
-      <c r="Z13" s="131" t="s">
+      <c r="AA13" s="131" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB13" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="AA13" s="131" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB13" s="131" t="s">
+      <c r="AC13" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="AC13" s="131" t="s">
+      <c r="AD13" s="131" t="s">
         <v>274</v>
       </c>
-      <c r="AD13" s="131" t="s">
+      <c r="AE13" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="AE13" s="131" t="s">
+      <c r="AF13" s="131" t="s">
         <v>276</v>
-      </c>
-      <c r="AF13" s="131" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1">
       <c r="C14" s="141" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D14" s="141" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E14" s="141"/>
       <c r="F14" s="141" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G14" s="141" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H14" s="141"/>
       <c r="I14" s="141">
@@ -26447,7 +26647,7 @@
       <c r="S14" s="141"/>
       <c r="T14" s="143"/>
       <c r="Y14" s="131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z14" s="131"/>
       <c r="AA14" s="131"/>
@@ -26484,28 +26684,28 @@
       </c>
       <c r="T15" s="137"/>
       <c r="Y15" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB15" s="139" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC15" s="139" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD15" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF15" s="139" t="s">
         <v>279</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>310</v>
-      </c>
-      <c r="AB15" s="139" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC15" s="139" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD15" s="133" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AF15" s="139" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="16" spans="3:32">
@@ -26534,28 +26734,28 @@
       </c>
       <c r="T16" s="137"/>
       <c r="Y16" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD16" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF16" t="s">
         <v>279</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>311</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD16" s="133" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>307</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -26593,7 +26793,7 @@
         <v>154</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M2" s="65" t="s">
         <v>155</v>
@@ -26634,7 +26834,7 @@
     </row>
     <row r="8" spans="3:20">
       <c r="Q8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="3:20">
@@ -26649,7 +26849,7 @@
         <v>3.7671232876712327E-6</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M9">
         <v>2030</v>
@@ -26677,7 +26877,7 @@
         <v>0.11428571428571428</v>
       </c>
       <c r="S10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="3:20">
@@ -26692,7 +26892,7 @@
         <v>2.2831050228310503E-6</v>
       </c>
       <c r="G11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>185</v>
@@ -26734,7 +26934,7 @@
         <v>4780</v>
       </c>
       <c r="P14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q14">
         <f>P10*100</f>
@@ -26745,7 +26945,7 @@
         <v>11.428571428571429</v>
       </c>
       <c r="T14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="3:20">
@@ -26796,10 +26996,10 @@
         <v>153</v>
       </c>
       <c r="C19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" t="s">
         <v>285</v>
-      </c>
-      <c r="D19" t="s">
-        <v>286</v>
       </c>
       <c r="Q19">
         <v>3.5999999999999998E-6</v>
@@ -28176,7 +28376,7 @@
     </row>
     <row r="7" spans="3:32">
       <c r="C7" s="132" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
@@ -28201,115 +28401,115 @@
     </row>
     <row r="8" spans="3:32">
       <c r="C8" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="E8" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="F8" s="130" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="130" t="s">
+      <c r="G8" s="130" t="s">
         <v>226</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="H8" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="130" t="s">
+      <c r="I8" s="130" t="s">
         <v>228</v>
       </c>
-      <c r="I8" s="130" t="s">
+      <c r="J8" s="130" t="s">
         <v>229</v>
       </c>
-      <c r="J8" s="130" t="s">
+      <c r="K8" s="130" t="s">
         <v>230</v>
       </c>
-      <c r="K8" s="130" t="s">
+      <c r="L8" s="130" t="s">
         <v>231</v>
       </c>
-      <c r="L8" s="130" t="s">
+      <c r="M8" s="130" t="s">
         <v>232</v>
       </c>
-      <c r="M8" s="130" t="s">
+      <c r="N8" s="130" t="s">
         <v>233</v>
       </c>
-      <c r="N8" s="130" t="s">
+      <c r="O8" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="O8" s="130" t="s">
+      <c r="P8" s="130" t="s">
         <v>235</v>
       </c>
-      <c r="P8" s="130" t="s">
+      <c r="Q8" s="130" t="s">
         <v>236</v>
       </c>
-      <c r="Q8" s="130" t="s">
+      <c r="R8" s="130" t="s">
         <v>237</v>
       </c>
-      <c r="R8" s="130" t="s">
+      <c r="S8" s="130" t="s">
         <v>238</v>
       </c>
-      <c r="S8" s="130" t="s">
+      <c r="T8" s="130" t="s">
         <v>239</v>
-      </c>
-      <c r="T8" s="130" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="131" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="E9" s="131" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="131" t="s">
+      <c r="F9" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="131" t="s">
+      <c r="G9" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="G9" s="131" t="s">
+      <c r="H9" s="131" t="s">
         <v>245</v>
-      </c>
-      <c r="H9" s="131" t="s">
-        <v>246</v>
       </c>
       <c r="I9" s="131"/>
       <c r="J9" s="131"/>
       <c r="K9" s="131" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" s="131" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="131" t="s">
+      <c r="M9" s="131" t="s">
         <v>248</v>
       </c>
-      <c r="M9" s="131" t="s">
+      <c r="N9" s="131" t="s">
         <v>249</v>
       </c>
-      <c r="N9" s="131" t="s">
+      <c r="O9" s="131" t="s">
         <v>250</v>
       </c>
-      <c r="O9" s="131" t="s">
+      <c r="P9" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="P9" s="131" t="s">
+      <c r="Q9" s="131" t="s">
         <v>252</v>
       </c>
-      <c r="Q9" s="131" t="s">
+      <c r="R9" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="R9" s="131" t="s">
+      <c r="S9" s="131" t="s">
         <v>254</v>
       </c>
-      <c r="S9" s="131" t="s">
+      <c r="T9" s="131" t="s">
         <v>255</v>
-      </c>
-      <c r="T9" s="131" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="15" thickBot="1">
       <c r="C10" s="131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -28319,48 +28519,48 @@
       <c r="I10" s="131"/>
       <c r="J10" s="131"/>
       <c r="K10" s="131" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" s="131" t="s">
+        <v>326</v>
+      </c>
+      <c r="M10" s="131" t="s">
         <v>258</v>
       </c>
-      <c r="L10" s="131" t="s">
+      <c r="N10" s="131" t="s">
+        <v>259</v>
+      </c>
+      <c r="O10" s="134" t="s">
+        <v>260</v>
+      </c>
+      <c r="P10" s="131" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q10" s="134" t="s">
         <v>327</v>
       </c>
-      <c r="M10" s="131" t="s">
-        <v>259</v>
-      </c>
-      <c r="N10" s="131" t="s">
+      <c r="R10" s="134" t="s">
+        <v>327</v>
+      </c>
+      <c r="S10" s="131" t="s">
+        <v>262</v>
+      </c>
+      <c r="T10" s="134" t="s">
         <v>260</v>
-      </c>
-      <c r="O10" s="134" t="s">
-        <v>261</v>
-      </c>
-      <c r="P10" s="131" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q10" s="134" t="s">
-        <v>328</v>
-      </c>
-      <c r="R10" s="134" t="s">
-        <v>328</v>
-      </c>
-      <c r="S10" s="131" t="s">
-        <v>263</v>
-      </c>
-      <c r="T10" s="134" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I11">
         <v>2020</v>
@@ -28392,7 +28592,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z11" s="129"/>
       <c r="AA11" s="129"/>
@@ -28431,28 +28631,28 @@
         <v>1</v>
       </c>
       <c r="Y12" s="130" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z12" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA12" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB12" s="130" t="s">
         <v>265</v>
       </c>
-      <c r="Z12" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA12" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB12" s="130" t="s">
+      <c r="AC12" s="130" t="s">
         <v>266</v>
       </c>
-      <c r="AC12" s="130" t="s">
+      <c r="AD12" s="130" t="s">
         <v>267</v>
       </c>
-      <c r="AD12" s="130" t="s">
+      <c r="AE12" s="130" t="s">
         <v>268</v>
       </c>
-      <c r="AE12" s="130" t="s">
+      <c r="AF12" s="130" t="s">
         <v>269</v>
-      </c>
-      <c r="AF12" s="130" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="13" spans="3:32" ht="42.6" thickBot="1">
@@ -28483,43 +28683,43 @@
         <v>1</v>
       </c>
       <c r="Y13" s="131" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z13" s="131" t="s">
         <v>271</v>
       </c>
-      <c r="Z13" s="131" t="s">
+      <c r="AA13" s="131" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB13" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="AA13" s="131" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB13" s="131" t="s">
+      <c r="AC13" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="AC13" s="131" t="s">
+      <c r="AD13" s="131" t="s">
         <v>274</v>
       </c>
-      <c r="AD13" s="131" t="s">
+      <c r="AE13" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="AE13" s="131" t="s">
+      <c r="AF13" s="131" t="s">
         <v>276</v>
-      </c>
-      <c r="AF13" s="131" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1">
       <c r="C14" s="141" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D14" s="141" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E14" s="141"/>
       <c r="F14" s="141" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G14" s="141" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H14" s="141"/>
       <c r="I14" s="141">
@@ -28553,7 +28753,7 @@
       <c r="S14" s="141"/>
       <c r="T14" s="143"/>
       <c r="Y14" s="131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z14" s="131"/>
       <c r="AA14" s="131"/>
@@ -28565,7 +28765,7 @@
     </row>
     <row r="15" spans="3:32">
       <c r="E15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J15" s="133"/>
       <c r="L15">
@@ -28574,36 +28774,36 @@
       </c>
       <c r="T15" s="137"/>
       <c r="Y15" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB15" s="139" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC15" s="139" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD15" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF15" s="139" t="s">
         <v>279</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>322</v>
-      </c>
-      <c r="AB15" s="139" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC15" s="139" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD15" s="133" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>318</v>
-      </c>
-      <c r="AF15" s="139" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="16" spans="3:32">
       <c r="F16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I16" s="133">
         <v>2030</v>
@@ -28630,33 +28830,33 @@
       </c>
       <c r="T16" s="137"/>
       <c r="Y16" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD16" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF16" t="s">
         <v>279</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD16" s="133" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="17" spans="5:18">
       <c r="E17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L17">
         <f>'CO2'!S19/10</f>
@@ -28665,10 +28865,10 @@
     </row>
     <row r="18" spans="5:18">
       <c r="F18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I18">
         <v>2050</v>
@@ -28696,7 +28896,7 @@
     </row>
     <row r="19" spans="5:18">
       <c r="E19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L19">
         <f>'CO2'!T19/10</f>
@@ -28733,7 +28933,7 @@
   <sheetData>
     <row r="2" spans="2:19" ht="18">
       <c r="B2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H2" s="65" t="s">
         <v>155</v>
@@ -28741,7 +28941,7 @@
     </row>
     <row r="3" spans="2:19">
       <c r="H3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
@@ -28757,7 +28957,7 @@
     </row>
     <row r="6" spans="2:19">
       <c r="O6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:19">
@@ -28817,7 +29017,7 @@
     </row>
     <row r="11" spans="2:19">
       <c r="H11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I11">
         <f>I10/1000000</f>
@@ -28855,7 +29055,7 @@
         <v>161</v>
       </c>
       <c r="R14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="2:19">
@@ -28866,7 +29066,7 @@
         <v>45000</v>
       </c>
       <c r="S15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="8:19">
@@ -28874,7 +29074,7 @@
     </row>
     <row r="18" spans="8:19">
       <c r="H18" s="62" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I18" s="63">
         <f>I12/(O8*O15*1000000)</f>
@@ -28885,12 +29085,12 @@
         <v>0.98981999999999992</v>
       </c>
       <c r="S18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="8:19">
       <c r="H19" s="62" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I19" s="63">
         <f>I13/($O$8*1000000*O15)</f>
@@ -28899,7 +29099,7 @@
     </row>
     <row r="20" spans="8:19">
       <c r="H20" s="62" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I20" s="63">
         <f>I14/($O$8*1000000*O15)</f>
@@ -28911,10 +29111,10 @@
         <v>153</v>
       </c>
       <c r="K25" t="s">
+        <v>300</v>
+      </c>
+      <c r="L25" t="s">
         <v>301</v>
-      </c>
-      <c r="L25" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="26" spans="8:19">

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266EB60B-FF2B-47CF-BF86-B445F647FFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309747E1-98FD-480F-AF35-B580ABC3C7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -4631,7 +4631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="362">
   <si>
     <t>Methanol=LHC in technology cathalogue</t>
   </si>
@@ -6188,7 +6188,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -6572,6 +6572,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6581,7 +6583,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -6618,7 +6620,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>4198845</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>97598</xdr:rowOff>
+      <xdr:rowOff>46798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6703,8 +6705,8 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>2815</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>158240</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>225974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6789,8 +6791,8 @@
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>147484</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>137679</xdr:rowOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>103812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6832,8 +6834,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85649</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>86265</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>35465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6875,8 +6877,8 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>368709</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>166364</xdr:rowOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>132497</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7261,8 +7263,8 @@
   </sheetPr>
   <dimension ref="D2:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A16" zoomScale="63" workbookViewId="0">
+      <selection activeCell="AO101" sqref="AO101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7850,7 +7852,7 @@
       </c>
     </row>
     <row r="27" spans="4:18">
-      <c r="D27" s="160" t="s">
+      <c r="D27" s="157" t="s">
         <v>358</v>
       </c>
       <c r="E27" s="63">
@@ -7878,7 +7880,7 @@
       </c>
     </row>
     <row r="28" spans="4:18">
-      <c r="D28" s="160" t="s">
+      <c r="D28" s="157" t="s">
         <v>359</v>
       </c>
       <c r="E28" s="63">
@@ -8061,17 +8063,19 @@
         <v>9.505271528405407</v>
       </c>
     </row>
-    <row r="37" spans="5:18">
-      <c r="E37" t="s">
+    <row r="37" spans="5:18" ht="18">
+      <c r="E37" s="158" t="s">
         <v>360</v>
       </c>
-      <c r="G37">
+      <c r="F37" s="158"/>
+      <c r="G37" s="158">
         <f>E27*120+E28*80+J57+J63</f>
         <v>706.43431635388743</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="158" t="s">
         <v>361</v>
       </c>
+      <c r="I37" s="158"/>
       <c r="O37">
         <v>340</v>
       </c>
@@ -8278,7 +8282,12 @@
         <v>12.961733902371009</v>
       </c>
     </row>
-    <row r="49" spans="10:18">
+    <row r="49" spans="9:18" ht="18">
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
       <c r="O49">
         <v>460</v>
       </c>
@@ -8295,7 +8304,12 @@
         <v>13.24977243353481</v>
       </c>
     </row>
-    <row r="50" spans="10:18">
+    <row r="50" spans="9:18" ht="18">
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
       <c r="O50">
         <v>470</v>
       </c>
@@ -8312,7 +8326,12 @@
         <v>13.537810964698609</v>
       </c>
     </row>
-    <row r="51" spans="10:18">
+    <row r="51" spans="9:18" ht="18">
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
       <c r="O51">
         <v>480</v>
       </c>
@@ -8329,7 +8348,12 @@
         <v>13.825849495862411</v>
       </c>
     </row>
-    <row r="52" spans="10:18">
+    <row r="52" spans="9:18" ht="18">
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
       <c r="O52">
         <v>490</v>
       </c>
@@ -8346,10 +8370,14 @@
         <v>14.11388802702621</v>
       </c>
     </row>
-    <row r="53" spans="10:18">
-      <c r="J53" t="s">
+    <row r="53" spans="9:18" ht="18">
+      <c r="I53" s="65"/>
+      <c r="J53" s="65" t="s">
         <v>354</v>
       </c>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="65"/>
       <c r="O53">
         <v>500</v>
       </c>
@@ -8366,7 +8394,12 @@
         <v>14.401926558190011</v>
       </c>
     </row>
-    <row r="54" spans="10:18">
+    <row r="54" spans="9:18" ht="18">
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="65"/>
       <c r="O54">
         <v>510</v>
       </c>
@@ -8383,13 +8416,16 @@
         <v>14.689965089353811</v>
       </c>
     </row>
-    <row r="55" spans="10:18">
-      <c r="J55">
+    <row r="55" spans="9:18" ht="18">
+      <c r="I55" s="65"/>
+      <c r="J55" s="65">
         <v>1830</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="65" t="s">
         <v>352</v>
       </c>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65"/>
       <c r="O55">
         <v>520</v>
       </c>
@@ -8406,7 +8442,12 @@
         <v>14.978003620517612</v>
       </c>
     </row>
-    <row r="56" spans="10:18">
+    <row r="56" spans="9:18" ht="18">
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
       <c r="O56">
         <v>530</v>
       </c>
@@ -8423,14 +8464,17 @@
         <v>15.266042151681411</v>
       </c>
     </row>
-    <row r="57" spans="10:18">
-      <c r="J57">
+    <row r="57" spans="9:18" ht="18">
+      <c r="I57" s="65"/>
+      <c r="J57" s="65">
         <f>J55/H25</f>
         <v>245.30831099195711</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="65" t="s">
         <v>353</v>
       </c>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
       <c r="O57">
         <v>540</v>
       </c>
@@ -8447,7 +8491,12 @@
         <v>15.554080682845211</v>
       </c>
     </row>
-    <row r="58" spans="10:18">
+    <row r="58" spans="9:18" ht="18">
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="65"/>
       <c r="O58">
         <v>550</v>
       </c>
@@ -8464,7 +8513,12 @@
         <v>15.842119214009012</v>
       </c>
     </row>
-    <row r="59" spans="10:18">
+    <row r="59" spans="9:18" ht="18">
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="65"/>
       <c r="O59">
         <v>560</v>
       </c>
@@ -8481,10 +8535,14 @@
         <v>16.130157745172813</v>
       </c>
     </row>
-    <row r="60" spans="10:18">
-      <c r="J60" t="s">
+    <row r="60" spans="9:18" ht="18">
+      <c r="I60" s="65"/>
+      <c r="J60" s="65" t="s">
         <v>357</v>
       </c>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
       <c r="O60">
         <v>570</v>
       </c>
@@ -8501,14 +8559,17 @@
         <v>16.418196276336612</v>
       </c>
     </row>
-    <row r="61" spans="10:18">
-      <c r="J61">
+    <row r="61" spans="9:18" ht="18">
+      <c r="I61" s="65"/>
+      <c r="J61" s="65">
         <f>1220</f>
         <v>1220</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="65" t="s">
         <v>352</v>
       </c>
+      <c r="L61" s="65"/>
+      <c r="M61" s="65"/>
       <c r="O61">
         <v>580</v>
       </c>
@@ -8525,7 +8586,12 @@
         <v>16.706234807500412</v>
       </c>
     </row>
-    <row r="62" spans="10:18">
+    <row r="62" spans="9:18" ht="18">
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
       <c r="O62">
         <v>590</v>
       </c>
@@ -8542,11 +8608,17 @@
         <v>16.994273338664211</v>
       </c>
     </row>
-    <row r="63" spans="10:18">
-      <c r="J63">
+    <row r="63" spans="9:18" ht="18">
+      <c r="I63" s="65"/>
+      <c r="J63" s="65">
         <f>J61/H25</f>
         <v>163.53887399463807</v>
       </c>
+      <c r="K63" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
       <c r="O63">
         <v>600</v>
       </c>
@@ -8563,7 +8635,12 @@
         <v>17.282311869828014</v>
       </c>
     </row>
-    <row r="64" spans="10:18">
+    <row r="64" spans="9:18" ht="18">
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
+      <c r="M64" s="65"/>
       <c r="O64">
         <v>610</v>
       </c>
@@ -8580,7 +8657,12 @@
         <v>17.570350400991813</v>
       </c>
     </row>
-    <row r="65" spans="15:18">
+    <row r="65" spans="9:18" ht="18">
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="65"/>
+      <c r="L65" s="65"/>
+      <c r="M65" s="65"/>
       <c r="O65">
         <v>620</v>
       </c>
@@ -8597,7 +8679,12 @@
         <v>17.858388932155613</v>
       </c>
     </row>
-    <row r="66" spans="15:18">
+    <row r="66" spans="9:18" ht="18">
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
+      <c r="M66" s="65"/>
       <c r="O66">
         <v>630</v>
       </c>
@@ -8614,7 +8701,12 @@
         <v>18.146427463319412</v>
       </c>
     </row>
-    <row r="67" spans="15:18">
+    <row r="67" spans="9:18" ht="18">
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="65"/>
       <c r="O67">
         <v>640</v>
       </c>
@@ -8631,7 +8723,7 @@
         <v>18.434465994483212</v>
       </c>
     </row>
-    <row r="68" spans="15:18">
+    <row r="68" spans="9:18">
       <c r="O68">
         <v>650</v>
       </c>
@@ -8648,7 +8740,7 @@
         <v>18.722504525647015</v>
       </c>
     </row>
-    <row r="69" spans="15:18">
+    <row r="69" spans="9:18">
       <c r="O69">
         <v>660</v>
       </c>
@@ -8665,7 +8757,7 @@
         <v>19.010543056810814</v>
       </c>
     </row>
-    <row r="70" spans="15:18">
+    <row r="70" spans="9:18">
       <c r="O70">
         <v>670</v>
       </c>
@@ -8682,7 +8774,7 @@
         <v>19.298581587974613</v>
       </c>
     </row>
-    <row r="71" spans="15:18">
+    <row r="71" spans="9:18">
       <c r="O71">
         <v>680</v>
       </c>
@@ -8699,7 +8791,7 @@
         <v>19.586620119138413</v>
       </c>
     </row>
-    <row r="72" spans="15:18">
+    <row r="72" spans="9:18">
       <c r="O72">
         <v>690</v>
       </c>
@@ -8716,7 +8808,7 @@
         <v>19.874658650302216</v>
       </c>
     </row>
-    <row r="73" spans="15:18">
+    <row r="73" spans="9:18">
       <c r="O73">
         <v>700</v>
       </c>
@@ -8733,7 +8825,7 @@
         <v>20.162697181466015</v>
       </c>
     </row>
-    <row r="74" spans="15:18">
+    <row r="74" spans="9:18">
       <c r="O74">
         <v>710</v>
       </c>
@@ -8750,7 +8842,7 @@
         <v>20.450735712629815</v>
       </c>
     </row>
-    <row r="75" spans="15:18">
+    <row r="75" spans="9:18">
       <c r="O75">
         <v>720</v>
       </c>
@@ -8767,7 +8859,7 @@
         <v>20.738774243793614</v>
       </c>
     </row>
-    <row r="76" spans="15:18">
+    <row r="76" spans="9:18">
       <c r="O76">
         <v>730</v>
       </c>
@@ -8784,7 +8876,7 @@
         <v>21.026812774957417</v>
       </c>
     </row>
-    <row r="77" spans="15:18">
+    <row r="77" spans="9:18">
       <c r="O77">
         <v>740</v>
       </c>
@@ -8801,7 +8893,7 @@
         <v>21.314851306121216</v>
       </c>
     </row>
-    <row r="78" spans="15:18">
+    <row r="78" spans="9:18">
       <c r="O78">
         <v>750</v>
       </c>
@@ -8818,7 +8910,7 @@
         <v>21.602889837285016</v>
       </c>
     </row>
-    <row r="79" spans="15:18">
+    <row r="79" spans="9:18">
       <c r="O79">
         <v>760</v>
       </c>
@@ -8835,7 +8927,7 @@
         <v>21.890928368448815</v>
       </c>
     </row>
-    <row r="80" spans="15:18">
+    <row r="80" spans="9:18">
       <c r="O80">
         <v>770</v>
       </c>
@@ -11190,8 +11282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195BF64-9F46-4536-8385-3D462E705609}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11466,6 +11558,9 @@
       <c r="E12" t="s">
         <v>325</v>
       </c>
+      <c r="I12" s="162">
+        <v>2020</v>
+      </c>
       <c r="J12" s="133"/>
       <c r="L12">
         <v>0.1</v>
@@ -11555,6 +11650,9 @@
     <row r="14" spans="3:32" ht="15" thickBot="1">
       <c r="E14" t="s">
         <v>325</v>
+      </c>
+      <c r="I14" s="133">
+        <v>2030</v>
       </c>
       <c r="L14">
         <v>0.1</v>
@@ -11628,6 +11726,9 @@
     <row r="16" spans="3:32">
       <c r="E16" t="s">
         <v>325</v>
+      </c>
+      <c r="I16">
+        <v>2050</v>
       </c>
       <c r="L16">
         <v>0.1</v>
@@ -11660,18 +11761,18 @@
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="14" t="s">
@@ -13162,17 +13263,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
@@ -14152,17 +14253,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
       <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12">
@@ -14842,17 +14943,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="160" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
       <c r="L1" s="58"/>
       <c r="M1" s="58"/>
       <c r="N1" s="58"/>
@@ -16586,17 +16687,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="159" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
       <c r="L1" s="66"/>
       <c r="M1" s="66"/>
       <c r="N1" s="66"/>
@@ -28324,7 +28425,7 @@
   <dimension ref="C3:AF19"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28767,6 +28868,9 @@
       <c r="E15" t="s">
         <v>325</v>
       </c>
+      <c r="I15" s="162">
+        <v>2020</v>
+      </c>
       <c r="J15" s="133"/>
       <c r="L15">
         <f>'CO2'!S19/10</f>
@@ -28858,6 +28962,9 @@
       <c r="E17" t="s">
         <v>325</v>
       </c>
+      <c r="I17" s="133">
+        <v>2030</v>
+      </c>
       <c r="L17">
         <f>'CO2'!S19/10</f>
         <v>9.2571428571428561E-6</v>
@@ -28897,6 +29004,9 @@
     <row r="19" spans="5:18">
       <c r="E19" t="s">
         <v>325</v>
+      </c>
+      <c r="I19">
+        <v>2050</v>
       </c>
       <c r="L19">
         <f>'CO2'!T19/10</f>

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309747E1-98FD-480F-AF35-B580ABC3C7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676B7201-7DB7-4CEB-845B-C59441432D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -6188,7 +6188,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -6583,7 +6583,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -6618,9 +6617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4198845</xdr:colOff>
+      <xdr:colOff>4206465</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>46798</xdr:rowOff>
+      <xdr:rowOff>54418</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6661,7 +6660,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4175456</xdr:colOff>
+      <xdr:colOff>4171646</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>2795</xdr:rowOff>
     </xdr:to>
@@ -6705,8 +6704,8 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>2815</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>225974</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>20098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6749,7 +6748,7 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>37170</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>125031</xdr:rowOff>
+      <xdr:rowOff>134556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6790,9 +6789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>147484</xdr:colOff>
+      <xdr:colOff>136054</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>103812</xdr:rowOff>
+      <xdr:rowOff>94287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6833,7 +6832,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>85649</xdr:colOff>
+      <xdr:colOff>93269</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>35465</xdr:rowOff>
     </xdr:to>
@@ -6876,9 +6875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>368709</xdr:colOff>
+      <xdr:colOff>364899</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>132497</xdr:rowOff>
+      <xdr:rowOff>136307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7263,8 +7262,8 @@
   </sheetPr>
   <dimension ref="D2:R103"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="63" workbookViewId="0">
-      <selection activeCell="AO101" sqref="AO101"/>
+    <sheetView topLeftCell="A19" zoomScale="84" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11282,7 +11281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195BF64-9F46-4536-8385-3D462E705609}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -11558,7 +11557,7 @@
       <c r="E12" t="s">
         <v>325</v>
       </c>
-      <c r="I12" s="162">
+      <c r="I12">
         <v>2020</v>
       </c>
       <c r="J12" s="133"/>
@@ -11747,7 +11746,7 @@
   </sheetPr>
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -17448,8 +17447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58317BE-2B49-4D94-8D23-F69EEBB61B78}">
   <dimension ref="C3:AF26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28868,7 +28867,7 @@
       <c r="E15" t="s">
         <v>325</v>
       </c>
-      <c r="I15" s="162">
+      <c r="I15">
         <v>2020</v>
       </c>
       <c r="J15" s="133"/>

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676B7201-7DB7-4CEB-845B-C59441432D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB708A52-0A72-4224-8FFD-8BF7CFF063C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -4631,7 +4631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="363">
   <si>
     <t>Methanol=LHC in technology cathalogue</t>
   </si>
@@ -5745,6 +5745,9 @@
   </si>
   <si>
     <t>meur/gw</t>
+  </si>
+  <si>
+    <t>PJ/TON</t>
   </si>
 </sst>
 </file>
@@ -17447,7 +17450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58317BE-2B49-4D94-8D23-F69EEBB61B78}">
   <dimension ref="C3:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="78" workbookViewId="0">
       <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
@@ -17911,8 +17914,8 @@
   </sheetPr>
   <dimension ref="C1:U125"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18030,6 +18033,12 @@
       </c>
       <c r="D8" s="52">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21">
+      <c r="T9">
+        <f>P11*P4</f>
+        <v>1.1998799999999999E-4</v>
       </c>
     </row>
     <row r="10" spans="3:21">
@@ -22817,7 +22826,7 @@
   <dimension ref="B2:W122"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22829,6 +22838,7 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="18">
@@ -23007,6 +23017,13 @@
       <c r="N11" s="63">
         <f>N7/($R$6*1000000*$S$13)</f>
         <v>105.70687448860785</v>
+      </c>
+      <c r="V11">
+        <f>R6*S13</f>
+        <v>1.872E-5</v>
+      </c>
+      <c r="W11" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="2:23">
@@ -29024,10 +29041,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:S125"/>
+  <dimension ref="B2:T125"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29038,9 +29055,10 @@
     <col min="11" max="12" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="18">
+    <row r="2" spans="2:20" ht="18">
       <c r="B2" t="s">
         <v>215</v>
       </c>
@@ -29048,7 +29066,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="2:19">
+    <row r="3" spans="2:20">
       <c r="H3" t="s">
         <v>218</v>
       </c>
@@ -29056,7 +29074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:20">
       <c r="H5" s="47" t="s">
         <v>25</v>
       </c>
@@ -29064,12 +29082,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:20">
       <c r="O6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:20">
       <c r="O7">
         <v>6.1109999999999998</v>
       </c>
@@ -29077,7 +29095,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:20">
       <c r="O8">
         <v>6.11</v>
       </c>
@@ -29085,7 +29103,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="2:19">
+    <row r="9" spans="2:20">
       <c r="I9" t="s">
         <v>200</v>
       </c>
@@ -29106,7 +29124,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:20">
       <c r="H10" s="27" t="s">
         <v>126</v>
       </c>
@@ -29124,7 +29142,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="2:19">
+    <row r="11" spans="2:20">
       <c r="H11" t="s">
         <v>313</v>
       </c>
@@ -29136,8 +29154,12 @@
         <f>J10/1000000</f>
         <v>1.7149999999999999E-3</v>
       </c>
-    </row>
-    <row r="12" spans="2:19">
+      <c r="T11">
+        <f>O8*O15</f>
+        <v>2.1996000000000001E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
       <c r="H12" s="62" t="s">
         <v>131</v>
       </c>
@@ -29145,7 +29167,7 @@
         <v>780.22546079682832</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:20">
       <c r="H13" s="62" t="s">
         <v>134</v>
       </c>
@@ -29153,7 +29175,7 @@
         <v>4.2534908720000004</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:20">
       <c r="H14" s="62" t="s">
         <v>137</v>
       </c>
@@ -29167,7 +29189,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:20">
       <c r="O15">
         <v>3.5999999999999998E-6</v>
       </c>

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB708A52-0A72-4224-8FFD-8BF7CFF063C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643796AC-B2FD-47D7-B680-E83E26192A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -9351,7 +9351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345D734-7961-4ED2-821B-49A1BA0CA502}">
   <dimension ref="C3:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -17914,7 +17914,7 @@
   </sheetPr>
   <dimension ref="C1:U125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="86" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643796AC-B2FD-47D7-B680-E83E26192A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8393999C-A528-4546-9530-56FBD7FEEA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -9351,8 +9351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345D734-7961-4ED2-821B-49A1BA0CA502}">
   <dimension ref="C3:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9787,8 +9787,8 @@
   </sheetPr>
   <dimension ref="B2:T124"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11285,7 +11285,7 @@
   <dimension ref="C3:AF16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22825,7 +22825,7 @@
   </sheetPr>
   <dimension ref="B2:W122"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="66" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="66" workbookViewId="0">
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
@@ -26338,8 +26338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB904E-BBCD-45B2-9EDC-CF511B90CE44}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="70" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26889,7 +26889,7 @@
   <dimension ref="B2:T119"/>
   <sheetViews>
     <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28441,7 +28441,7 @@
   <dimension ref="C3:AF19"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29043,8 +29043,8 @@
   </sheetPr>
   <dimension ref="B2:T125"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView topLeftCell="A10" zoomScale="64" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8393999C-A528-4546-9530-56FBD7FEEA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB5615-B6E9-4C35-893C-C938C16365D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -11284,7 +11284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195BF64-9F46-4536-8385-3D462E705609}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -17451,7 +17451,7 @@
   <dimension ref="C3:AF26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+      <selection activeCell="T17" sqref="T17:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17570,9 +17570,6 @@
       <c r="S8" s="130" t="s">
         <v>238</v>
       </c>
-      <c r="T8" s="130" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
@@ -17621,9 +17618,6 @@
       </c>
       <c r="S9" s="131" t="s">
         <v>254</v>
-      </c>
-      <c r="T9" s="131" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="15" thickBot="1">
@@ -17664,9 +17658,6 @@
       <c r="S10" s="131" t="s">
         <v>262</v>
       </c>
-      <c r="T10" s="134" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
@@ -17707,9 +17698,6 @@
       <c r="R11">
         <f>'Transmission lines'!G8*'Transmission lines'!O13</f>
         <v>2.6201474376260068</v>
-      </c>
-      <c r="T11" s="137">
-        <v>1.5</v>
       </c>
       <c r="Y11" s="128" t="s">
         <v>263</v>
@@ -17748,9 +17736,6 @@
         <f>'Transmission lines'!Q23</f>
         <v>5.4943731921535504</v>
       </c>
-      <c r="T12" s="137">
-        <v>1.5</v>
-      </c>
       <c r="Y12" s="130" t="s">
         <v>264</v>
       </c>
@@ -17800,9 +17785,6 @@
       <c r="R13">
         <f>'Transmission lines'!R23</f>
         <v>5.7607706232760041</v>
-      </c>
-      <c r="T13">
-        <v>1.5</v>
       </c>
       <c r="Y13" s="131" t="s">
         <v>270</v>
@@ -17879,18 +17861,41 @@
       <c r="O16" s="138"/>
       <c r="T16" s="137"/>
     </row>
-    <row r="18" spans="8:20">
+    <row r="17" spans="8:20">
+      <c r="T17" s="130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="8:20" ht="22.2" thickBot="1">
       <c r="H18" s="133"/>
       <c r="I18" s="133"/>
+      <c r="T18" s="131" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="19" spans="8:20">
       <c r="I19" s="133"/>
       <c r="O19" s="138"/>
       <c r="P19" s="140"/>
-      <c r="T19" s="137"/>
+      <c r="T19" s="134" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="8:20">
+      <c r="T20" s="137">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="8:20">
+      <c r="T21" s="137">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="22" spans="8:20">
       <c r="H22" s="133"/>
+      <c r="T22">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="23" spans="8:20">
       <c r="I23" s="133"/>
@@ -22273,10 +22278,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FAA1D-3717-457D-9B77-4AA5B285502A}">
-  <dimension ref="C3:AF16"/>
+  <dimension ref="C3:AF27"/>
   <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="C1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19:T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22396,9 +22401,6 @@
       <c r="S8" s="130" t="s">
         <v>238</v>
       </c>
-      <c r="T8" s="130" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
@@ -22447,9 +22449,6 @@
       </c>
       <c r="S9" s="131" t="s">
         <v>254</v>
-      </c>
-      <c r="T9" s="131" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="22.2" thickBot="1">
@@ -22490,9 +22489,6 @@
       <c r="S10" s="131" t="s">
         <v>262</v>
       </c>
-      <c r="T10" s="134" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
@@ -22532,9 +22528,6 @@
       <c r="R11">
         <f>'H2'!$F$41</f>
         <v>5.3168635900000004E-2</v>
-      </c>
-      <c r="T11" s="137">
-        <v>1</v>
       </c>
       <c r="Y11" s="128" t="s">
         <v>263</v>
@@ -22572,9 +22565,6 @@
         <f>'H2'!$F$41</f>
         <v>5.3168635900000004E-2</v>
       </c>
-      <c r="T12" s="137">
-        <v>1</v>
-      </c>
       <c r="Y12" s="130" t="s">
         <v>264</v>
       </c>
@@ -22623,9 +22613,6 @@
       <c r="R13">
         <f>'H2'!G41</f>
         <v>3.9876476925000001E-2</v>
-      </c>
-      <c r="T13" s="137">
-        <v>1</v>
       </c>
       <c r="Y13" s="131" t="s">
         <v>270</v>
@@ -22697,7 +22684,6 @@
         <v>6.7984963117316303E-3</v>
       </c>
       <c r="S14" s="141"/>
-      <c r="T14" s="143"/>
       <c r="Y14" s="131" t="s">
         <v>277</v>
       </c>
@@ -22735,7 +22721,6 @@
         <f>'H2'!$M$21*4/365</f>
         <v>6.7984963117316303E-3</v>
       </c>
-      <c r="T15" s="137"/>
       <c r="Y15" t="s">
         <v>278</v>
       </c>
@@ -22786,7 +22771,6 @@
         <f>'H2'!N21*4/365</f>
         <v>4.8560687940940222E-3</v>
       </c>
-      <c r="T16" s="137"/>
       <c r="Y16" t="s">
         <v>278</v>
       </c>
@@ -22811,6 +22795,45 @@
       <c r="AF16" t="s">
         <v>279</v>
       </c>
+    </row>
+    <row r="19" spans="20:20">
+      <c r="T19" s="130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="20:20" ht="22.2" thickBot="1">
+      <c r="T20" s="131" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="20:20">
+      <c r="T21" s="134" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="20:20">
+      <c r="T22" s="137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="20:20">
+      <c r="T23" s="137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="20:20">
+      <c r="T24" s="137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="20:20">
+      <c r="T25" s="143"/>
+    </row>
+    <row r="26" spans="20:20">
+      <c r="T26" s="137"/>
+    </row>
+    <row r="27" spans="20:20">
+      <c r="T27" s="137"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26336,10 +26359,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB904E-BBCD-45B2-9EDC-CF511B90CE44}">
-  <dimension ref="C3:AF16"/>
+  <dimension ref="C3:AF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="B2" zoomScale="70" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20:T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26462,9 +26485,6 @@
       <c r="S8" s="130" t="s">
         <v>238</v>
       </c>
-      <c r="T8" s="130" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
@@ -26513,9 +26533,6 @@
       </c>
       <c r="S9" s="131" t="s">
         <v>254</v>
-      </c>
-      <c r="T9" s="131" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="22.2" thickBot="1">
@@ -26556,9 +26573,6 @@
       <c r="S10" s="131" t="s">
         <v>262</v>
       </c>
-      <c r="T10" s="134" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
@@ -26598,9 +26612,6 @@
       <c r="R11">
         <f>'NH3'!$D$36</f>
         <v>2.126745436E-2</v>
-      </c>
-      <c r="T11" s="137">
-        <v>1</v>
       </c>
       <c r="Y11" s="128" t="s">
         <v>263</v>
@@ -26638,9 +26649,6 @@
         <f>'NH3'!$D$36</f>
         <v>2.126745436E-2</v>
       </c>
-      <c r="T12" s="137">
-        <v>1</v>
-      </c>
       <c r="Y12" s="130" t="s">
         <v>264</v>
       </c>
@@ -26689,9 +26697,6 @@
       <c r="R13">
         <f>'NH3'!$D$36</f>
         <v>2.126745436E-2</v>
-      </c>
-      <c r="T13" s="137">
-        <v>1</v>
       </c>
       <c r="Y13" s="131" t="s">
         <v>270</v>
@@ -26762,7 +26767,6 @@
         <v>5.6025959852476302E-3</v>
       </c>
       <c r="S14" s="141"/>
-      <c r="T14" s="143"/>
       <c r="Y14" s="131" t="s">
         <v>277</v>
       </c>
@@ -26799,7 +26803,6 @@
         <f>'NH3'!$M$12*4/365</f>
         <v>5.6025959852476302E-3</v>
       </c>
-      <c r="T15" s="137"/>
       <c r="Y15" t="s">
         <v>278</v>
       </c>
@@ -26849,7 +26852,6 @@
         <f>'NH3'!$M$12*4/365</f>
         <v>5.6025959852476302E-3</v>
       </c>
-      <c r="T16" s="137"/>
       <c r="Y16" t="s">
         <v>278</v>
       </c>
@@ -26874,6 +26876,45 @@
       <c r="AF16" t="s">
         <v>279</v>
       </c>
+    </row>
+    <row r="20" spans="20:20">
+      <c r="T20" s="130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="20:20" ht="22.2" thickBot="1">
+      <c r="T21" s="131" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="20:20">
+      <c r="T22" s="134" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="20:20">
+      <c r="T23" s="137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="20:20">
+      <c r="T24" s="137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="20:20">
+      <c r="T25" s="137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="20:20">
+      <c r="T26" s="143"/>
+    </row>
+    <row r="27" spans="20:20">
+      <c r="T27" s="137"/>
+    </row>
+    <row r="28" spans="20:20">
+      <c r="T28" s="137"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28438,10 +28479,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4227C15-BFFE-4A93-BEC3-DE29C5B3EFBF}">
-  <dimension ref="C3:AF19"/>
+  <dimension ref="C3:AF31"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="T23" sqref="T23:T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28568,9 +28609,6 @@
       <c r="S8" s="130" t="s">
         <v>238</v>
       </c>
-      <c r="T8" s="130" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
@@ -28619,9 +28657,6 @@
       </c>
       <c r="S9" s="131" t="s">
         <v>254</v>
-      </c>
-      <c r="T9" s="131" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="15" thickBot="1">
@@ -28662,9 +28697,6 @@
       <c r="S10" s="131" t="s">
         <v>262</v>
       </c>
-      <c r="T10" s="134" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
@@ -28704,9 +28736,6 @@
       <c r="R11">
         <f>'CO2'!D39</f>
         <v>4.5662100456621009E-4</v>
-      </c>
-      <c r="T11" s="137">
-        <v>1</v>
       </c>
       <c r="Y11" s="128" t="s">
         <v>263</v>
@@ -28744,9 +28773,6 @@
         <f>'CO2'!D39</f>
         <v>4.5662100456621009E-4</v>
       </c>
-      <c r="T12" s="137">
-        <v>1</v>
-      </c>
       <c r="Y12" s="130" t="s">
         <v>264</v>
       </c>
@@ -28795,9 +28821,6 @@
       <c r="R13">
         <f>'CO2'!D39</f>
         <v>4.5662100456621009E-4</v>
-      </c>
-      <c r="T13" s="137">
-        <v>1</v>
       </c>
       <c r="Y13" s="131" t="s">
         <v>270</v>
@@ -28868,7 +28891,6 @@
         <v>0.28332015999999999</v>
       </c>
       <c r="S14" s="141"/>
-      <c r="T14" s="143"/>
       <c r="Y14" s="131" t="s">
         <v>277</v>
       </c>
@@ -28892,7 +28914,6 @@
         <f>'CO2'!S19/10</f>
         <v>9.2571428571428561E-6</v>
       </c>
-      <c r="T15" s="137"/>
       <c r="Y15" t="s">
         <v>278</v>
       </c>
@@ -28948,7 +28969,6 @@
         <f>'CO2'!M16/1000</f>
         <v>0.28332015999999999</v>
       </c>
-      <c r="T16" s="137"/>
       <c r="Y16" t="s">
         <v>278</v>
       </c>
@@ -28974,7 +28994,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="5:18">
+    <row r="17" spans="5:20">
       <c r="E17" t="s">
         <v>325</v>
       </c>
@@ -28986,7 +29006,7 @@
         <v>9.2571428571428561E-6</v>
       </c>
     </row>
-    <row r="18" spans="5:18">
+    <row r="18" spans="5:20">
       <c r="F18" t="s">
         <v>317</v>
       </c>
@@ -29017,7 +29037,7 @@
         <v>0.22848399999999999</v>
       </c>
     </row>
-    <row r="19" spans="5:18">
+    <row r="19" spans="5:20">
       <c r="E19" t="s">
         <v>325</v>
       </c>
@@ -29028,6 +29048,45 @@
         <f>'CO2'!T19/10</f>
         <v>7.714285714285714E-6</v>
       </c>
+    </row>
+    <row r="23" spans="5:20">
+      <c r="T23" s="130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="5:20" ht="22.2" thickBot="1">
+      <c r="T24" s="131" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="5:20">
+      <c r="T25" s="134" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="5:20">
+      <c r="T26" s="137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:20">
+      <c r="T27" s="137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="5:20">
+      <c r="T28" s="137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="5:20">
+      <c r="T29" s="143"/>
+    </row>
+    <row r="30" spans="5:20">
+      <c r="T30" s="137"/>
+    </row>
+    <row r="31" spans="5:20">
+      <c r="T31" s="137"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB5615-B6E9-4C35-893C-C938C16365D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABB7AD2-5AC0-4511-BE13-CE556B98F258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
@@ -9787,7 +9787,7 @@
   </sheetPr>
   <dimension ref="B2:T124"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" workbookViewId="0">
+    <sheetView topLeftCell="B11" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -17451,7 +17451,7 @@
   <dimension ref="C3:AF26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17:T22"/>
+      <selection activeCell="T8" sqref="T8:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17570,6 +17570,9 @@
       <c r="S8" s="130" t="s">
         <v>238</v>
       </c>
+      <c r="T8" s="130" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
@@ -17618,6 +17621,9 @@
       </c>
       <c r="S9" s="131" t="s">
         <v>254</v>
+      </c>
+      <c r="T9" s="131" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="15" thickBot="1">
@@ -17658,6 +17664,9 @@
       <c r="S10" s="131" t="s">
         <v>262</v>
       </c>
+      <c r="T10" s="134" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
@@ -17698,6 +17707,9 @@
       <c r="R11">
         <f>'Transmission lines'!G8*'Transmission lines'!O13</f>
         <v>2.6201474376260068</v>
+      </c>
+      <c r="T11" s="137">
+        <v>1.5</v>
       </c>
       <c r="Y11" s="128" t="s">
         <v>263</v>
@@ -17736,6 +17748,9 @@
         <f>'Transmission lines'!Q23</f>
         <v>5.4943731921535504</v>
       </c>
+      <c r="T12" s="137">
+        <v>1.5</v>
+      </c>
       <c r="Y12" s="130" t="s">
         <v>264</v>
       </c>
@@ -17785,6 +17800,9 @@
       <c r="R13">
         <f>'Transmission lines'!R23</f>
         <v>5.7607706232760041</v>
+      </c>
+      <c r="T13">
+        <v>1.5</v>
       </c>
       <c r="Y13" s="131" t="s">
         <v>270</v>
@@ -17861,41 +17879,17 @@
       <c r="O16" s="138"/>
       <c r="T16" s="137"/>
     </row>
-    <row r="17" spans="8:20">
-      <c r="T17" s="130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="8:20" ht="22.2" thickBot="1">
+    <row r="18" spans="8:20">
       <c r="H18" s="133"/>
       <c r="I18" s="133"/>
-      <c r="T18" s="131" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="19" spans="8:20">
       <c r="I19" s="133"/>
       <c r="O19" s="138"/>
       <c r="P19" s="140"/>
-      <c r="T19" s="134" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="8:20">
-      <c r="T20" s="137">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="21" spans="8:20">
-      <c r="T21" s="137">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="22" spans="8:20">
       <c r="H22" s="133"/>
-      <c r="T22">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="23" spans="8:20">
       <c r="I23" s="133"/>
@@ -22278,10 +22272,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FAA1D-3717-457D-9B77-4AA5B285502A}">
-  <dimension ref="C3:AF27"/>
+  <dimension ref="C3:AF16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19:T27"/>
+      <selection activeCell="T8" sqref="T8:T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22401,6 +22395,9 @@
       <c r="S8" s="130" t="s">
         <v>238</v>
       </c>
+      <c r="T8" s="130" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
@@ -22449,6 +22446,9 @@
       </c>
       <c r="S9" s="131" t="s">
         <v>254</v>
+      </c>
+      <c r="T9" s="131" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="22.2" thickBot="1">
@@ -22489,6 +22489,9 @@
       <c r="S10" s="131" t="s">
         <v>262</v>
       </c>
+      <c r="T10" s="134" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
@@ -22528,6 +22531,9 @@
       <c r="R11">
         <f>'H2'!$F$41</f>
         <v>5.3168635900000004E-2</v>
+      </c>
+      <c r="T11" s="137">
+        <v>1</v>
       </c>
       <c r="Y11" s="128" t="s">
         <v>263</v>
@@ -22565,6 +22571,9 @@
         <f>'H2'!$F$41</f>
         <v>5.3168635900000004E-2</v>
       </c>
+      <c r="T12" s="137">
+        <v>1</v>
+      </c>
       <c r="Y12" s="130" t="s">
         <v>264</v>
       </c>
@@ -22613,6 +22622,9 @@
       <c r="R13">
         <f>'H2'!G41</f>
         <v>3.9876476925000001E-2</v>
+      </c>
+      <c r="T13" s="137">
+        <v>1</v>
       </c>
       <c r="Y13" s="131" t="s">
         <v>270</v>
@@ -22684,6 +22696,7 @@
         <v>6.7984963117316303E-3</v>
       </c>
       <c r="S14" s="141"/>
+      <c r="T14" s="143"/>
       <c r="Y14" s="131" t="s">
         <v>277</v>
       </c>
@@ -22721,6 +22734,7 @@
         <f>'H2'!$M$21*4/365</f>
         <v>6.7984963117316303E-3</v>
       </c>
+      <c r="T15" s="137"/>
       <c r="Y15" t="s">
         <v>278</v>
       </c>
@@ -22771,6 +22785,7 @@
         <f>'H2'!N21*4/365</f>
         <v>4.8560687940940222E-3</v>
       </c>
+      <c r="T16" s="137"/>
       <c r="Y16" t="s">
         <v>278</v>
       </c>
@@ -22795,45 +22810,6 @@
       <c r="AF16" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="19" spans="20:20">
-      <c r="T19" s="130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="20:20" ht="22.2" thickBot="1">
-      <c r="T20" s="131" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="20:20">
-      <c r="T21" s="134" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="20:20">
-      <c r="T22" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="20:20">
-      <c r="T23" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="20:20">
-      <c r="T24" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="20:20">
-      <c r="T25" s="143"/>
-    </row>
-    <row r="26" spans="20:20">
-      <c r="T26" s="137"/>
-    </row>
-    <row r="27" spans="20:20">
-      <c r="T27" s="137"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26359,10 +26335,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB904E-BBCD-45B2-9EDC-CF511B90CE44}">
-  <dimension ref="C3:AF28"/>
+  <dimension ref="C3:AF16"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScale="70" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20:T28"/>
+      <selection activeCell="T8" sqref="T8:T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26485,6 +26461,9 @@
       <c r="S8" s="130" t="s">
         <v>238</v>
       </c>
+      <c r="T8" s="130" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
@@ -26533,6 +26512,9 @@
       </c>
       <c r="S9" s="131" t="s">
         <v>254</v>
+      </c>
+      <c r="T9" s="131" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="22.2" thickBot="1">
@@ -26573,6 +26555,9 @@
       <c r="S10" s="131" t="s">
         <v>262</v>
       </c>
+      <c r="T10" s="134" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
@@ -26612,6 +26597,9 @@
       <c r="R11">
         <f>'NH3'!$D$36</f>
         <v>2.126745436E-2</v>
+      </c>
+      <c r="T11" s="137">
+        <v>1</v>
       </c>
       <c r="Y11" s="128" t="s">
         <v>263</v>
@@ -26649,6 +26637,9 @@
         <f>'NH3'!$D$36</f>
         <v>2.126745436E-2</v>
       </c>
+      <c r="T12" s="137">
+        <v>1</v>
+      </c>
       <c r="Y12" s="130" t="s">
         <v>264</v>
       </c>
@@ -26697,6 +26688,9 @@
       <c r="R13">
         <f>'NH3'!$D$36</f>
         <v>2.126745436E-2</v>
+      </c>
+      <c r="T13" s="137">
+        <v>1</v>
       </c>
       <c r="Y13" s="131" t="s">
         <v>270</v>
@@ -26767,6 +26761,7 @@
         <v>5.6025959852476302E-3</v>
       </c>
       <c r="S14" s="141"/>
+      <c r="T14" s="143"/>
       <c r="Y14" s="131" t="s">
         <v>277</v>
       </c>
@@ -26803,6 +26798,7 @@
         <f>'NH3'!$M$12*4/365</f>
         <v>5.6025959852476302E-3</v>
       </c>
+      <c r="T15" s="137"/>
       <c r="Y15" t="s">
         <v>278</v>
       </c>
@@ -26852,6 +26848,7 @@
         <f>'NH3'!$M$12*4/365</f>
         <v>5.6025959852476302E-3</v>
       </c>
+      <c r="T16" s="137"/>
       <c r="Y16" t="s">
         <v>278</v>
       </c>
@@ -26876,45 +26873,6 @@
       <c r="AF16" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="20" spans="20:20">
-      <c r="T20" s="130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="20:20" ht="22.2" thickBot="1">
-      <c r="T21" s="131" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="20:20">
-      <c r="T22" s="134" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" spans="20:20">
-      <c r="T23" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="20:20">
-      <c r="T24" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="20:20">
-      <c r="T25" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="20:20">
-      <c r="T26" s="143"/>
-    </row>
-    <row r="27" spans="20:20">
-      <c r="T27" s="137"/>
-    </row>
-    <row r="28" spans="20:20">
-      <c r="T28" s="137"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28479,10 +28437,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4227C15-BFFE-4A93-BEC3-DE29C5B3EFBF}">
-  <dimension ref="C3:AF31"/>
+  <dimension ref="C3:AF19"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23:T32"/>
+      <selection activeCell="T8" sqref="T8:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28609,6 +28567,9 @@
       <c r="S8" s="130" t="s">
         <v>238</v>
       </c>
+      <c r="T8" s="130" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="9" spans="3:32" ht="32.4" thickBot="1">
       <c r="C9" s="131" t="s">
@@ -28657,6 +28618,9 @@
       </c>
       <c r="S9" s="131" t="s">
         <v>254</v>
+      </c>
+      <c r="T9" s="131" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="15" thickBot="1">
@@ -28697,6 +28661,9 @@
       <c r="S10" s="131" t="s">
         <v>262</v>
       </c>
+      <c r="T10" s="134" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="11" spans="3:32">
       <c r="C11" t="s">
@@ -28736,6 +28703,9 @@
       <c r="R11">
         <f>'CO2'!D39</f>
         <v>4.5662100456621009E-4</v>
+      </c>
+      <c r="T11" s="137">
+        <v>1</v>
       </c>
       <c r="Y11" s="128" t="s">
         <v>263</v>
@@ -28773,6 +28743,9 @@
         <f>'CO2'!D39</f>
         <v>4.5662100456621009E-4</v>
       </c>
+      <c r="T12" s="137">
+        <v>1</v>
+      </c>
       <c r="Y12" s="130" t="s">
         <v>264</v>
       </c>
@@ -28821,6 +28794,9 @@
       <c r="R13">
         <f>'CO2'!D39</f>
         <v>4.5662100456621009E-4</v>
+      </c>
+      <c r="T13" s="137">
+        <v>1</v>
       </c>
       <c r="Y13" s="131" t="s">
         <v>270</v>
@@ -28891,6 +28867,7 @@
         <v>0.28332015999999999</v>
       </c>
       <c r="S14" s="141"/>
+      <c r="T14" s="143"/>
       <c r="Y14" s="131" t="s">
         <v>277</v>
       </c>
@@ -28914,6 +28891,7 @@
         <f>'CO2'!S19/10</f>
         <v>9.2571428571428561E-6</v>
       </c>
+      <c r="T15" s="137"/>
       <c r="Y15" t="s">
         <v>278</v>
       </c>
@@ -28969,6 +28947,7 @@
         <f>'CO2'!M16/1000</f>
         <v>0.28332015999999999</v>
       </c>
+      <c r="T16" s="137"/>
       <c r="Y16" t="s">
         <v>278</v>
       </c>
@@ -28994,7 +28973,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="5:20">
+    <row r="17" spans="5:18">
       <c r="E17" t="s">
         <v>325</v>
       </c>
@@ -29006,7 +28985,7 @@
         <v>9.2571428571428561E-6</v>
       </c>
     </row>
-    <row r="18" spans="5:20">
+    <row r="18" spans="5:18">
       <c r="F18" t="s">
         <v>317</v>
       </c>
@@ -29037,7 +29016,7 @@
         <v>0.22848399999999999</v>
       </c>
     </row>
-    <row r="19" spans="5:20">
+    <row r="19" spans="5:18">
       <c r="E19" t="s">
         <v>325</v>
       </c>
@@ -29048,45 +29027,6 @@
         <f>'CO2'!T19/10</f>
         <v>7.714285714285714E-6</v>
       </c>
-    </row>
-    <row r="23" spans="5:20">
-      <c r="T23" s="130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="5:20" ht="22.2" thickBot="1">
-      <c r="T24" s="131" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="5:20">
-      <c r="T25" s="134" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="5:20">
-      <c r="T26" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="5:20">
-      <c r="T27" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="5:20">
-      <c r="T28" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="5:20">
-      <c r="T29" s="143"/>
-    </row>
-    <row r="30" spans="5:20">
-      <c r="T30" s="137"/>
-    </row>
-    <row r="31" spans="5:20">
-      <c r="T31" s="137"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABB7AD2-5AC0-4511-BE13-CE556B98F258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D2FB3A-809B-4BF1-8B2C-51C34CCAE4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -11284,7 +11284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195BF64-9F46-4536-8385-3D462E705609}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -22274,7 +22274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FAA1D-3717-457D-9B77-4AA5B285502A}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="62" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="62" workbookViewId="0">
       <selection activeCell="T8" sqref="T8:T16"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D2FB3A-809B-4BF1-8B2C-51C34CCAE4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48DC7F4-1071-483E-B97A-A3830B3601BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -17450,8 +17450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58317BE-2B49-4D94-8D23-F69EEBB61B78}">
   <dimension ref="C3:AF26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8:T13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22274,7 +22274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FAA1D-3717-457D-9B77-4AA5B285502A}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="62" workbookViewId="0">
+    <sheetView zoomScale="62" workbookViewId="0">
       <selection activeCell="T8" sqref="T8:T16"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48DC7F4-1071-483E-B97A-A3830B3601BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB70F2DC-EFFD-4A93-8956-2635D78B882B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -6706,7 +6706,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>2815</xdr:colOff>
+      <xdr:colOff>2814</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>20098</xdr:rowOff>
     </xdr:to>
@@ -6749,7 +6749,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>37170</xdr:colOff>
+      <xdr:colOff>37169</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>134556</xdr:rowOff>
     </xdr:to>
@@ -6834,8 +6834,8 @@
       <xdr:rowOff>14018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>93269</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4535567</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>35465</xdr:rowOff>
     </xdr:to>
@@ -6878,7 +6878,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>364899</xdr:colOff>
+      <xdr:colOff>364898</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>136307</xdr:rowOff>
     </xdr:to>
@@ -7265,14 +7265,14 @@
   </sheetPr>
   <dimension ref="D2:R103"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="84" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="E20" zoomScale="52" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="64.88671875" customWidth="1"/>
+    <col min="5" max="5" width="90.88671875" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.44140625" bestFit="1" customWidth="1"/>
@@ -9787,7 +9787,7 @@
   </sheetPr>
   <dimension ref="B2:T124"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -17450,7 +17450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58317BE-2B49-4D94-8D23-F69EEBB61B78}">
   <dimension ref="C3:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="78" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -17913,7 +17913,7 @@
   </sheetPr>
   <dimension ref="C1:U125"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="86" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
@@ -29042,7 +29042,7 @@
   </sheetPr>
   <dimension ref="B2:T125"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="64" workbookViewId="0">
+    <sheetView zoomScale="64" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_TRA.xlsx
+++ b/SubRES_TMPL/SubRES_TRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB70F2DC-EFFD-4A93-8956-2635D78B882B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569E2FEE-D491-4C6F-8039-27DB1308B710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -7265,8 +7265,8 @@
   </sheetPr>
   <dimension ref="D2:R103"/>
   <sheetViews>
-    <sheetView topLeftCell="E20" zoomScale="52" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView topLeftCell="A12" zoomScale="52" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9787,7 +9787,7 @@
   </sheetPr>
   <dimension ref="B2:T124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -28439,8 +28439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4227C15-BFFE-4A93-BEC3-DE29C5B3EFBF}">
   <dimension ref="C3:AF19"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8:T17"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
